--- a/BackTest/2020-01-23 BackTest BTT.xlsx
+++ b/BackTest/2020-01-23 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4254</v>
+        <v>0.4255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4254</v>
+        <v>0.4255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4254</v>
+        <v>0.4255</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4254</v>
+        <v>0.4255</v>
       </c>
       <c r="F2" t="n">
-        <v>6342772.679</v>
+        <v>239257.3651</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4252850000000005</v>
+        <v>0.4251916666666671</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -471,74 +471,70 @@
         <v>0.4254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4255</v>
+        <v>0.4254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4255</v>
+        <v>0.4254</v>
       </c>
       <c r="E3" t="n">
         <v>0.4254</v>
       </c>
       <c r="F3" t="n">
+        <v>6342772.679</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4252850000000005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="F4" t="n">
         <v>8326547.716</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>0.4254416666666671</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.4254</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7954</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4254700000000005</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -548,30 +544,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4253</v>
+        <v>0.4232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4257</v>
+        <v>0.4232</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4257</v>
+        <v>0.4232</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4253</v>
+        <v>0.4232</v>
       </c>
       <c r="F5" t="n">
-        <v>893400.45734686</v>
+        <v>7954</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4255333333333338</v>
+        <v>0.4254700000000005</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.4255</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -587,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4257</v>
+        <v>0.4253</v>
       </c>
       <c r="C6" t="n">
         <v>0.4257</v>
@@ -596,21 +594,23 @@
         <v>0.4257</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4257</v>
+        <v>0.4253</v>
       </c>
       <c r="F6" t="n">
-        <v>1158553.124</v>
+        <v>893400.45734686</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4255966666666671</v>
+        <v>0.4255333333333338</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.4232</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -638,18 +638,20 @@
         <v>0.4257</v>
       </c>
       <c r="F7" t="n">
-        <v>276363.5426</v>
+        <v>1158553.124</v>
       </c>
       <c r="G7" t="n">
-        <v>0.425611666666667</v>
+        <v>0.4255966666666671</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.4257</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -677,10 +679,10 @@
         <v>0.4257</v>
       </c>
       <c r="F8" t="n">
-        <v>138604.6042</v>
+        <v>276363.5426</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4256250000000003</v>
+        <v>0.425611666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4252</v>
+        <v>0.4257</v>
       </c>
       <c r="C9" t="n">
         <v>0.4257</v>
@@ -713,13 +715,13 @@
         <v>0.4257</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4252</v>
+        <v>0.4257</v>
       </c>
       <c r="F9" t="n">
-        <v>9257017.96609525</v>
+        <v>138604.6042</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4256383333333336</v>
+        <v>0.4256250000000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -743,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4257</v>
+        <v>0.4252</v>
       </c>
       <c r="C10" t="n">
         <v>0.4257</v>
@@ -752,13 +754,13 @@
         <v>0.4257</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4257</v>
+        <v>0.4252</v>
       </c>
       <c r="F10" t="n">
-        <v>7305</v>
+        <v>9257017.96609525</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4256800000000002</v>
+        <v>0.4256383333333336</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -782,22 +784,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4241</v>
+        <v>0.4257</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4232</v>
+        <v>0.4257</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4241</v>
+        <v>0.4257</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4232</v>
+        <v>0.4257</v>
       </c>
       <c r="F11" t="n">
-        <v>12585675.8156</v>
+        <v>7305</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4255750000000003</v>
+        <v>0.4256800000000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -821,22 +823,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4242</v>
+        <v>0.4241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4242</v>
+        <v>0.4232</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4242</v>
+        <v>0.4241</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4242</v>
+        <v>0.4232</v>
       </c>
       <c r="F12" t="n">
-        <v>554151.3689999999</v>
+        <v>12585675.8156</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4254950000000003</v>
+        <v>0.4255750000000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -860,22 +862,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4256</v>
+        <v>0.4242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4256</v>
+        <v>0.4242</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4256</v>
+        <v>0.4242</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4256</v>
+        <v>0.4242</v>
       </c>
       <c r="F13" t="n">
-        <v>717538.4611</v>
+        <v>554151.3689999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4254383333333336</v>
+        <v>0.4254950000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0.4256</v>
       </c>
       <c r="F14" t="n">
-        <v>15726.461</v>
+        <v>717538.4611</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4253816666666669</v>
+        <v>0.4254383333333336</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -938,22 +940,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4257</v>
+        <v>0.4256</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4279</v>
+        <v>0.4256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4279</v>
+        <v>0.4256</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4257</v>
+        <v>0.4256</v>
       </c>
       <c r="F15" t="n">
-        <v>10165.0757</v>
+        <v>15726.461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4253633333333336</v>
+        <v>0.4253816666666669</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -977,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4279</v>
+        <v>0.4257</v>
       </c>
       <c r="C16" t="n">
         <v>0.4279</v>
@@ -986,13 +988,13 @@
         <v>0.4279</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4279</v>
+        <v>0.4257</v>
       </c>
       <c r="F16" t="n">
-        <v>9495373.8113</v>
+        <v>10165.0757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4254283333333337</v>
+        <v>0.4253633333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1016,22 +1018,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.428</v>
+        <v>0.4279</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4257</v>
+        <v>0.4279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4281</v>
+        <v>0.4279</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4257</v>
+        <v>0.4279</v>
       </c>
       <c r="F17" t="n">
-        <v>40790.2934</v>
+        <v>9495373.8113</v>
       </c>
       <c r="G17" t="n">
-        <v>0.425456666666667</v>
+        <v>0.4254283333333337</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1055,22 +1057,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4281</v>
+        <v>0.428</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4281</v>
+        <v>0.4257</v>
       </c>
       <c r="D18" t="n">
         <v>0.4281</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4281</v>
+        <v>0.4257</v>
       </c>
       <c r="F18" t="n">
-        <v>672730.4816000001</v>
+        <v>40790.2934</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4255250000000004</v>
+        <v>0.425456666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1106,10 +1108,10 @@
         <v>0.4281</v>
       </c>
       <c r="F19" t="n">
-        <v>389692.025</v>
+        <v>672730.4816000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4255683333333337</v>
+        <v>0.4255250000000004</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.429</v>
+        <v>0.4281</v>
       </c>
       <c r="C20" t="n">
-        <v>0.429</v>
+        <v>0.4281</v>
       </c>
       <c r="D20" t="n">
-        <v>0.429</v>
+        <v>0.4281</v>
       </c>
       <c r="E20" t="n">
-        <v>0.429</v>
+        <v>0.4281</v>
       </c>
       <c r="F20" t="n">
-        <v>5249767.3066</v>
+        <v>389692.025</v>
       </c>
       <c r="G20" t="n">
-        <v>0.425626666666667</v>
+        <v>0.4255683333333337</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1172,22 +1174,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4295</v>
+        <v>0.429</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4295</v>
+        <v>0.429</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4295</v>
+        <v>0.429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4295</v>
+        <v>0.429</v>
       </c>
       <c r="F21" t="n">
-        <v>1185</v>
+        <v>5249767.3066</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4256483333333337</v>
+        <v>0.425626666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1223,10 +1225,10 @@
         <v>0.4295</v>
       </c>
       <c r="F22" t="n">
-        <v>190548.7387</v>
+        <v>1185</v>
       </c>
       <c r="G22" t="n">
-        <v>0.425676666666667</v>
+        <v>0.4256483333333337</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1250,22 +1252,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4281</v>
+        <v>0.4295</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4281</v>
+        <v>0.4295</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4281</v>
+        <v>0.4295</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4281</v>
+        <v>0.4295</v>
       </c>
       <c r="F23" t="n">
-        <v>2675927.2207</v>
+        <v>190548.7387</v>
       </c>
       <c r="G23" t="n">
-        <v>0.425681666666667</v>
+        <v>0.425676666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1289,22 +1291,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4295</v>
+        <v>0.4281</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4295</v>
+        <v>0.4281</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4295</v>
+        <v>0.4281</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4295</v>
+        <v>0.4281</v>
       </c>
       <c r="F24" t="n">
-        <v>580618.8777</v>
+        <v>2675927.2207</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4256933333333338</v>
+        <v>0.425681666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1328,22 +1330,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4282</v>
+        <v>0.4295</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4282</v>
+        <v>0.4295</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4282</v>
+        <v>0.4295</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4282</v>
+        <v>0.4295</v>
       </c>
       <c r="F25" t="n">
-        <v>785807.8909</v>
+        <v>580618.8777</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4256866666666671</v>
+        <v>0.4256933333333338</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4294</v>
+        <v>0.4282</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4294</v>
+        <v>0.4282</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4294</v>
+        <v>0.4282</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4294</v>
+        <v>0.4282</v>
       </c>
       <c r="F26" t="n">
-        <v>181049.5884</v>
+        <v>785807.8909</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4257000000000005</v>
+        <v>0.4256866666666671</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1406,22 +1408,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4282</v>
+        <v>0.4294</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4282</v>
+        <v>0.4294</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4282</v>
+        <v>0.4294</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4282</v>
+        <v>0.4294</v>
       </c>
       <c r="F27" t="n">
-        <v>23353.5731</v>
+        <v>181049.5884</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4256933333333338</v>
+        <v>0.4257000000000005</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1457,7 +1459,7 @@
         <v>0.4282</v>
       </c>
       <c r="F28" t="n">
-        <v>180641.6003</v>
+        <v>23353.5731</v>
       </c>
       <c r="G28" t="n">
         <v>0.4256933333333338</v>
@@ -1484,22 +1486,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4294</v>
+        <v>0.4282</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4295</v>
+        <v>0.4282</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4295</v>
+        <v>0.4282</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4294</v>
+        <v>0.4282</v>
       </c>
       <c r="F29" t="n">
-        <v>2217458.9834</v>
+        <v>180641.6003</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4257066666666672</v>
+        <v>0.4256933333333338</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1523,22 +1525,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4296</v>
+        <v>0.4294</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4296</v>
+        <v>0.4295</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4296</v>
+        <v>0.4295</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4296</v>
+        <v>0.4294</v>
       </c>
       <c r="F30" t="n">
-        <v>1002551.9766</v>
+        <v>2217458.9834</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4257316666666672</v>
+        <v>0.4257066666666672</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1562,22 +1564,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4282</v>
+        <v>0.4296</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4281</v>
+        <v>0.4296</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4282</v>
+        <v>0.4296</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4281</v>
+        <v>0.4296</v>
       </c>
       <c r="F31" t="n">
-        <v>13099421.9743</v>
+        <v>1002551.9766</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4257766666666672</v>
+        <v>0.4257316666666672</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1601,22 +1603,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4281</v>
+        <v>0.4282</v>
       </c>
       <c r="C32" t="n">
         <v>0.4281</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4281</v>
+        <v>0.4282</v>
       </c>
       <c r="E32" t="n">
         <v>0.4281</v>
       </c>
       <c r="F32" t="n">
-        <v>107132.1396</v>
+        <v>13099421.9743</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4258316666666672</v>
+        <v>0.4257766666666672</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0.4281</v>
       </c>
       <c r="F33" t="n">
-        <v>790942.2826</v>
+        <v>107132.1396</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4258883333333338</v>
+        <v>0.4258316666666672</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1682,19 +1684,19 @@
         <v>0.4281</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4296</v>
+        <v>0.4281</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4296</v>
+        <v>0.4281</v>
       </c>
       <c r="E34" t="n">
         <v>0.4281</v>
       </c>
       <c r="F34" t="n">
-        <v>1085000</v>
+        <v>790942.2826</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4259700000000005</v>
+        <v>0.4258883333333338</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1721,19 +1723,19 @@
         <v>0.4281</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4281</v>
+        <v>0.4296</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4281</v>
+        <v>0.4296</v>
       </c>
       <c r="E35" t="n">
         <v>0.4281</v>
       </c>
       <c r="F35" t="n">
-        <v>2490217.5818</v>
+        <v>1085000</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4260266666666671</v>
+        <v>0.4259700000000005</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1757,22 +1759,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4296</v>
+        <v>0.4281</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4296</v>
+        <v>0.4281</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4296</v>
+        <v>0.4281</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4296</v>
+        <v>0.4281</v>
       </c>
       <c r="F36" t="n">
-        <v>507503.5518</v>
+        <v>2490217.5818</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4261083333333338</v>
+        <v>0.4260266666666671</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1799,19 +1801,19 @@
         <v>0.4296</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4287</v>
+        <v>0.4296</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4297</v>
+        <v>0.4296</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4287</v>
+        <v>0.4296</v>
       </c>
       <c r="F37" t="n">
-        <v>5202018.0137</v>
+        <v>507503.5518</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4261750000000004</v>
+        <v>0.4261083333333338</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1835,22 +1837,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.43</v>
+        <v>0.4296</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4304</v>
+        <v>0.4287</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4304</v>
+        <v>0.4297</v>
       </c>
       <c r="E38" t="n">
-        <v>0.43</v>
+        <v>0.4287</v>
       </c>
       <c r="F38" t="n">
-        <v>3742469.1618</v>
+        <v>5202018.0137</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4262700000000004</v>
+        <v>0.4261750000000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1874,22 +1876,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4305</v>
+        <v>0.43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4305</v>
+        <v>0.4304</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4305</v>
+        <v>0.4304</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4305</v>
+        <v>0.43</v>
       </c>
       <c r="F39" t="n">
-        <v>1052247.6743</v>
+        <v>3742469.1618</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4263900000000003</v>
+        <v>0.4262700000000004</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1916,19 +1918,19 @@
         <v>0.4305</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4381</v>
+        <v>0.4305</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4381</v>
+        <v>0.4305</v>
       </c>
       <c r="E40" t="n">
         <v>0.4305</v>
       </c>
       <c r="F40" t="n">
-        <v>53421968.2122</v>
+        <v>1052247.6743</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4266133333333336</v>
+        <v>0.4263900000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1952,22 +1954,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.434</v>
+        <v>0.4305</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4305</v>
+        <v>0.4381</v>
       </c>
       <c r="D41" t="n">
-        <v>0.434</v>
+        <v>0.4381</v>
       </c>
       <c r="E41" t="n">
         <v>0.4305</v>
       </c>
       <c r="F41" t="n">
-        <v>2985722.1812</v>
+        <v>53421968.2122</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4267333333333336</v>
+        <v>0.4266133333333336</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1991,72 +1993,76 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4329</v>
+        <v>0.434</v>
       </c>
       <c r="C42" t="n">
-        <v>0.434</v>
+        <v>0.4305</v>
       </c>
       <c r="D42" t="n">
         <v>0.434</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4329</v>
+        <v>0.4305</v>
       </c>
       <c r="F42" t="n">
-        <v>2369.3214</v>
+        <v>2985722.1812</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4268883333333335</v>
+        <v>0.4267333333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4341</v>
+        <v>0.4329</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4341</v>
+        <v>0.434</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4341</v>
+        <v>0.434</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4341</v>
+        <v>0.4329</v>
       </c>
       <c r="F43" t="n">
-        <v>2733163.7143</v>
+        <v>2369.3214</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4270450000000002</v>
+        <v>0.4268883333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2075,16 +2081,16 @@
         <v>0.4341</v>
       </c>
       <c r="F44" t="n">
-        <v>235818.928</v>
+        <v>2733163.7143</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4272016666666669</v>
+        <v>0.4270450000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2098,22 +2104,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.432</v>
+        <v>0.4341</v>
       </c>
       <c r="C45" t="n">
-        <v>0.432</v>
+        <v>0.4341</v>
       </c>
       <c r="D45" t="n">
-        <v>0.432</v>
+        <v>0.4341</v>
       </c>
       <c r="E45" t="n">
-        <v>0.432</v>
+        <v>0.4341</v>
       </c>
       <c r="F45" t="n">
-        <v>54301.1302</v>
+        <v>235818.928</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4273233333333335</v>
+        <v>0.4272016666666669</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2145,10 +2151,10 @@
         <v>0.432</v>
       </c>
       <c r="F46" t="n">
-        <v>357811.1307</v>
+        <v>54301.1302</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4274450000000001</v>
+        <v>0.4273233333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2168,22 +2174,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="F47" t="n">
-        <v>526443.8005</v>
+        <v>357811.1307</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4275683333333334</v>
+        <v>0.4274450000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2203,22 +2209,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4322</v>
+        <v>0.4321</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4342</v>
+        <v>0.4321</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4342</v>
+        <v>0.4321</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4322</v>
+        <v>0.4321</v>
       </c>
       <c r="F48" t="n">
-        <v>4983621.329</v>
+        <v>526443.8005</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4277266666666667</v>
+        <v>0.4275683333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2238,22 +2244,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4323</v>
+        <v>0.4322</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4323</v>
+        <v>0.4342</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4323</v>
+        <v>0.4342</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4323</v>
+        <v>0.4322</v>
       </c>
       <c r="F49" t="n">
-        <v>14597176.3091</v>
+        <v>4983621.329</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4278533333333334</v>
+        <v>0.4277266666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2276,19 +2282,19 @@
         <v>0.4323</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4342</v>
+        <v>0.4323</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4342</v>
+        <v>0.4323</v>
       </c>
       <c r="E50" t="n">
         <v>0.4323</v>
       </c>
       <c r="F50" t="n">
-        <v>1783477.7934</v>
+        <v>14597176.3091</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4280116666666667</v>
+        <v>0.4278533333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2308,7 +2314,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4342</v>
+        <v>0.4323</v>
       </c>
       <c r="C51" t="n">
         <v>0.4342</v>
@@ -2317,13 +2323,13 @@
         <v>0.4342</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4342</v>
+        <v>0.4323</v>
       </c>
       <c r="F51" t="n">
-        <v>3091.0057</v>
+        <v>1783477.7934</v>
       </c>
       <c r="G51" t="n">
-        <v>0.42817</v>
+        <v>0.4280116666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2346,19 +2352,19 @@
         <v>0.4342</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4306</v>
+        <v>0.4342</v>
       </c>
       <c r="D52" t="n">
         <v>0.4342</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4306</v>
+        <v>0.4342</v>
       </c>
       <c r="F52" t="n">
-        <v>12624706.0077</v>
+        <v>3091.0057</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4282683333333333</v>
+        <v>0.42817</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2378,22 +2384,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4306</v>
+        <v>0.4342</v>
       </c>
       <c r="C53" t="n">
         <v>0.4306</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4306</v>
+        <v>0.4342</v>
       </c>
       <c r="E53" t="n">
         <v>0.4306</v>
       </c>
       <c r="F53" t="n">
-        <v>525591.7375</v>
+        <v>12624706.0077</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4283899999999999</v>
+        <v>0.4282683333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2413,22 +2419,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4307</v>
+        <v>0.4306</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4307</v>
+        <v>0.4306</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4307</v>
+        <v>0.4306</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4307</v>
+        <v>0.4306</v>
       </c>
       <c r="F54" t="n">
-        <v>108642.32</v>
+        <v>525591.7375</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4285133333333332</v>
+        <v>0.4283899999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2448,22 +2454,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4334</v>
+        <v>0.4307</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4334</v>
+        <v>0.4307</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4334</v>
+        <v>0.4307</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4334</v>
+        <v>0.4307</v>
       </c>
       <c r="F55" t="n">
-        <v>1180.344</v>
+        <v>108642.32</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4286816666666666</v>
+        <v>0.4285133333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2483,22 +2489,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4309</v>
+        <v>0.4334</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4309</v>
+        <v>0.4334</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4309</v>
+        <v>0.4334</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4309</v>
+        <v>0.4334</v>
       </c>
       <c r="F56" t="n">
-        <v>2703.4288</v>
+        <v>1180.344</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4288083333333332</v>
+        <v>0.4286816666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2518,22 +2524,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4334</v>
+        <v>0.4309</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4334</v>
+        <v>0.4309</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4334</v>
+        <v>0.4309</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4334</v>
+        <v>0.4309</v>
       </c>
       <c r="F57" t="n">
-        <v>1190.09</v>
+        <v>2703.4288</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4289366666666666</v>
+        <v>0.4288083333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2553,22 +2559,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4309</v>
+        <v>0.4334</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4309</v>
+        <v>0.4334</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4309</v>
+        <v>0.4334</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4309</v>
+        <v>0.4334</v>
       </c>
       <c r="F58" t="n">
-        <v>12634.1981</v>
+        <v>1190.09</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4290216666666666</v>
+        <v>0.4289366666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2600,10 +2606,10 @@
         <v>0.4309</v>
       </c>
       <c r="F59" t="n">
-        <v>62019.4411</v>
+        <v>12634.1981</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4291499999999999</v>
+        <v>0.4290216666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2626,19 +2632,19 @@
         <v>0.4309</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4306</v>
+        <v>0.4309</v>
       </c>
       <c r="D60" t="n">
         <v>0.4309</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4306</v>
+        <v>0.4309</v>
       </c>
       <c r="F60" t="n">
-        <v>1411927.4954</v>
+        <v>62019.4411</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4292299999999999</v>
+        <v>0.4291499999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2658,22 +2664,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>0.4309</v>
+      </c>
+      <c r="C61" t="n">
         <v>0.4306</v>
       </c>
-      <c r="C61" t="n">
-        <v>0.4332</v>
-      </c>
       <c r="D61" t="n">
-        <v>0.4332</v>
+        <v>0.4309</v>
       </c>
       <c r="E61" t="n">
         <v>0.4306</v>
       </c>
       <c r="F61" t="n">
-        <v>1058469.4088</v>
+        <v>1411927.4954</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4293583333333332</v>
+        <v>0.4292299999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2693,7 +2699,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4332</v>
+        <v>0.4306</v>
       </c>
       <c r="C62" t="n">
         <v>0.4332</v>
@@ -2702,13 +2708,13 @@
         <v>0.4332</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4332</v>
+        <v>0.4306</v>
       </c>
       <c r="F62" t="n">
-        <v>170180.3158</v>
+        <v>1058469.4088</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4294883333333332</v>
+        <v>0.4293583333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2728,22 +2734,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4331</v>
+        <v>0.4332</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4331</v>
+        <v>0.4332</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4331</v>
+        <v>0.4332</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4331</v>
+        <v>0.4332</v>
       </c>
       <c r="F63" t="n">
-        <v>2231.7487</v>
+        <v>170180.3158</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4296149999999999</v>
+        <v>0.4294883333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2775,10 +2781,10 @@
         <v>0.4331</v>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>2231.7487</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4297799999999999</v>
+        <v>0.4296149999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2798,22 +2804,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.433</v>
+        <v>0.4331</v>
       </c>
       <c r="C65" t="n">
-        <v>0.433</v>
+        <v>0.4331</v>
       </c>
       <c r="D65" t="n">
-        <v>0.433</v>
+        <v>0.4331</v>
       </c>
       <c r="E65" t="n">
-        <v>0.433</v>
+        <v>0.4331</v>
       </c>
       <c r="F65" t="n">
-        <v>1606.654</v>
+        <v>20000</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4299016666666666</v>
+        <v>0.4297799999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2845,10 +2851,10 @@
         <v>0.433</v>
       </c>
       <c r="F66" t="n">
-        <v>76027.9721</v>
+        <v>1606.654</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4300233333333333</v>
+        <v>0.4299016666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2880,10 +2886,10 @@
         <v>0.433</v>
       </c>
       <c r="F67" t="n">
-        <v>465520.6994</v>
+        <v>76027.9721</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4301449999999999</v>
+        <v>0.4300233333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2915,10 +2921,10 @@
         <v>0.433</v>
       </c>
       <c r="F68" t="n">
-        <v>1558010.1017</v>
+        <v>465520.6994</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4302666666666666</v>
+        <v>0.4301449999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2950,10 +2956,10 @@
         <v>0.433</v>
       </c>
       <c r="F69" t="n">
-        <v>462943.797</v>
+        <v>1558010.1017</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4303883333333333</v>
+        <v>0.4302666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2985,10 +2991,10 @@
         <v>0.433</v>
       </c>
       <c r="F70" t="n">
-        <v>207686.9361</v>
+        <v>462943.797</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4305099999999999</v>
+        <v>0.4303883333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3008,7 +3014,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4329</v>
+        <v>0.433</v>
       </c>
       <c r="C71" t="n">
         <v>0.433</v>
@@ -3017,13 +3023,13 @@
         <v>0.433</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4314</v>
+        <v>0.433</v>
       </c>
       <c r="F71" t="n">
-        <v>101974.7729</v>
+        <v>207686.9361</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4306733333333332</v>
+        <v>0.4305099999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3043,22 +3049,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4314</v>
+        <v>0.4329</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4314</v>
+        <v>0.433</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4314</v>
+        <v>0.433</v>
       </c>
       <c r="E72" t="n">
         <v>0.4314</v>
       </c>
       <c r="F72" t="n">
-        <v>501686.5411</v>
+        <v>101974.7729</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4307933333333333</v>
+        <v>0.4306733333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3090,10 +3096,10 @@
         <v>0.4314</v>
       </c>
       <c r="F73" t="n">
-        <v>82432.10460000001</v>
+        <v>501686.5411</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4308899999999999</v>
+        <v>0.4307933333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3113,22 +3119,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4329</v>
+        <v>0.4314</v>
       </c>
       <c r="C74" t="n">
-        <v>0.433</v>
+        <v>0.4314</v>
       </c>
       <c r="D74" t="n">
-        <v>0.433</v>
+        <v>0.4314</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4329</v>
+        <v>0.4314</v>
       </c>
       <c r="F74" t="n">
-        <v>189188.7371</v>
+        <v>82432.10460000001</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4310133333333333</v>
+        <v>0.4308899999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3148,7 +3154,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.433</v>
+        <v>0.4329</v>
       </c>
       <c r="C75" t="n">
         <v>0.433</v>
@@ -3157,13 +3163,13 @@
         <v>0.433</v>
       </c>
       <c r="E75" t="n">
-        <v>0.433</v>
+        <v>0.4329</v>
       </c>
       <c r="F75" t="n">
-        <v>2754.5224</v>
+        <v>189188.7371</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4310983333333333</v>
+        <v>0.4310133333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3195,10 +3201,10 @@
         <v>0.433</v>
       </c>
       <c r="F76" t="n">
-        <v>9522.34</v>
+        <v>2754.5224</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4311833333333333</v>
+        <v>0.4310983333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3227,13 +3233,13 @@
         <v>0.433</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4314</v>
+        <v>0.433</v>
       </c>
       <c r="F77" t="n">
-        <v>159921.6512</v>
+        <v>9522.34</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4313049999999999</v>
+        <v>0.4311833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3253,22 +3259,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4329</v>
+        <v>0.433</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4329</v>
+        <v>0.433</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4329</v>
+        <v>0.433</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4329</v>
+        <v>0.4314</v>
       </c>
       <c r="F78" t="n">
-        <v>1396.4442</v>
+        <v>159921.6512</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4313849999999999</v>
+        <v>0.4313049999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3288,22 +3294,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.433</v>
+        <v>0.4329</v>
       </c>
       <c r="C79" t="n">
         <v>0.4329</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433</v>
+        <v>0.4329</v>
       </c>
       <c r="E79" t="n">
         <v>0.4329</v>
       </c>
       <c r="F79" t="n">
-        <v>2949.4563</v>
+        <v>1396.4442</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4314649999999999</v>
+        <v>0.4313849999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3326,19 +3332,19 @@
         <v>0.433</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4331</v>
+        <v>0.4329</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4331</v>
+        <v>0.433</v>
       </c>
       <c r="E80" t="n">
-        <v>0.433</v>
+        <v>0.4329</v>
       </c>
       <c r="F80" t="n">
-        <v>2990397.13850344</v>
+        <v>2949.4563</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4315333333333333</v>
+        <v>0.4314649999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3358,22 +3364,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4328</v>
+        <v>0.433</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4328</v>
+        <v>0.4331</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4328</v>
+        <v>0.4331</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4328</v>
+        <v>0.433</v>
       </c>
       <c r="F81" t="n">
-        <v>1835.4654</v>
+        <v>2990397.13850344</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4315883333333332</v>
+        <v>0.4315333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3393,22 +3399,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4331</v>
+        <v>0.4328</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4332</v>
+        <v>0.4328</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4332</v>
+        <v>0.4328</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4331</v>
+        <v>0.4328</v>
       </c>
       <c r="F82" t="n">
-        <v>2246825.8142</v>
+        <v>1835.4654</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4316499999999999</v>
+        <v>0.4315883333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3428,22 +3434,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4333</v>
+        <v>0.4331</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4333</v>
+        <v>0.4332</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4333</v>
+        <v>0.4332</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4333</v>
+        <v>0.4331</v>
       </c>
       <c r="F83" t="n">
-        <v>1637.0635</v>
+        <v>2246825.8142</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4317366666666665</v>
+        <v>0.4316499999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3475,10 +3481,10 @@
         <v>0.4333</v>
       </c>
       <c r="F84" t="n">
-        <v>2059</v>
+        <v>1637.0635</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4317999999999999</v>
+        <v>0.4317366666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3507,13 +3513,13 @@
         <v>0.4333</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4306</v>
+        <v>0.4333</v>
       </c>
       <c r="F85" t="n">
-        <v>7624302.1063</v>
+        <v>2059</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4318849999999998</v>
+        <v>0.4317999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3533,22 +3539,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4314</v>
+        <v>0.4333</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4306</v>
+        <v>0.4333</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4314</v>
+        <v>0.4333</v>
       </c>
       <c r="E86" t="n">
         <v>0.4306</v>
       </c>
       <c r="F86" t="n">
-        <v>3775100.3172</v>
+        <v>7624302.1063</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4319049999999998</v>
+        <v>0.4318849999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3568,22 +3574,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>0.4314</v>
+      </c>
+      <c r="C87" t="n">
         <v>0.4306</v>
       </c>
-      <c r="C87" t="n">
-        <v>0.4333</v>
-      </c>
       <c r="D87" t="n">
-        <v>0.4333</v>
+        <v>0.4314</v>
       </c>
       <c r="E87" t="n">
         <v>0.4306</v>
       </c>
       <c r="F87" t="n">
-        <v>1889306.0992</v>
+        <v>3775100.3172</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4319899999999998</v>
+        <v>0.4319049999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3603,22 +3609,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.433</v>
+        <v>0.4306</v>
       </c>
       <c r="C88" t="n">
-        <v>0.433</v>
+        <v>0.4333</v>
       </c>
       <c r="D88" t="n">
-        <v>0.433</v>
+        <v>0.4333</v>
       </c>
       <c r="E88" t="n">
-        <v>0.433</v>
+        <v>0.4306</v>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>1889306.0992</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4320699999999997</v>
+        <v>0.4319899999999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3638,22 +3644,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4305</v>
+        <v>0.433</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4305</v>
+        <v>0.433</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4305</v>
+        <v>0.433</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4305</v>
+        <v>0.433</v>
       </c>
       <c r="F89" t="n">
-        <v>14447.6098</v>
+        <v>1200</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4320866666666664</v>
+        <v>0.4320699999999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3673,22 +3679,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4325</v>
+        <v>0.4305</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4325</v>
+        <v>0.4305</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4325</v>
+        <v>0.4305</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4325</v>
+        <v>0.4305</v>
       </c>
       <c r="F90" t="n">
-        <v>1167.6301</v>
+        <v>14447.6098</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4321349999999997</v>
+        <v>0.4320866666666664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3720,10 +3726,10 @@
         <v>0.4325</v>
       </c>
       <c r="F91" t="n">
-        <v>2127576.0886</v>
+        <v>1167.6301</v>
       </c>
       <c r="G91" t="n">
-        <v>0.432208333333333</v>
+        <v>0.4321349999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3755,10 +3761,10 @@
         <v>0.4325</v>
       </c>
       <c r="F92" t="n">
-        <v>12606.772</v>
+        <v>2127576.0886</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4322816666666664</v>
+        <v>0.432208333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3781,19 +3787,19 @@
         <v>0.4325</v>
       </c>
       <c r="C93" t="n">
-        <v>0.433</v>
+        <v>0.4325</v>
       </c>
       <c r="D93" t="n">
-        <v>0.433</v>
+        <v>0.4325</v>
       </c>
       <c r="E93" t="n">
         <v>0.4325</v>
       </c>
       <c r="F93" t="n">
-        <v>550838.9401</v>
+        <v>12606.772</v>
       </c>
       <c r="G93" t="n">
-        <v>0.432363333333333</v>
+        <v>0.4322816666666664</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3813,7 +3819,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.433</v>
+        <v>0.4325</v>
       </c>
       <c r="C94" t="n">
         <v>0.433</v>
@@ -3822,13 +3828,13 @@
         <v>0.433</v>
       </c>
       <c r="E94" t="n">
-        <v>0.433</v>
+        <v>0.4325</v>
       </c>
       <c r="F94" t="n">
-        <v>663951.6218</v>
+        <v>550838.9401</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4324199999999997</v>
+        <v>0.432363333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3860,10 +3866,10 @@
         <v>0.433</v>
       </c>
       <c r="F95" t="n">
-        <v>3112788.4735</v>
+        <v>663951.6218</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4325016666666663</v>
+        <v>0.4324199999999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3895,10 +3901,10 @@
         <v>0.433</v>
       </c>
       <c r="F96" t="n">
-        <v>3259491.8475</v>
+        <v>3112788.4735</v>
       </c>
       <c r="G96" t="n">
-        <v>0.432558333333333</v>
+        <v>0.4325016666666663</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3921,19 +3927,19 @@
         <v>0.433</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4333</v>
+        <v>0.433</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4333</v>
+        <v>0.433</v>
       </c>
       <c r="E97" t="n">
         <v>0.433</v>
       </c>
       <c r="F97" t="n">
-        <v>911600.0273</v>
+        <v>3259491.8475</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4326349999999997</v>
+        <v>0.432558333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3953,22 +3959,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="C98" t="n">
         <v>0.4333</v>
       </c>
-      <c r="C98" t="n">
-        <v>0.4337</v>
-      </c>
       <c r="D98" t="n">
-        <v>0.4337</v>
+        <v>0.4333</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4333</v>
+        <v>0.433</v>
       </c>
       <c r="F98" t="n">
-        <v>23057.41305826</v>
+        <v>911600.0273</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4326899999999997</v>
+        <v>0.4326349999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3991,19 +3997,19 @@
         <v>0.4333</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4333</v>
+        <v>0.4337</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4333</v>
+        <v>0.4337</v>
       </c>
       <c r="E99" t="n">
         <v>0.4333</v>
       </c>
       <c r="F99" t="n">
-        <v>496995.4756</v>
+        <v>23057.41305826</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4327366666666664</v>
+        <v>0.4326899999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4023,22 +4029,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4337</v>
+        <v>0.4333</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4337</v>
+        <v>0.4333</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4337</v>
+        <v>0.4333</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4337</v>
+        <v>0.4333</v>
       </c>
       <c r="F100" t="n">
-        <v>4012.0334</v>
+        <v>496995.4756</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4326633333333331</v>
+        <v>0.4327366666666664</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4070,10 +4076,10 @@
         <v>0.4337</v>
       </c>
       <c r="F101" t="n">
-        <v>123753.1259</v>
+        <v>4012.0334</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4327166666666665</v>
+        <v>0.4326633333333331</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4096,19 +4102,19 @@
         <v>0.4337</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4338</v>
+        <v>0.4337</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4338</v>
+        <v>0.4337</v>
       </c>
       <c r="E102" t="n">
         <v>0.4337</v>
       </c>
       <c r="F102" t="n">
-        <v>1200000</v>
+        <v>123753.1259</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4327133333333332</v>
+        <v>0.4327166666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4128,22 +4134,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>0.4337</v>
+      </c>
+      <c r="C103" t="n">
         <v>0.4338</v>
       </c>
-      <c r="C103" t="n">
-        <v>0.4352</v>
-      </c>
       <c r="D103" t="n">
-        <v>0.4352</v>
+        <v>0.4338</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4306</v>
+        <v>0.4337</v>
       </c>
       <c r="F103" t="n">
-        <v>5512123.5981</v>
+        <v>1200000</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4327316666666665</v>
+        <v>0.4327133333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4163,22 +4169,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4307</v>
+        <v>0.4338</v>
       </c>
       <c r="C104" t="n">
-        <v>0.435</v>
+        <v>0.4352</v>
       </c>
       <c r="D104" t="n">
-        <v>0.435</v>
+        <v>0.4352</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4307</v>
+        <v>0.4306</v>
       </c>
       <c r="F104" t="n">
-        <v>1003730.5194</v>
+        <v>5512123.5981</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4327466666666664</v>
+        <v>0.4327316666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4198,7 +4204,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.435</v>
+        <v>0.4307</v>
       </c>
       <c r="C105" t="n">
         <v>0.435</v>
@@ -4207,13 +4213,13 @@
         <v>0.435</v>
       </c>
       <c r="E105" t="n">
-        <v>0.435</v>
+        <v>0.4307</v>
       </c>
       <c r="F105" t="n">
-        <v>1597.7986</v>
+        <v>1003730.5194</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4327966666666664</v>
+        <v>0.4327466666666664</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4245,10 +4251,10 @@
         <v>0.435</v>
       </c>
       <c r="F106" t="n">
-        <v>5082.4891</v>
+        <v>1597.7986</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4328466666666664</v>
+        <v>0.4327966666666664</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4280,10 +4286,10 @@
         <v>0.435</v>
       </c>
       <c r="F107" t="n">
-        <v>4401001.3982</v>
+        <v>5082.4891</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4328949999999998</v>
+        <v>0.4328466666666664</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4315,10 +4321,10 @@
         <v>0.435</v>
       </c>
       <c r="F108" t="n">
-        <v>238898.3466</v>
+        <v>4401001.3982</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4329083333333331</v>
+        <v>0.4328949999999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4338,22 +4344,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4351</v>
+        <v>0.435</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4351</v>
+        <v>0.435</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4351</v>
+        <v>0.435</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4351</v>
+        <v>0.435</v>
       </c>
       <c r="F109" t="n">
-        <v>114916.11123879</v>
+        <v>238898.3466</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4329549999999997</v>
+        <v>0.4329083333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4385,10 +4391,10 @@
         <v>0.4351</v>
       </c>
       <c r="F110" t="n">
-        <v>9168.528899999999</v>
+        <v>114916.11123879</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4329699999999997</v>
+        <v>0.4329549999999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4408,22 +4414,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.435</v>
+        <v>0.4351</v>
       </c>
       <c r="C111" t="n">
-        <v>0.435</v>
+        <v>0.4351</v>
       </c>
       <c r="D111" t="n">
         <v>0.4351</v>
       </c>
       <c r="E111" t="n">
-        <v>0.435</v>
+        <v>0.4351</v>
       </c>
       <c r="F111" t="n">
-        <v>1280256.1778</v>
+        <v>9168.528899999999</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4329833333333329</v>
+        <v>0.4329699999999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4443,22 +4449,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4312</v>
+        <v>0.435</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4312</v>
+        <v>0.435</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4312</v>
+        <v>0.4351</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4312</v>
+        <v>0.435</v>
       </c>
       <c r="F112" t="n">
-        <v>1000000</v>
+        <v>1280256.1778</v>
       </c>
       <c r="G112" t="n">
-        <v>0.432993333333333</v>
+        <v>0.4329833333333329</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4478,22 +4484,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.435</v>
+        <v>0.4312</v>
       </c>
       <c r="C113" t="n">
-        <v>0.435</v>
+        <v>0.4312</v>
       </c>
       <c r="D113" t="n">
-        <v>0.435</v>
+        <v>0.4312</v>
       </c>
       <c r="E113" t="n">
-        <v>0.435</v>
+        <v>0.4312</v>
       </c>
       <c r="F113" t="n">
-        <v>1169.8461</v>
+        <v>1000000</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4330666666666663</v>
+        <v>0.432993333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4525,10 +4531,10 @@
         <v>0.435</v>
       </c>
       <c r="F114" t="n">
-        <v>135356.2989</v>
+        <v>1169.8461</v>
       </c>
       <c r="G114" t="n">
-        <v>0.433138333333333</v>
+        <v>0.4330666666666663</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4560,10 +4566,10 @@
         <v>0.435</v>
       </c>
       <c r="F115" t="n">
-        <v>2408416.9117</v>
+        <v>135356.2989</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4331649999999996</v>
+        <v>0.433138333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4595,10 +4601,10 @@
         <v>0.435</v>
       </c>
       <c r="F116" t="n">
-        <v>688782.5035</v>
+        <v>2408416.9117</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4332333333333329</v>
+        <v>0.4331649999999996</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4618,22 +4624,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4345</v>
+        <v>0.435</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4345</v>
+        <v>0.435</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4345</v>
+        <v>0.435</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4345</v>
+        <v>0.435</v>
       </c>
       <c r="F117" t="n">
-        <v>1000000</v>
+        <v>688782.5035</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4332516666666663</v>
+        <v>0.4332333333333329</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4653,22 +4659,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4338</v>
+        <v>0.4345</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4321</v>
+        <v>0.4345</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4338</v>
+        <v>0.4345</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4321</v>
+        <v>0.4345</v>
       </c>
       <c r="F118" t="n">
-        <v>2000325.8489</v>
+        <v>1000000</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4332716666666662</v>
+        <v>0.4332516666666663</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4688,22 +4694,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.432</v>
+        <v>0.4338</v>
       </c>
       <c r="C119" t="n">
-        <v>0.432</v>
+        <v>0.4321</v>
       </c>
       <c r="D119" t="n">
-        <v>0.432</v>
+        <v>0.4338</v>
       </c>
       <c r="E119" t="n">
-        <v>0.432</v>
+        <v>0.4321</v>
       </c>
       <c r="F119" t="n">
-        <v>61703.3761</v>
+        <v>2000325.8489</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4332899999999995</v>
+        <v>0.4332716666666662</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4723,22 +4729,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="F120" t="n">
-        <v>422019.7438</v>
+        <v>61703.3761</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4333149999999995</v>
+        <v>0.4332899999999995</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4758,22 +4764,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.432</v>
+        <v>0.4321</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432</v>
+        <v>0.4321</v>
       </c>
       <c r="D121" t="n">
-        <v>0.432</v>
+        <v>0.4321</v>
       </c>
       <c r="E121" t="n">
-        <v>0.432</v>
+        <v>0.4321</v>
       </c>
       <c r="F121" t="n">
-        <v>7190.6272</v>
+        <v>422019.7438</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4332949999999995</v>
+        <v>0.4333149999999995</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4805,10 +4811,10 @@
         <v>0.432</v>
       </c>
       <c r="F122" t="n">
-        <v>219730.557</v>
+        <v>7190.6272</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4332749999999995</v>
+        <v>0.4332949999999995</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4840,10 +4846,10 @@
         <v>0.432</v>
       </c>
       <c r="F123" t="n">
-        <v>1460822.8053</v>
+        <v>219730.557</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4332566666666661</v>
+        <v>0.4332749999999995</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4863,22 +4869,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4321</v>
+        <v>0.432</v>
       </c>
       <c r="F124" t="n">
-        <v>118242.5104</v>
+        <v>1460822.8053</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4332399999999995</v>
+        <v>0.4332566666666661</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4901,19 +4907,19 @@
         <v>0.4321</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4316</v>
+        <v>0.4321</v>
       </c>
       <c r="D125" t="n">
         <v>0.4321</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4316</v>
+        <v>0.4321</v>
       </c>
       <c r="F125" t="n">
-        <v>3432441.3536</v>
+        <v>118242.5104</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4332166666666661</v>
+        <v>0.4332399999999995</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4933,22 +4939,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4334</v>
+        <v>0.4321</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4334</v>
+        <v>0.4316</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4334</v>
+        <v>0.4321</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4334</v>
+        <v>0.4316</v>
       </c>
       <c r="F126" t="n">
-        <v>2860.6914</v>
+        <v>3432441.3536</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4332233333333327</v>
+        <v>0.4332166666666661</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4968,22 +4974,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4316</v>
+        <v>0.4334</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4315</v>
+        <v>0.4334</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4316</v>
+        <v>0.4334</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4315</v>
+        <v>0.4334</v>
       </c>
       <c r="F127" t="n">
-        <v>1045453</v>
+        <v>2860.6914</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4331983333333327</v>
+        <v>0.4332233333333327</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5003,22 +5009,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4317</v>
+        <v>0.4316</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4332</v>
+        <v>0.4315</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4332</v>
+        <v>0.4316</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4317</v>
+        <v>0.4315</v>
       </c>
       <c r="F128" t="n">
-        <v>15070.4955</v>
+        <v>1045453</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4332016666666661</v>
+        <v>0.4331983333333327</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5038,22 +5044,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4315</v>
+        <v>0.4317</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4315</v>
+        <v>0.4332</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4315</v>
+        <v>0.4332</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4315</v>
+        <v>0.4317</v>
       </c>
       <c r="F129" t="n">
-        <v>933434.1218</v>
+        <v>15070.4955</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4331766666666661</v>
+        <v>0.4332016666666661</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5073,22 +5079,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4314</v>
+        <v>0.4315</v>
       </c>
       <c r="C130" t="n">
-        <v>0.431</v>
+        <v>0.4315</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4314</v>
+        <v>0.4315</v>
       </c>
       <c r="E130" t="n">
-        <v>0.431</v>
+        <v>0.4315</v>
       </c>
       <c r="F130" t="n">
-        <v>4316333.1848</v>
+        <v>933434.1218</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4331433333333328</v>
+        <v>0.4331766666666661</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5108,22 +5114,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.431</v>
+        <v>0.4314</v>
       </c>
       <c r="C131" t="n">
         <v>0.431</v>
       </c>
       <c r="D131" t="n">
-        <v>0.431</v>
+        <v>0.4314</v>
       </c>
       <c r="E131" t="n">
         <v>0.431</v>
       </c>
       <c r="F131" t="n">
-        <v>2468997.1718</v>
+        <v>4316333.1848</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4331099999999994</v>
+        <v>0.4331433333333328</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5155,10 +5161,10 @@
         <v>0.431</v>
       </c>
       <c r="F132" t="n">
-        <v>3677.1277</v>
+        <v>2468997.1718</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4331033333333328</v>
+        <v>0.4331099999999994</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5181,19 +5187,19 @@
         <v>0.431</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4326</v>
+        <v>0.431</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4326</v>
+        <v>0.431</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4279</v>
+        <v>0.431</v>
       </c>
       <c r="F133" t="n">
-        <v>19357179.6184</v>
+        <v>3677.1277</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4331233333333328</v>
+        <v>0.4331033333333328</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5213,22 +5219,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4293</v>
+        <v>0.431</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4293</v>
+        <v>0.4326</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4293</v>
+        <v>0.4326</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4293</v>
+        <v>0.4279</v>
       </c>
       <c r="F134" t="n">
-        <v>425565.8496</v>
+        <v>19357179.6184</v>
       </c>
       <c r="G134" t="n">
-        <v>0.4330616666666662</v>
+        <v>0.4331233333333328</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5248,22 +5254,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.429</v>
+        <v>0.4293</v>
       </c>
       <c r="C135" t="n">
-        <v>0.429</v>
+        <v>0.4293</v>
       </c>
       <c r="D135" t="n">
-        <v>0.429</v>
+        <v>0.4293</v>
       </c>
       <c r="E135" t="n">
-        <v>0.429</v>
+        <v>0.4293</v>
       </c>
       <c r="F135" t="n">
-        <v>2970178.8772</v>
+        <v>425565.8496</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4329949999999995</v>
+        <v>0.4330616666666662</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5283,22 +5289,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4296</v>
+        <v>0.429</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4296</v>
+        <v>0.429</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4296</v>
+        <v>0.429</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4296</v>
+        <v>0.429</v>
       </c>
       <c r="F136" t="n">
-        <v>5086773.1005</v>
+        <v>2970178.8772</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4329383333333328</v>
+        <v>0.4329949999999995</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5318,22 +5324,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.43</v>
+        <v>0.4296</v>
       </c>
       <c r="C137" t="n">
-        <v>0.43</v>
+        <v>0.4296</v>
       </c>
       <c r="D137" t="n">
-        <v>0.43</v>
+        <v>0.4296</v>
       </c>
       <c r="E137" t="n">
-        <v>0.43</v>
+        <v>0.4296</v>
       </c>
       <c r="F137" t="n">
-        <v>5229.1471</v>
+        <v>5086773.1005</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4328883333333328</v>
+        <v>0.4329383333333328</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5353,22 +5359,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4325</v>
+        <v>0.43</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4325</v>
+        <v>0.43</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4325</v>
+        <v>0.43</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4325</v>
+        <v>0.43</v>
       </c>
       <c r="F138" t="n">
-        <v>2823.1022</v>
+        <v>5229.1471</v>
       </c>
       <c r="G138" t="n">
-        <v>0.4328816666666662</v>
+        <v>0.4328883333333328</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5388,22 +5394,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4324</v>
+        <v>0.4325</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4324</v>
+        <v>0.4325</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4324</v>
+        <v>0.4325</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4324</v>
+        <v>0.4325</v>
       </c>
       <c r="F139" t="n">
-        <v>3070.4921</v>
+        <v>2823.1022</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4328733333333329</v>
+        <v>0.4328816666666662</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5423,22 +5429,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.43</v>
+        <v>0.4324</v>
       </c>
       <c r="C140" t="n">
-        <v>0.43</v>
+        <v>0.4324</v>
       </c>
       <c r="D140" t="n">
-        <v>0.43</v>
+        <v>0.4324</v>
       </c>
       <c r="E140" t="n">
-        <v>0.43</v>
+        <v>0.4324</v>
       </c>
       <c r="F140" t="n">
-        <v>70470.2151</v>
+        <v>3070.4921</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4328216666666662</v>
+        <v>0.4328733333333329</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5470,10 +5476,10 @@
         <v>0.43</v>
       </c>
       <c r="F141" t="n">
-        <v>110367.4102</v>
+        <v>70470.2151</v>
       </c>
       <c r="G141" t="n">
-        <v>0.4327749999999995</v>
+        <v>0.4328216666666662</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5505,10 +5511,10 @@
         <v>0.43</v>
       </c>
       <c r="F142" t="n">
-        <v>1863448.9606</v>
+        <v>110367.4102</v>
       </c>
       <c r="G142" t="n">
-        <v>0.4327216666666662</v>
+        <v>0.4327749999999995</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5528,22 +5534,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4295</v>
+        <v>0.43</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4295</v>
+        <v>0.43</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4295</v>
+        <v>0.43</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4295</v>
+        <v>0.43</v>
       </c>
       <c r="F143" t="n">
-        <v>1763867.8037</v>
+        <v>1863448.9606</v>
       </c>
       <c r="G143" t="n">
-        <v>0.4326583333333329</v>
+        <v>0.4327216666666662</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5563,22 +5569,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4322</v>
+        <v>0.4295</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4322</v>
+        <v>0.4295</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4322</v>
+        <v>0.4295</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4322</v>
+        <v>0.4295</v>
       </c>
       <c r="F144" t="n">
-        <v>1172.8072</v>
+        <v>1763867.8037</v>
       </c>
       <c r="G144" t="n">
-        <v>0.4326399999999996</v>
+        <v>0.4326583333333329</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5601,19 +5607,19 @@
         <v>0.4322</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4296</v>
+        <v>0.4322</v>
       </c>
       <c r="D145" t="n">
         <v>0.4322</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4296</v>
+        <v>0.4322</v>
       </c>
       <c r="F145" t="n">
-        <v>2360.0186</v>
+        <v>1172.8072</v>
       </c>
       <c r="G145" t="n">
-        <v>0.432578333333333</v>
+        <v>0.4326399999999996</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5633,22 +5639,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4296</v>
+        <v>0.4322</v>
       </c>
       <c r="C146" t="n">
         <v>0.4296</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4296</v>
+        <v>0.4322</v>
       </c>
       <c r="E146" t="n">
         <v>0.4296</v>
       </c>
       <c r="F146" t="n">
-        <v>1558010.1017</v>
+        <v>2360.0186</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4325616666666663</v>
+        <v>0.432578333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5668,22 +5674,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4314</v>
+        <v>0.4296</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4314</v>
+        <v>0.4296</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4314</v>
+        <v>0.4296</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4314</v>
+        <v>0.4296</v>
       </c>
       <c r="F147" t="n">
-        <v>23601.3813</v>
+        <v>1558010.1017</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4325299999999997</v>
+        <v>0.4325616666666663</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5703,22 +5709,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="F148" t="n">
-        <v>119400.5329</v>
+        <v>23601.3813</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4324716666666664</v>
+        <v>0.4325299999999997</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5738,22 +5744,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.4311</v>
+        <v>0.4295</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4311</v>
+        <v>0.4295</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4311</v>
+        <v>0.4295</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4311</v>
+        <v>0.4295</v>
       </c>
       <c r="F149" t="n">
-        <v>23196.4742</v>
+        <v>119400.5329</v>
       </c>
       <c r="G149" t="n">
-        <v>0.4324816666666664</v>
+        <v>0.4324716666666664</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5773,22 +5779,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4288</v>
+        <v>0.4311</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4288</v>
+        <v>0.4311</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4288</v>
+        <v>0.4311</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4288</v>
+        <v>0.4311</v>
       </c>
       <c r="F150" t="n">
-        <v>500000</v>
+        <v>23196.4742</v>
       </c>
       <c r="G150" t="n">
-        <v>0.4324199999999997</v>
+        <v>0.4324816666666664</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5808,22 +5814,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4287</v>
+        <v>0.4288</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4283</v>
+        <v>0.4288</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4287</v>
+        <v>0.4288</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4283</v>
+        <v>0.4288</v>
       </c>
       <c r="F151" t="n">
-        <v>2250730.327</v>
+        <v>500000</v>
       </c>
       <c r="G151" t="n">
-        <v>0.4323499999999997</v>
+        <v>0.4324199999999997</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5843,22 +5849,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4283</v>
+        <v>0.4287</v>
       </c>
       <c r="C152" t="n">
         <v>0.4283</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4283</v>
+        <v>0.4287</v>
       </c>
       <c r="E152" t="n">
         <v>0.4283</v>
       </c>
       <c r="F152" t="n">
-        <v>4952.291</v>
+        <v>2250730.327</v>
       </c>
       <c r="G152" t="n">
-        <v>0.4322799999999997</v>
+        <v>0.4323499999999997</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5881,19 +5887,19 @@
         <v>0.4283</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4281</v>
+        <v>0.4283</v>
       </c>
       <c r="D153" t="n">
         <v>0.4283</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4281</v>
+        <v>0.4283</v>
       </c>
       <c r="F153" t="n">
-        <v>7776120.082</v>
+        <v>4952.291</v>
       </c>
       <c r="G153" t="n">
-        <v>0.432198333333333</v>
+        <v>0.4322799999999997</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5913,22 +5919,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.428</v>
+        <v>0.4283</v>
       </c>
       <c r="C154" t="n">
-        <v>0.428</v>
+        <v>0.4281</v>
       </c>
       <c r="D154" t="n">
-        <v>0.428</v>
+        <v>0.4283</v>
       </c>
       <c r="E154" t="n">
-        <v>0.428</v>
+        <v>0.4281</v>
       </c>
       <c r="F154" t="n">
-        <v>900353.8795</v>
+        <v>7776120.082</v>
       </c>
       <c r="G154" t="n">
-        <v>0.4321149999999997</v>
+        <v>0.432198333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5948,22 +5954,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4281</v>
+        <v>0.428</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4281</v>
+        <v>0.428</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4281</v>
+        <v>0.428</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4281</v>
+        <v>0.428</v>
       </c>
       <c r="F155" t="n">
-        <v>920453.2505</v>
+        <v>900353.8795</v>
       </c>
       <c r="G155" t="n">
-        <v>0.432033333333333</v>
+        <v>0.4321149999999997</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5995,10 +6001,10 @@
         <v>0.4281</v>
       </c>
       <c r="F156" t="n">
-        <v>499999.9999</v>
+        <v>920453.2505</v>
       </c>
       <c r="G156" t="n">
-        <v>0.4319516666666664</v>
+        <v>0.432033333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6018,22 +6024,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.428</v>
+        <v>0.4281</v>
       </c>
       <c r="C157" t="n">
-        <v>0.428</v>
+        <v>0.4281</v>
       </c>
       <c r="D157" t="n">
-        <v>0.428</v>
+        <v>0.4281</v>
       </c>
       <c r="E157" t="n">
-        <v>0.428</v>
+        <v>0.4281</v>
       </c>
       <c r="F157" t="n">
-        <v>531914.8936</v>
+        <v>499999.9999</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4318633333333331</v>
+        <v>0.4319516666666664</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6065,10 +6071,10 @@
         <v>0.428</v>
       </c>
       <c r="F158" t="n">
-        <v>670858.5672</v>
+        <v>531914.8936</v>
       </c>
       <c r="G158" t="n">
-        <v>0.4317683333333331</v>
+        <v>0.4318633333333331</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6091,19 +6097,19 @@
         <v>0.428</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4281</v>
+        <v>0.428</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4281</v>
+        <v>0.428</v>
       </c>
       <c r="E159" t="n">
         <v>0.428</v>
       </c>
       <c r="F159" t="n">
-        <v>5563421.0435</v>
+        <v>670858.5672</v>
       </c>
       <c r="G159" t="n">
-        <v>0.4316816666666665</v>
+        <v>0.4317683333333331</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6123,35 +6129,31 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4311</v>
+        <v>0.428</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4311</v>
+        <v>0.4281</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4311</v>
+        <v>0.4281</v>
       </c>
       <c r="E160" t="n">
-        <v>0.4311</v>
+        <v>0.428</v>
       </c>
       <c r="F160" t="n">
-        <v>6900</v>
+        <v>5563421.0435</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4316383333333332</v>
+        <v>0.4316816666666665</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.4281</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.4281</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
@@ -6174,28 +6176,20 @@
         <v>0.4311</v>
       </c>
       <c r="F161" t="n">
-        <v>462770.6308</v>
+        <v>6900</v>
       </c>
       <c r="G161" t="n">
-        <v>0.4315949999999998</v>
+        <v>0.4316383333333332</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.4311</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.4281</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6205,40 +6199,32 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4308</v>
+        <v>0.4311</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4308</v>
+        <v>0.4311</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4308</v>
+        <v>0.4311</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4308</v>
+        <v>0.4311</v>
       </c>
       <c r="F162" t="n">
-        <v>2000.0803</v>
+        <v>462770.6308</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4315449999999998</v>
+        <v>0.4315949999999998</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.4311</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.4281</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6248,22 +6234,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4303</v>
+        <v>0.4308</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4303</v>
+        <v>0.4308</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4303</v>
+        <v>0.4308</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4303</v>
+        <v>0.4308</v>
       </c>
       <c r="F163" t="n">
-        <v>100730.6681</v>
+        <v>2000.0803</v>
       </c>
       <c r="G163" t="n">
-        <v>0.4314633333333332</v>
+        <v>0.4315449999999998</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6283,22 +6269,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.4279</v>
+        <v>0.4303</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4279</v>
+        <v>0.4303</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4279</v>
+        <v>0.4303</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4279</v>
+        <v>0.4303</v>
       </c>
       <c r="F164" t="n">
-        <v>684341.0649</v>
+        <v>100730.6681</v>
       </c>
       <c r="G164" t="n">
-        <v>0.4313449999999999</v>
+        <v>0.4314633333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6318,38 +6304,32 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4278</v>
+        <v>0.4279</v>
       </c>
       <c r="C165" t="n">
-        <v>0.422</v>
+        <v>0.4279</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4278</v>
+        <v>0.4279</v>
       </c>
       <c r="E165" t="n">
-        <v>0.422</v>
+        <v>0.4279</v>
       </c>
       <c r="F165" t="n">
-        <v>15275354.3815</v>
+        <v>684341.0649</v>
       </c>
       <c r="G165" t="n">
-        <v>0.4311283333333333</v>
+        <v>0.4313449999999999</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.4279</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6359,38 +6339,32 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4231</v>
+        <v>0.4278</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4231</v>
+        <v>0.422</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4231</v>
+        <v>0.4278</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4231</v>
+        <v>0.422</v>
       </c>
       <c r="F166" t="n">
-        <v>1605744.0792</v>
+        <v>15275354.3815</v>
       </c>
       <c r="G166" t="n">
-        <v>0.43093</v>
+        <v>0.4311283333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.422</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6400,22 +6374,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4299</v>
+        <v>0.4231</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4299</v>
+        <v>0.4231</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4299</v>
+        <v>0.4231</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4299</v>
+        <v>0.4231</v>
       </c>
       <c r="F167" t="n">
-        <v>31039.3822</v>
+        <v>1605744.0792</v>
       </c>
       <c r="G167" t="n">
-        <v>0.430845</v>
+        <v>0.43093</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6425,11 +6399,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6439,22 +6409,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4234</v>
+        <v>0.4299</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4234</v>
+        <v>0.4299</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4234</v>
+        <v>0.4299</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4234</v>
+        <v>0.4299</v>
       </c>
       <c r="F168" t="n">
-        <v>1153718.1924</v>
+        <v>31039.3822</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4306516666666667</v>
+        <v>0.430845</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6464,11 +6434,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6490,26 +6456,20 @@
         <v>0.4234</v>
       </c>
       <c r="F169" t="n">
-        <v>1000000</v>
+        <v>1153718.1924</v>
       </c>
       <c r="G169" t="n">
-        <v>0.4304566666666668</v>
+        <v>0.4306516666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.4234</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6525,16 +6485,16 @@
         <v>0.4234</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4292</v>
+        <v>0.4234</v>
       </c>
       <c r="E170" t="n">
         <v>0.4234</v>
       </c>
       <c r="F170" t="n">
-        <v>3512585.9359</v>
+        <v>1000000</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4302616666666668</v>
+        <v>0.4304566666666668</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6544,11 +6504,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6558,22 +6514,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4233</v>
+        <v>0.4234</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4233</v>
+        <v>0.4234</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4233</v>
+        <v>0.4292</v>
       </c>
       <c r="E171" t="n">
-        <v>0.4233</v>
+        <v>0.4234</v>
       </c>
       <c r="F171" t="n">
-        <v>239323.3012</v>
+        <v>3512585.9359</v>
       </c>
       <c r="G171" t="n">
-        <v>0.4300666666666668</v>
+        <v>0.4302616666666668</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6583,11 +6539,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6600,19 +6552,19 @@
         <v>0.4233</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4279</v>
+        <v>0.4233</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4279</v>
+        <v>0.4233</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4231</v>
+        <v>0.4233</v>
       </c>
       <c r="F172" t="n">
-        <v>4276368.71668672</v>
+        <v>239323.3012</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4300116666666668</v>
+        <v>0.4300666666666668</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6622,11 +6574,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6636,22 +6584,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4232</v>
+        <v>0.4233</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4232</v>
+        <v>0.4279</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4232</v>
+        <v>0.4279</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4232</v>
+        <v>0.4231</v>
       </c>
       <c r="F173" t="n">
-        <v>732184.6841</v>
+        <v>4276368.71668672</v>
       </c>
       <c r="G173" t="n">
-        <v>0.4298150000000002</v>
+        <v>0.4300116666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6661,11 +6609,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6675,22 +6619,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4231</v>
+        <v>0.4232</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4231</v>
+        <v>0.4232</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4231</v>
+        <v>0.4232</v>
       </c>
       <c r="E174" t="n">
-        <v>0.4231</v>
+        <v>0.4232</v>
       </c>
       <c r="F174" t="n">
-        <v>114916.1112</v>
+        <v>732184.6841</v>
       </c>
       <c r="G174" t="n">
-        <v>0.4296166666666669</v>
+        <v>0.4298150000000002</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6700,11 +6644,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6714,22 +6654,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4275</v>
+        <v>0.4231</v>
       </c>
       <c r="C175" t="n">
-        <v>0.4275</v>
+        <v>0.4231</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4275</v>
+        <v>0.4231</v>
       </c>
       <c r="E175" t="n">
-        <v>0.4275</v>
+        <v>0.4231</v>
       </c>
       <c r="F175" t="n">
-        <v>6996.49122807</v>
+        <v>114916.1112</v>
       </c>
       <c r="G175" t="n">
-        <v>0.4294916666666669</v>
+        <v>0.4296166666666669</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6739,11 +6679,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6765,10 +6701,10 @@
         <v>0.4275</v>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>6996.49122807</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4293666666666669</v>
+        <v>0.4294916666666669</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6778,11 +6714,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6792,22 +6724,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4273</v>
+        <v>0.4275</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4273</v>
+        <v>0.4275</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4273</v>
+        <v>0.4275</v>
       </c>
       <c r="E177" t="n">
-        <v>0.4273</v>
+        <v>0.4275</v>
       </c>
       <c r="F177" t="n">
-        <v>84131.2393</v>
+        <v>5000</v>
       </c>
       <c r="G177" t="n">
-        <v>0.4292466666666669</v>
+        <v>0.4293666666666669</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6817,11 +6749,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6831,22 +6759,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4232</v>
+        <v>0.4273</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4232</v>
+        <v>0.4273</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4232</v>
+        <v>0.4273</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4232</v>
+        <v>0.4273</v>
       </c>
       <c r="F178" t="n">
-        <v>103997.2525</v>
+        <v>84131.2393</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4290983333333336</v>
+        <v>0.4292466666666669</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6856,11 +6784,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6882,10 +6806,10 @@
         <v>0.4232</v>
       </c>
       <c r="F179" t="n">
-        <v>1134600.9356</v>
+        <v>103997.2525</v>
       </c>
       <c r="G179" t="n">
-        <v>0.428951666666667</v>
+        <v>0.4290983333333336</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6895,11 +6819,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6909,22 +6829,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4233</v>
+        <v>0.4232</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4233</v>
+        <v>0.4232</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4233</v>
+        <v>0.4232</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4233</v>
+        <v>0.4232</v>
       </c>
       <c r="F180" t="n">
-        <v>4639899.7448</v>
+        <v>1134600.9356</v>
       </c>
       <c r="G180" t="n">
-        <v>0.4288050000000004</v>
+        <v>0.428951666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6934,11 +6854,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6948,22 +6864,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4223</v>
+        <v>0.4233</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4269</v>
+        <v>0.4233</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4269</v>
+        <v>0.4233</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4223</v>
+        <v>0.4233</v>
       </c>
       <c r="F181" t="n">
-        <v>3912658.8845</v>
+        <v>4639899.7448</v>
       </c>
       <c r="G181" t="n">
-        <v>0.4287200000000004</v>
+        <v>0.4288050000000004</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6973,11 +6889,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6987,22 +6899,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4267</v>
+        <v>0.4223</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4267</v>
+        <v>0.4269</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4267</v>
+        <v>0.4269</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4267</v>
+        <v>0.4223</v>
       </c>
       <c r="F182" t="n">
-        <v>56926.601</v>
+        <v>3912658.8845</v>
       </c>
       <c r="G182" t="n">
-        <v>0.4286316666666671</v>
+        <v>0.4287200000000004</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7012,11 +6924,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7026,22 +6934,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4269</v>
+        <v>0.4267</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4269</v>
+        <v>0.4267</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4269</v>
+        <v>0.4267</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4269</v>
+        <v>0.4267</v>
       </c>
       <c r="F183" t="n">
-        <v>502994.0729</v>
+        <v>56926.601</v>
       </c>
       <c r="G183" t="n">
-        <v>0.4285466666666671</v>
+        <v>0.4286316666666671</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7051,11 +6959,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7065,22 +6969,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4268</v>
+        <v>0.4269</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4268</v>
+        <v>0.4269</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4268</v>
+        <v>0.4269</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4268</v>
+        <v>0.4269</v>
       </c>
       <c r="F184" t="n">
-        <v>153068.1342</v>
+        <v>502994.0729</v>
       </c>
       <c r="G184" t="n">
-        <v>0.4284583333333338</v>
+        <v>0.4285466666666671</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7090,11 +6994,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7116,10 +7016,10 @@
         <v>0.4268</v>
       </c>
       <c r="F185" t="n">
-        <v>3108548.5644</v>
+        <v>153068.1342</v>
       </c>
       <c r="G185" t="n">
-        <v>0.4283783333333338</v>
+        <v>0.4284583333333338</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7129,11 +7029,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7143,22 +7039,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4267</v>
+        <v>0.4268</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4267</v>
+        <v>0.4268</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4267</v>
+        <v>0.4268</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4266</v>
+        <v>0.4268</v>
       </c>
       <c r="F186" t="n">
-        <v>2355208.4641</v>
+        <v>3108548.5644</v>
       </c>
       <c r="G186" t="n">
-        <v>0.4282666666666672</v>
+        <v>0.4283783333333338</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7168,11 +7064,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7191,13 +7083,13 @@
         <v>0.4267</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4267</v>
+        <v>0.4266</v>
       </c>
       <c r="F187" t="n">
-        <v>1063232.1882</v>
+        <v>2355208.4641</v>
       </c>
       <c r="G187" t="n">
-        <v>0.4281866666666672</v>
+        <v>0.4282666666666672</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7207,11 +7099,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7233,10 +7121,10 @@
         <v>0.4267</v>
       </c>
       <c r="F188" t="n">
-        <v>1024270.9145</v>
+        <v>1063232.1882</v>
       </c>
       <c r="G188" t="n">
-        <v>0.4280783333333338</v>
+        <v>0.4281866666666672</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7246,11 +7134,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7272,10 +7156,10 @@
         <v>0.4267</v>
       </c>
       <c r="F189" t="n">
-        <v>1451578.869</v>
+        <v>1024270.9145</v>
       </c>
       <c r="G189" t="n">
-        <v>0.4279983333333339</v>
+        <v>0.4280783333333338</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7285,11 +7169,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7311,10 +7191,10 @@
         <v>0.4267</v>
       </c>
       <c r="F190" t="n">
-        <v>809788</v>
+        <v>1451578.869</v>
       </c>
       <c r="G190" t="n">
-        <v>0.4279266666666672</v>
+        <v>0.4279983333333339</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7324,11 +7204,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7350,10 +7226,10 @@
         <v>0.4267</v>
       </c>
       <c r="F191" t="n">
-        <v>121242.891</v>
+        <v>809788</v>
       </c>
       <c r="G191" t="n">
-        <v>0.4278550000000005</v>
+        <v>0.4279266666666672</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7363,11 +7239,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7389,10 +7261,10 @@
         <v>0.4267</v>
       </c>
       <c r="F192" t="n">
-        <v>484260.3828</v>
+        <v>121242.891</v>
       </c>
       <c r="G192" t="n">
-        <v>0.4277833333333338</v>
+        <v>0.4278550000000005</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7402,11 +7274,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7428,10 +7296,10 @@
         <v>0.4267</v>
       </c>
       <c r="F193" t="n">
-        <v>145945.355</v>
+        <v>484260.3828</v>
       </c>
       <c r="G193" t="n">
-        <v>0.4276850000000005</v>
+        <v>0.4277833333333338</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7441,11 +7309,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7455,22 +7319,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="C194" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="F194" t="n">
-        <v>35000</v>
+        <v>145945.355</v>
       </c>
       <c r="G194" t="n">
-        <v>0.4275933333333338</v>
+        <v>0.4276850000000005</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7480,11 +7344,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7506,10 +7366,10 @@
         <v>0.4238</v>
       </c>
       <c r="F195" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="G195" t="n">
-        <v>0.4275066666666671</v>
+        <v>0.4275933333333338</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7519,11 +7379,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7545,10 +7401,10 @@
         <v>0.4238</v>
       </c>
       <c r="F196" t="n">
-        <v>21372.903</v>
+        <v>14000</v>
       </c>
       <c r="G196" t="n">
-        <v>0.4274100000000005</v>
+        <v>0.4275066666666671</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7558,11 +7414,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7572,22 +7424,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="F197" t="n">
-        <v>5113.9706</v>
+        <v>21372.903</v>
       </c>
       <c r="G197" t="n">
-        <v>0.4273550000000005</v>
+        <v>0.4274100000000005</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7597,11 +7449,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7611,22 +7459,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="F198" t="n">
-        <v>178961.9221</v>
+        <v>5113.9706</v>
       </c>
       <c r="G198" t="n">
-        <v>0.4272100000000005</v>
+        <v>0.4273550000000005</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7636,11 +7484,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7650,22 +7494,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="F199" t="n">
-        <v>5000000</v>
+        <v>178961.9221</v>
       </c>
       <c r="G199" t="n">
-        <v>0.4271150000000005</v>
+        <v>0.4272100000000005</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7675,11 +7519,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7701,10 +7541,10 @@
         <v>0.4267</v>
       </c>
       <c r="F200" t="n">
-        <v>3504.2461</v>
+        <v>5000000</v>
       </c>
       <c r="G200" t="n">
-        <v>0.4270600000000005</v>
+        <v>0.4271150000000005</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7714,11 +7554,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7731,19 +7567,19 @@
         <v>0.4267</v>
       </c>
       <c r="C201" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="D201" t="n">
         <v>0.4267</v>
       </c>
       <c r="E201" t="n">
-        <v>0.4238</v>
+        <v>0.4267</v>
       </c>
       <c r="F201" t="n">
-        <v>167605.9079</v>
+        <v>3504.2461</v>
       </c>
       <c r="G201" t="n">
-        <v>0.4269566666666672</v>
+        <v>0.4270600000000005</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7753,11 +7589,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7767,10 +7599,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C202" t="n">
         <v>0.4238</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.4267</v>
       </c>
       <c r="D202" t="n">
         <v>0.4267</v>
@@ -7779,10 +7611,10 @@
         <v>0.4238</v>
       </c>
       <c r="F202" t="n">
-        <v>98111.2896</v>
+        <v>167605.9079</v>
       </c>
       <c r="G202" t="n">
-        <v>0.4269016666666671</v>
+        <v>0.4269566666666672</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7792,11 +7624,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7806,7 +7634,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="C203" t="n">
         <v>0.4267</v>
@@ -7815,13 +7643,13 @@
         <v>0.4267</v>
       </c>
       <c r="E203" t="n">
-        <v>0.4267</v>
+        <v>0.4238</v>
       </c>
       <c r="F203" t="n">
-        <v>1439224.8813</v>
+        <v>98111.2896</v>
       </c>
       <c r="G203" t="n">
-        <v>0.4268550000000005</v>
+        <v>0.4269016666666671</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7831,11 +7659,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7845,22 +7669,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4239</v>
+        <v>0.4267</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4239</v>
+        <v>0.4267</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4239</v>
+        <v>0.4267</v>
       </c>
       <c r="E204" t="n">
-        <v>0.4239</v>
+        <v>0.4267</v>
       </c>
       <c r="F204" t="n">
-        <v>1462607.606</v>
+        <v>1439224.8813</v>
       </c>
       <c r="G204" t="n">
-        <v>0.4267166666666671</v>
+        <v>0.4268550000000005</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7870,11 +7694,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7884,22 +7704,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4238</v>
+        <v>0.4239</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4238</v>
+        <v>0.4239</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4238</v>
+        <v>0.4239</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4238</v>
+        <v>0.4239</v>
       </c>
       <c r="F205" t="n">
-        <v>56474.6734</v>
+        <v>1462607.606</v>
       </c>
       <c r="G205" t="n">
-        <v>0.4266200000000004</v>
+        <v>0.4267166666666671</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7909,11 +7729,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7923,22 +7739,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.4239</v>
+        <v>0.4238</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4239</v>
+        <v>0.4238</v>
       </c>
       <c r="D206" t="n">
-        <v>0.4239</v>
+        <v>0.4238</v>
       </c>
       <c r="E206" t="n">
-        <v>0.4239</v>
+        <v>0.4238</v>
       </c>
       <c r="F206" t="n">
-        <v>162697.2745</v>
+        <v>56474.6734</v>
       </c>
       <c r="G206" t="n">
-        <v>0.4265250000000004</v>
+        <v>0.4266200000000004</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7948,11 +7764,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7974,10 +7786,10 @@
         <v>0.4239</v>
       </c>
       <c r="F207" t="n">
-        <v>2408416.9117</v>
+        <v>162697.2745</v>
       </c>
       <c r="G207" t="n">
-        <v>0.4264000000000004</v>
+        <v>0.4265250000000004</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7987,11 +7799,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8013,10 +7821,10 @@
         <v>0.4239</v>
       </c>
       <c r="F208" t="n">
-        <v>365082.321</v>
+        <v>2408416.9117</v>
       </c>
       <c r="G208" t="n">
-        <v>0.4263066666666671</v>
+        <v>0.4264000000000004</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8026,11 +7834,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8052,10 +7856,10 @@
         <v>0.4239</v>
       </c>
       <c r="F209" t="n">
-        <v>899428.9614</v>
+        <v>365082.321</v>
       </c>
       <c r="G209" t="n">
-        <v>0.426186666666667</v>
+        <v>0.4263066666666671</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8065,11 +7869,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8079,22 +7879,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.4267</v>
+        <v>0.4239</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4271</v>
+        <v>0.4239</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4271</v>
+        <v>0.4239</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4267</v>
+        <v>0.4239</v>
       </c>
       <c r="F210" t="n">
-        <v>224276.0093</v>
+        <v>899428.9614</v>
       </c>
       <c r="G210" t="n">
-        <v>0.4261583333333337</v>
+        <v>0.426186666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8104,11 +7904,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8118,22 +7914,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C211" t="n">
         <v>0.4271</v>
       </c>
-      <c r="C211" t="n">
-        <v>0.4272</v>
-      </c>
       <c r="D211" t="n">
-        <v>0.4272</v>
+        <v>0.4271</v>
       </c>
       <c r="E211" t="n">
-        <v>0.4271</v>
+        <v>0.4267</v>
       </c>
       <c r="F211" t="n">
-        <v>283624.7328</v>
+        <v>224276.0093</v>
       </c>
       <c r="G211" t="n">
-        <v>0.4261400000000004</v>
+        <v>0.4261583333333337</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8143,12 +7939,43 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="F212" t="n">
+        <v>283624.7328</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.4261400000000004</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest BTT.xlsx
+++ b/BackTest/2020-01-23 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>239257.3651</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4244933333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4251916666666671</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>6342772.679</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4245399999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4252850000000005</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,24 +529,21 @@
         <v>8326547.716</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4245933333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4254416666666671</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4254</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -559,24 +567,25 @@
         <v>7954</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4244933333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4254700000000005</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.4255</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,24 +609,29 @@
         <v>893400.45734686</v>
       </c>
       <c r="G6" t="n">
+        <v>0.4245599999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4255333333333338</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.4232</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -641,24 +655,29 @@
         <v>1158553.124</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4246266666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4255966666666671</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.4257</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,22 +701,29 @@
         <v>276363.5426</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4246933333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.425611666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -721,22 +747,27 @@
         <v>138604.6042</v>
       </c>
       <c r="G9" t="n">
+        <v>0.4248533333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4256250000000003</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,22 +791,27 @@
         <v>9257017.96609525</v>
       </c>
       <c r="G10" t="n">
+        <v>0.4250133333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4256383333333336</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -799,22 +835,27 @@
         <v>7305</v>
       </c>
       <c r="G11" t="n">
+        <v>0.4251733333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4256800000000002</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -838,22 +879,29 @@
         <v>12585675.8156</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4251666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4255750000000003</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -877,22 +925,29 @@
         <v>554151.3689999999</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4250666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4254950000000003</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,22 +971,29 @@
         <v>717538.4611</v>
       </c>
       <c r="G14" t="n">
+        <v>0.4250533333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4254383333333336</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -955,22 +1017,27 @@
         <v>15726.461</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4252133333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.4253816666666669</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -994,22 +1061,29 @@
         <v>10165.0757</v>
       </c>
       <c r="G16" t="n">
+        <v>0.4253533333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4253633333333336</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1033,22 +1107,27 @@
         <v>9495373.8113</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4255133333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4254283333333337</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1072,22 +1151,27 @@
         <v>40790.2934</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4255333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.425456666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1111,22 +1195,27 @@
         <v>672730.4816000001</v>
       </c>
       <c r="G19" t="n">
+        <v>0.4257066666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4255250000000004</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1150,22 +1239,27 @@
         <v>389692.025</v>
       </c>
       <c r="G20" t="n">
+        <v>0.4260333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4255683333333337</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1189,22 +1283,27 @@
         <v>5249767.3066</v>
       </c>
       <c r="G21" t="n">
+        <v>0.4262533333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.425626666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,22 +1327,27 @@
         <v>1185</v>
       </c>
       <c r="G22" t="n">
+        <v>0.4265066666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4256483333333337</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,22 +1371,27 @@
         <v>190548.7387</v>
       </c>
       <c r="G23" t="n">
+        <v>0.42676</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.425676666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,22 +1415,27 @@
         <v>2675927.2207</v>
       </c>
       <c r="G24" t="n">
+        <v>0.42692</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.425681666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1345,22 +1459,27 @@
         <v>580618.8777</v>
       </c>
       <c r="G25" t="n">
+        <v>0.4271733333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.4256933333333338</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,22 +1503,27 @@
         <v>785807.8909</v>
       </c>
       <c r="G26" t="n">
+        <v>0.42734</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.4256866666666671</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1423,22 +1547,27 @@
         <v>181049.5884</v>
       </c>
       <c r="G27" t="n">
+        <v>0.4277533333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.4257000000000005</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,22 +1591,27 @@
         <v>23353.5731</v>
       </c>
       <c r="G28" t="n">
+        <v>0.42802</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.4256933333333338</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1501,22 +1635,27 @@
         <v>180641.6003</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4281933333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.4256933333333338</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,22 +1679,27 @@
         <v>2217458.9834</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4284533333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.4257066666666672</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1579,22 +1723,27 @@
         <v>1002551.9766</v>
       </c>
       <c r="G31" t="n">
+        <v>0.4285666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4257316666666672</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1618,22 +1767,27 @@
         <v>13099421.9743</v>
       </c>
       <c r="G32" t="n">
+        <v>0.42858</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.4257766666666672</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,22 +1811,27 @@
         <v>107132.1396</v>
       </c>
       <c r="G33" t="n">
+        <v>0.42874</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.4258316666666672</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1696,22 +1855,27 @@
         <v>790942.2826</v>
       </c>
       <c r="G34" t="n">
+        <v>0.42874</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.4258883333333338</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1735,22 +1899,27 @@
         <v>1085000</v>
       </c>
       <c r="G35" t="n">
+        <v>0.4288399999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.4259700000000005</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,22 +1943,27 @@
         <v>2490217.5818</v>
       </c>
       <c r="G36" t="n">
+        <v>0.4287799999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.4260266666666671</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,22 +1987,27 @@
         <v>507503.5518</v>
       </c>
       <c r="G37" t="n">
+        <v>0.4287866666666665</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.4261083333333338</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1852,22 +2031,27 @@
         <v>5202018.0137</v>
       </c>
       <c r="G38" t="n">
+        <v>0.4287333333333332</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.4261750000000004</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1891,22 +2075,27 @@
         <v>3742469.1618</v>
       </c>
       <c r="G39" t="n">
+        <v>0.4288866666666665</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.4262700000000004</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1930,22 +2119,27 @@
         <v>1052247.6743</v>
       </c>
       <c r="G40" t="n">
+        <v>0.4289533333333332</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.4263900000000003</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,22 +2163,27 @@
         <v>53421968.2122</v>
       </c>
       <c r="G41" t="n">
+        <v>0.4296133333333332</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.4266133333333336</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,22 +2207,27 @@
         <v>2985722.1812</v>
       </c>
       <c r="G42" t="n">
+        <v>0.4296866666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.4267333333333336</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2047,22 +2251,29 @@
         <v>2369.3214</v>
       </c>
       <c r="G43" t="n">
+        <v>0.4300733333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.4268883333333335</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,18 +2295,27 @@
         <v>2733163.7143</v>
       </c>
       <c r="G44" t="n">
+        <v>0.4304666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.4270450000000002</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2119,18 +2339,27 @@
         <v>235818.928</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4307733333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.4272016666666669</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,18 +2383,27 @@
         <v>54301.1302</v>
       </c>
       <c r="G46" t="n">
+        <v>0.4309333333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.4273233333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2189,18 +2427,27 @@
         <v>357811.1307</v>
       </c>
       <c r="G47" t="n">
+        <v>0.4311933333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.4274450000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,18 +2471,27 @@
         <v>526443.8005</v>
       </c>
       <c r="G48" t="n">
+        <v>0.43146</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.4275683333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2259,18 +2515,27 @@
         <v>4983621.329</v>
       </c>
       <c r="G49" t="n">
+        <v>0.4318666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4277266666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2294,18 +2559,27 @@
         <v>14597176.3091</v>
       </c>
       <c r="G50" t="n">
+        <v>0.4320466666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.4278533333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2329,18 +2603,27 @@
         <v>1783477.7934</v>
       </c>
       <c r="G51" t="n">
+        <v>0.4324533333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.4280116666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,18 +2647,27 @@
         <v>3091.0057</v>
       </c>
       <c r="G52" t="n">
+        <v>0.43276</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.42817</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,19 +2691,28 @@
         <v>12624706.0077</v>
       </c>
       <c r="G53" t="n">
+        <v>0.4328866666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.4282683333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
+      <c r="L53" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>1.006985898942421</v>
       </c>
     </row>
     <row r="54">
@@ -2434,18 +2735,21 @@
         <v>525591.7375</v>
       </c>
       <c r="G54" t="n">
+        <v>0.4329</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.4283899999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2469,18 +2773,21 @@
         <v>108642.32</v>
       </c>
       <c r="G55" t="n">
+        <v>0.4329133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.4285133333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,18 +2811,21 @@
         <v>1180.344</v>
       </c>
       <c r="G56" t="n">
+        <v>0.4325999999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.4286816666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,18 +2849,21 @@
         <v>2703.4288</v>
       </c>
       <c r="G57" t="n">
+        <v>0.4326266666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.4288083333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2574,18 +2887,21 @@
         <v>1190.09</v>
       </c>
       <c r="G58" t="n">
+        <v>0.4325866666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.4289366666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2609,18 +2925,21 @@
         <v>12634.1981</v>
       </c>
       <c r="G59" t="n">
+        <v>0.4323733333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.4290216666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2644,18 +2963,21 @@
         <v>62019.4411</v>
       </c>
       <c r="G60" t="n">
+        <v>0.4321599999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.4291499999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2679,18 +3001,21 @@
         <v>1411927.4954</v>
       </c>
       <c r="G61" t="n">
+        <v>0.4320666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.4292299999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,18 +3039,21 @@
         <v>1058469.4088</v>
       </c>
       <c r="G62" t="n">
+        <v>0.4321466666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.4293583333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2749,18 +3077,21 @@
         <v>170180.3158</v>
       </c>
       <c r="G63" t="n">
+        <v>0.4322199999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.4294883333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2784,18 +3115,21 @@
         <v>2231.7487</v>
       </c>
       <c r="G64" t="n">
+        <v>0.4321466666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.4296149999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2819,18 +3153,21 @@
         <v>20000</v>
       </c>
       <c r="G65" t="n">
+        <v>0.4321999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.4297799999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,18 +3191,21 @@
         <v>1606.654</v>
       </c>
       <c r="G66" t="n">
+        <v>0.4321199999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.4299016666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2889,18 +3229,21 @@
         <v>76027.9721</v>
       </c>
       <c r="G67" t="n">
+        <v>0.4320399999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.4300233333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,18 +3267,21 @@
         <v>465520.6994</v>
       </c>
       <c r="G68" t="n">
+        <v>0.4321999999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.4301449999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2959,18 +3305,21 @@
         <v>1558010.1017</v>
       </c>
       <c r="G69" t="n">
+        <v>0.4323599999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.4302666666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,18 +3343,21 @@
         <v>462943.797</v>
       </c>
       <c r="G70" t="n">
+        <v>0.4325133333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.4303883333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3029,18 +3381,21 @@
         <v>207686.9361</v>
       </c>
       <c r="G71" t="n">
+        <v>0.4324866666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.4305099999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,18 +3419,21 @@
         <v>101974.7729</v>
       </c>
       <c r="G72" t="n">
+        <v>0.4326266666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.4306733333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3099,18 +3457,21 @@
         <v>501686.5411</v>
       </c>
       <c r="G73" t="n">
+        <v>0.4324933333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.4307933333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,18 +3495,21 @@
         <v>82432.10460000001</v>
       </c>
       <c r="G74" t="n">
+        <v>0.4325266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.4308899999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,18 +3533,21 @@
         <v>189188.7371</v>
       </c>
       <c r="G75" t="n">
+        <v>0.4326666666666665</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.4310133333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,18 +3571,21 @@
         <v>2754.5224</v>
       </c>
       <c r="G76" t="n">
+        <v>0.4328266666666665</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.4310983333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3239,18 +3609,21 @@
         <v>9522.34</v>
       </c>
       <c r="G77" t="n">
+        <v>0.4328133333333331</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.4311833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,18 +3647,21 @@
         <v>159921.6512</v>
       </c>
       <c r="G78" t="n">
+        <v>0.4327999999999997</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.4313049999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,18 +3685,21 @@
         <v>1396.4442</v>
       </c>
       <c r="G79" t="n">
+        <v>0.4327866666666665</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.4313849999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,18 +3723,21 @@
         <v>2949.4563</v>
       </c>
       <c r="G80" t="n">
+        <v>0.4327733333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.4314649999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3379,18 +3761,21 @@
         <v>2990397.13850344</v>
       </c>
       <c r="G81" t="n">
+        <v>0.4327799999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.4315333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,18 +3799,21 @@
         <v>1835.4654</v>
       </c>
       <c r="G82" t="n">
+        <v>0.4327666666666665</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.4315883333333332</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3449,18 +3837,21 @@
         <v>2246825.8142</v>
       </c>
       <c r="G83" t="n">
+        <v>0.4327799999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.4316499999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,18 +3875,21 @@
         <v>1637.0635</v>
       </c>
       <c r="G84" t="n">
+        <v>0.4327999999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.4317366666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3519,18 +3913,21 @@
         <v>2059</v>
       </c>
       <c r="G85" t="n">
+        <v>0.4328199999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.4317999999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,18 +3951,21 @@
         <v>7624302.1063</v>
       </c>
       <c r="G86" t="n">
+        <v>0.4328399999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.4318849999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,18 +3989,21 @@
         <v>3775100.3172</v>
       </c>
       <c r="G87" t="n">
+        <v>0.4326799999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.4319049999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,18 +4027,21 @@
         <v>1889306.0992</v>
       </c>
       <c r="G88" t="n">
+        <v>0.4328066666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.4319899999999998</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,18 +4065,21 @@
         <v>1200</v>
       </c>
       <c r="G89" t="n">
+        <v>0.4329133333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.4320699999999997</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3694,18 +4103,21 @@
         <v>14447.6098</v>
       </c>
       <c r="G90" t="n">
+        <v>0.4327466666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.4320866666666664</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3729,18 +4141,21 @@
         <v>1167.6301</v>
       </c>
       <c r="G91" t="n">
+        <v>0.4327133333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.4321349999999997</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,18 +4179,21 @@
         <v>2127576.0886</v>
       </c>
       <c r="G92" t="n">
+        <v>0.43268</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.432208333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3799,18 +4217,21 @@
         <v>12606.772</v>
       </c>
       <c r="G93" t="n">
+        <v>0.4326466666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.4322816666666664</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,18 +4255,21 @@
         <v>550838.9401</v>
       </c>
       <c r="G94" t="n">
+        <v>0.4326533333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.432363333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3869,18 +4293,21 @@
         <v>663951.6218</v>
       </c>
       <c r="G95" t="n">
+        <v>0.43266</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.4324199999999997</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,18 +4331,21 @@
         <v>3112788.4735</v>
       </c>
       <c r="G96" t="n">
+        <v>0.4326533333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.4325016666666663</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3939,18 +4369,21 @@
         <v>3259491.8475</v>
       </c>
       <c r="G97" t="n">
+        <v>0.4326666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.432558333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,18 +4407,21 @@
         <v>911600.0273</v>
       </c>
       <c r="G98" t="n">
+        <v>0.4326733333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.4326349999999997</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,18 +4445,21 @@
         <v>23057.41305826</v>
       </c>
       <c r="G99" t="n">
+        <v>0.4326999999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.4326899999999997</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,18 +4483,21 @@
         <v>496995.4756</v>
       </c>
       <c r="G100" t="n">
+        <v>0.4326999999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.4327366666666664</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4079,18 +4521,21 @@
         <v>4012.0334</v>
       </c>
       <c r="G101" t="n">
+        <v>0.4327266666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.4326633333333331</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,18 +4559,21 @@
         <v>123753.1259</v>
       </c>
       <c r="G102" t="n">
+        <v>0.4329333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.4327166666666665</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4149,18 +4597,21 @@
         <v>1200000</v>
       </c>
       <c r="G103" t="n">
+        <v>0.4329666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.4327133333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,18 +4635,21 @@
         <v>5512123.5981</v>
       </c>
       <c r="G104" t="n">
+        <v>0.4331133333333332</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.4327316666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,18 +4673,21 @@
         <v>1003730.5194</v>
       </c>
       <c r="G105" t="n">
+        <v>0.4334133333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.4327466666666664</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,18 +4711,21 @@
         <v>1597.7986</v>
       </c>
       <c r="G106" t="n">
+        <v>0.4335799999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.4327966666666664</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4289,18 +4749,21 @@
         <v>5082.4891</v>
       </c>
       <c r="G107" t="n">
+        <v>0.4337466666666664</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.4328466666666664</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,18 +4787,21 @@
         <v>4401001.3982</v>
       </c>
       <c r="G108" t="n">
+        <v>0.4339133333333331</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.4328949999999998</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4359,18 +4825,21 @@
         <v>238898.3466</v>
       </c>
       <c r="G109" t="n">
+        <v>0.4340466666666664</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.4329083333333331</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,18 +4863,21 @@
         <v>114916.11123879</v>
       </c>
       <c r="G110" t="n">
+        <v>0.4341866666666664</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.4329549999999997</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,18 +4901,21 @@
         <v>9168.528899999999</v>
       </c>
       <c r="G111" t="n">
+        <v>0.4343266666666665</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.4329699999999997</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,18 +4939,21 @@
         <v>1280256.1778</v>
       </c>
       <c r="G112" t="n">
+        <v>0.4344599999999998</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.4329833333333329</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4499,18 +4977,21 @@
         <v>1000000</v>
       </c>
       <c r="G113" t="n">
+        <v>0.4343199999999998</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.432993333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,18 +5015,21 @@
         <v>1169.8461</v>
       </c>
       <c r="G114" t="n">
+        <v>0.4344066666666664</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.4330666666666663</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4569,18 +5053,21 @@
         <v>135356.2989</v>
       </c>
       <c r="G115" t="n">
+        <v>0.4345199999999997</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.433138333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,18 +5091,21 @@
         <v>2408416.9117</v>
       </c>
       <c r="G116" t="n">
+        <v>0.4346066666666664</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.4331649999999996</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4639,18 +5129,21 @@
         <v>688782.5035</v>
       </c>
       <c r="G117" t="n">
+        <v>0.434693333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.4332333333333329</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,18 +5167,21 @@
         <v>1000000</v>
       </c>
       <c r="G118" t="n">
+        <v>0.4347399999999997</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.4332516666666663</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4709,18 +5205,21 @@
         <v>2000325.8489</v>
       </c>
       <c r="G119" t="n">
+        <v>0.434533333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.4332716666666662</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,18 +5243,21 @@
         <v>61703.3761</v>
       </c>
       <c r="G120" t="n">
+        <v>0.4343333333333331</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.4332899999999995</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4779,18 +5281,21 @@
         <v>422019.7438</v>
       </c>
       <c r="G121" t="n">
+        <v>0.4341399999999998</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.4333149999999995</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,18 +5319,21 @@
         <v>7190.6272</v>
       </c>
       <c r="G122" t="n">
+        <v>0.4339399999999998</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.4332949999999995</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4849,18 +5357,21 @@
         <v>219730.557</v>
       </c>
       <c r="G123" t="n">
+        <v>0.4337399999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.4332749999999995</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,18 +5395,21 @@
         <v>1460822.8053</v>
       </c>
       <c r="G124" t="n">
+        <v>0.4335399999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.4332566666666661</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4919,18 +5433,21 @@
         <v>118242.5104</v>
       </c>
       <c r="G125" t="n">
+        <v>0.4333399999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.4332399999999995</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,18 +5471,21 @@
         <v>3432441.3536</v>
       </c>
       <c r="G126" t="n">
+        <v>0.4331066666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.4332166666666661</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,18 +5509,21 @@
         <v>2860.6914</v>
       </c>
       <c r="G127" t="n">
+        <v>0.4329999999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.4332233333333327</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,18 +5547,21 @@
         <v>1045453</v>
       </c>
       <c r="G128" t="n">
+        <v>0.4330199999999999</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.4331983333333327</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5059,18 +5585,21 @@
         <v>15070.4955</v>
       </c>
       <c r="G129" t="n">
+        <v>0.4329</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.4332016666666661</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,18 +5623,21 @@
         <v>933434.1218</v>
       </c>
       <c r="G130" t="n">
+        <v>0.4326666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.4331766666666661</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5129,18 +5661,21 @@
         <v>4316333.1848</v>
       </c>
       <c r="G131" t="n">
+        <v>0.4324</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.4331433333333328</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,18 +5699,21 @@
         <v>2468997.1718</v>
       </c>
       <c r="G132" t="n">
+        <v>0.4321333333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.4331099999999994</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5199,18 +5737,21 @@
         <v>3677.1277</v>
       </c>
       <c r="G133" t="n">
+        <v>0.4319</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.4331033333333328</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,18 +5775,21 @@
         <v>19357179.6184</v>
       </c>
       <c r="G134" t="n">
+        <v>0.4319333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.4331233333333328</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5269,18 +5813,21 @@
         <v>425565.8496</v>
       </c>
       <c r="G135" t="n">
+        <v>0.4317533333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.4330616666666662</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,18 +5851,21 @@
         <v>2970178.8772</v>
       </c>
       <c r="G136" t="n">
+        <v>0.4315466666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.4329949999999995</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5339,18 +5889,21 @@
         <v>5086773.1005</v>
       </c>
       <c r="G137" t="n">
+        <v>0.4313866666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.4329383333333328</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,18 +5927,21 @@
         <v>5229.1471</v>
       </c>
       <c r="G138" t="n">
+        <v>0.4312533333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.4328883333333328</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5409,18 +5965,21 @@
         <v>2823.1022</v>
       </c>
       <c r="G139" t="n">
+        <v>0.4312866666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.4328816666666662</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,18 +6003,21 @@
         <v>3070.4921</v>
       </c>
       <c r="G140" t="n">
+        <v>0.4313066666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.4328733333333329</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5479,18 +6041,21 @@
         <v>70470.2151</v>
       </c>
       <c r="G141" t="n">
+        <v>0.4311999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.4328216666666662</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5514,18 +6079,21 @@
         <v>110367.4102</v>
       </c>
       <c r="G142" t="n">
+        <v>0.4309733333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.4327749999999995</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5549,18 +6117,21 @@
         <v>1863448.9606</v>
       </c>
       <c r="G143" t="n">
+        <v>0.4308733333333332</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.4327216666666662</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5584,18 +6155,21 @@
         <v>1763867.8037</v>
       </c>
       <c r="G144" t="n">
+        <v>0.4306266666666665</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.4326583333333329</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5619,18 +6193,21 @@
         <v>1172.8072</v>
       </c>
       <c r="G145" t="n">
+        <v>0.4306733333333332</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.4326399999999996</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5654,18 +6231,21 @@
         <v>2360.0186</v>
       </c>
       <c r="G146" t="n">
+        <v>0.4305799999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.432578333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5689,18 +6269,21 @@
         <v>1558010.1017</v>
       </c>
       <c r="G147" t="n">
+        <v>0.4304866666666665</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.4325616666666663</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5724,18 +6307,21 @@
         <v>23601.3813</v>
       </c>
       <c r="G148" t="n">
+        <v>0.4305133333333331</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.4325299999999997</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5759,18 +6345,21 @@
         <v>119400.5329</v>
       </c>
       <c r="G149" t="n">
+        <v>0.4303066666666665</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.4324716666666664</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5794,18 +6383,21 @@
         <v>23196.4742</v>
       </c>
       <c r="G150" t="n">
+        <v>0.4304266666666665</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.4324816666666664</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5829,18 +6421,21 @@
         <v>500000</v>
       </c>
       <c r="G151" t="n">
+        <v>0.4304133333333331</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.4324199999999997</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5864,18 +6459,21 @@
         <v>2250730.327</v>
       </c>
       <c r="G152" t="n">
+        <v>0.4303266666666665</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.4323499999999997</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5899,18 +6497,21 @@
         <v>4952.291</v>
       </c>
       <c r="G153" t="n">
+        <v>0.4302133333333332</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.4322799999999997</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5934,18 +6535,21 @@
         <v>7776120.082</v>
       </c>
       <c r="G154" t="n">
+        <v>0.4299199999999998</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.432198333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5969,18 +6573,21 @@
         <v>900353.8795</v>
       </c>
       <c r="G155" t="n">
+        <v>0.4296266666666664</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.4321149999999997</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,18 +6611,21 @@
         <v>920453.2505</v>
       </c>
       <c r="G156" t="n">
+        <v>0.4294999999999998</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.432033333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6039,18 +6649,21 @@
         <v>499999.9999</v>
       </c>
       <c r="G157" t="n">
+        <v>0.4293733333333331</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.4319516666666664</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6074,18 +6687,21 @@
         <v>531914.8936</v>
       </c>
       <c r="G158" t="n">
+        <v>0.4292399999999998</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.4318633333333331</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,18 +6725,21 @@
         <v>670858.5672</v>
       </c>
       <c r="G159" t="n">
+        <v>0.4291399999999997</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.4317683333333331</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6144,18 +6763,21 @@
         <v>5563421.0435</v>
       </c>
       <c r="G160" t="n">
+        <v>0.4288666666666664</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.4316816666666665</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6179,18 +6801,21 @@
         <v>6900</v>
       </c>
       <c r="G161" t="n">
+        <v>0.4289666666666664</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.4316383333333332</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6214,18 +6839,21 @@
         <v>462770.6308</v>
       </c>
       <c r="G162" t="n">
+        <v>0.4290666666666664</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.4315949999999998</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6249,18 +6877,21 @@
         <v>2000.0803</v>
       </c>
       <c r="G163" t="n">
+        <v>0.4290266666666664</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.4315449999999998</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6284,18 +6915,21 @@
         <v>100730.6681</v>
       </c>
       <c r="G164" t="n">
+        <v>0.4290799999999997</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.4314633333333332</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6319,18 +6953,21 @@
         <v>684341.0649</v>
       </c>
       <c r="G165" t="n">
+        <v>0.4288666666666664</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.4313449999999999</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6354,18 +6991,21 @@
         <v>15275354.3815</v>
       </c>
       <c r="G166" t="n">
+        <v>0.4284133333333331</v>
+      </c>
+      <c r="H166" t="n">
         <v>0.4311283333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6389,18 +7029,21 @@
         <v>1605744.0792</v>
       </c>
       <c r="G167" t="n">
+        <v>0.4280666666666664</v>
+      </c>
+      <c r="H167" t="n">
         <v>0.43093</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6424,18 +7067,21 @@
         <v>31039.3822</v>
       </c>
       <c r="G168" t="n">
+        <v>0.428173333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>0.430845</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6459,18 +7105,21 @@
         <v>1153718.1924</v>
       </c>
       <c r="G169" t="n">
+        <v>0.4278599999999997</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.4306516666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6494,18 +7143,21 @@
         <v>1000000</v>
       </c>
       <c r="G170" t="n">
+        <v>0.4275533333333331</v>
+      </c>
+      <c r="H170" t="n">
         <v>0.4304566666666668</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6529,18 +7181,21 @@
         <v>3512585.9359</v>
       </c>
       <c r="G171" t="n">
+        <v>0.4272399999999997</v>
+      </c>
+      <c r="H171" t="n">
         <v>0.4302616666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,18 +7219,21 @@
         <v>239323.3012</v>
       </c>
       <c r="G172" t="n">
+        <v>0.4269199999999998</v>
+      </c>
+      <c r="H172" t="n">
         <v>0.4300666666666668</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6599,18 +7257,21 @@
         <v>4276368.71668672</v>
       </c>
       <c r="G173" t="n">
+        <v>0.4269133333333331</v>
+      </c>
+      <c r="H173" t="n">
         <v>0.4300116666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6634,18 +7295,21 @@
         <v>732184.6841</v>
       </c>
       <c r="G174" t="n">
+        <v>0.4265933333333331</v>
+      </c>
+      <c r="H174" t="n">
         <v>0.4298150000000002</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6669,18 +7333,21 @@
         <v>114916.1112</v>
       </c>
       <c r="G175" t="n">
+        <v>0.4262599999999998</v>
+      </c>
+      <c r="H175" t="n">
         <v>0.4296166666666669</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6704,18 +7371,25 @@
         <v>6996.49122807</v>
       </c>
       <c r="G176" t="n">
+        <v>0.4260199999999998</v>
+      </c>
+      <c r="H176" t="n">
         <v>0.4294916666666669</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6739,18 +7413,27 @@
         <v>5000</v>
       </c>
       <c r="G177" t="n">
+        <v>0.4257799999999998</v>
+      </c>
+      <c r="H177" t="n">
         <v>0.4293666666666669</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6774,18 +7457,27 @@
         <v>84131.2393</v>
       </c>
       <c r="G178" t="n">
+        <v>0.4255466666666665</v>
+      </c>
+      <c r="H178" t="n">
         <v>0.4292466666666669</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6809,18 +7501,21 @@
         <v>103997.2525</v>
       </c>
       <c r="G179" t="n">
+        <v>0.4250733333333332</v>
+      </c>
+      <c r="H179" t="n">
         <v>0.4290983333333336</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6844,18 +7539,25 @@
         <v>1134600.9356</v>
       </c>
       <c r="G180" t="n">
+        <v>0.4247599999999999</v>
+      </c>
+      <c r="H180" t="n">
         <v>0.428951666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6879,18 +7581,27 @@
         <v>4639899.7448</v>
       </c>
       <c r="G181" t="n">
+        <v>0.4248466666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>0.4288050000000004</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6914,18 +7625,29 @@
         <v>3912658.8845</v>
       </c>
       <c r="G182" t="n">
+        <v>0.4250999999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>0.4287200000000004</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6949,18 +7671,29 @@
         <v>56926.601</v>
       </c>
       <c r="G183" t="n">
+        <v>0.4248866666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>0.4286316666666671</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6984,18 +7717,29 @@
         <v>502994.0729</v>
       </c>
       <c r="G184" t="n">
+        <v>0.4251199999999999</v>
+      </c>
+      <c r="H184" t="n">
         <v>0.4285466666666671</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7019,18 +7763,27 @@
         <v>153068.1342</v>
       </c>
       <c r="G185" t="n">
+        <v>0.4253466666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>0.4284583333333338</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7054,18 +7807,27 @@
         <v>3108548.5644</v>
       </c>
       <c r="G186" t="n">
+        <v>0.4255733333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>0.4283783333333338</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7089,18 +7851,27 @@
         <v>2355208.4641</v>
       </c>
       <c r="G187" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="H187" t="n">
         <v>0.4282666666666672</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7124,18 +7895,27 @@
         <v>1063232.1882</v>
       </c>
       <c r="G188" t="n">
+        <v>0.42572</v>
+      </c>
+      <c r="H188" t="n">
         <v>0.4281866666666672</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7159,18 +7939,27 @@
         <v>1024270.9145</v>
       </c>
       <c r="G189" t="n">
+        <v>0.4259533333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>0.4280783333333338</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7194,18 +7983,27 @@
         <v>1451578.869</v>
       </c>
       <c r="G190" t="n">
+        <v>0.4261933333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>0.4279983333333339</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7229,18 +8027,27 @@
         <v>809788</v>
       </c>
       <c r="G191" t="n">
+        <v>0.4261400000000001</v>
+      </c>
+      <c r="H191" t="n">
         <v>0.4279266666666672</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7264,18 +8071,27 @@
         <v>121242.891</v>
       </c>
       <c r="G192" t="n">
+        <v>0.4260866666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>0.4278550000000005</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7299,18 +8115,27 @@
         <v>484260.3828</v>
       </c>
       <c r="G193" t="n">
+        <v>0.4260466666666668</v>
+      </c>
+      <c r="H193" t="n">
         <v>0.4277833333333338</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7334,18 +8159,29 @@
         <v>145945.355</v>
       </c>
       <c r="G194" t="n">
+        <v>0.4262800000000001</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.4276850000000005</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7369,18 +8205,29 @@
         <v>35000</v>
       </c>
       <c r="G195" t="n">
+        <v>0.4263200000000001</v>
+      </c>
+      <c r="H195" t="n">
         <v>0.4275933333333338</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7404,18 +8251,29 @@
         <v>14000</v>
       </c>
       <c r="G196" t="n">
+        <v>0.4263533333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>0.4275066666666671</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7439,18 +8297,29 @@
         <v>21372.903</v>
       </c>
       <c r="G197" t="n">
+        <v>0.4261466666666668</v>
+      </c>
+      <c r="H197" t="n">
         <v>0.4274100000000005</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7474,18 +8343,27 @@
         <v>5113.9706</v>
       </c>
       <c r="G198" t="n">
+        <v>0.4261466666666668</v>
+      </c>
+      <c r="H198" t="n">
         <v>0.4273550000000005</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7509,18 +8387,27 @@
         <v>178961.9221</v>
       </c>
       <c r="G199" t="n">
+        <v>0.4259400000000001</v>
+      </c>
+      <c r="H199" t="n">
         <v>0.4272100000000005</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7544,18 +8431,29 @@
         <v>5000000</v>
       </c>
       <c r="G200" t="n">
+        <v>0.4259333333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>0.4271150000000005</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7579,18 +8477,27 @@
         <v>3504.2461</v>
       </c>
       <c r="G201" t="n">
+        <v>0.4259266666666668</v>
+      </c>
+      <c r="H201" t="n">
         <v>0.4270600000000005</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7614,18 +8521,27 @@
         <v>167605.9079</v>
       </c>
       <c r="G202" t="n">
+        <v>0.4257333333333335</v>
+      </c>
+      <c r="H202" t="n">
         <v>0.4269566666666672</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7649,18 +8565,29 @@
         <v>98111.2896</v>
       </c>
       <c r="G203" t="n">
+        <v>0.4257333333333335</v>
+      </c>
+      <c r="H203" t="n">
         <v>0.4269016666666671</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7684,18 +8611,29 @@
         <v>1439224.8813</v>
       </c>
       <c r="G204" t="n">
+        <v>0.4257333333333335</v>
+      </c>
+      <c r="H204" t="n">
         <v>0.4268550000000005</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7719,18 +8657,29 @@
         <v>1462607.606</v>
       </c>
       <c r="G205" t="n">
+        <v>0.4255466666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>0.4267166666666671</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7754,18 +8703,27 @@
         <v>56474.6734</v>
       </c>
       <c r="G206" t="n">
+        <v>0.4253533333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>0.4266200000000004</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7789,18 +8747,27 @@
         <v>162697.2745</v>
       </c>
       <c r="G207" t="n">
+        <v>0.4251666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>0.4265250000000004</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7824,18 +8791,27 @@
         <v>2408416.9117</v>
       </c>
       <c r="G208" t="n">
+        <v>0.42498</v>
+      </c>
+      <c r="H208" t="n">
         <v>0.4264000000000004</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7859,18 +8835,27 @@
         <v>365082.321</v>
       </c>
       <c r="G209" t="n">
+        <v>0.4247933333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>0.4263066666666671</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,18 +8879,27 @@
         <v>899428.9614</v>
       </c>
       <c r="G210" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="H210" t="n">
         <v>0.426186666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7929,18 +8923,27 @@
         <v>224276.0093</v>
       </c>
       <c r="G211" t="n">
+        <v>0.42502</v>
+      </c>
+      <c r="H211" t="n">
         <v>0.4261583333333337</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7964,18 +8967,467 @@
         <v>283624.7328</v>
       </c>
       <c r="G212" t="n">
+        <v>0.4252466666666666</v>
+      </c>
+      <c r="H212" t="n">
         <v>0.4261400000000004</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2878085.9648</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.4252799999999999</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.426121666666667</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2030562.3956</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.4252933333333333</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.4260533333333337</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6047546.5084</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.4253866666666666</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.4260550000000004</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2061695.83059647</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.4254666666666666</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.426051666666667</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="F217" t="n">
+        <v>128260.5388</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.4257333333333333</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.426046666666667</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="F218" t="n">
+        <v>9380596.5217</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.4258066666666666</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.4260433333333337</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="F219" t="n">
+        <v>9497228.855799999</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.4256866666666666</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.425991666666667</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2889.1997</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.4261266666666667</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.426031666666667</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F221" t="n">
+        <v>14866.3341</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.4262066666666666</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.4259300000000003</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.4252</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.4252</v>
+      </c>
+      <c r="F222" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.4262933333333334</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.425831666666667</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest BTT.xlsx
+++ b/BackTest/2020-01-23 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:N280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4256</v>
+        <v>0.4161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4256</v>
+        <v>0.4161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4256</v>
+        <v>0.4161</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4256</v>
+        <v>0.4161</v>
       </c>
       <c r="F2" t="n">
-        <v>15726.461</v>
+        <v>2966.9018</v>
       </c>
       <c r="G2" t="n">
-        <v>24057684.17168765</v>
+        <v>53550806.89214081</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4257</v>
+        <v>0.4199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4279</v>
+        <v>0.4215</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4279</v>
+        <v>0.4215</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4257</v>
+        <v>0.4199</v>
       </c>
       <c r="F3" t="n">
-        <v>10165.0757</v>
+        <v>12168395.9949</v>
       </c>
       <c r="G3" t="n">
-        <v>24067849.24738765</v>
+        <v>65719202.88704081</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4256</v>
+        <v>0.4161</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4256</v>
+        <v>0.4161</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4279</v>
+        <v>0.4219</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4279</v>
+        <v>0.4219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4279</v>
+        <v>0.4219</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4279</v>
+        <v>0.4219</v>
       </c>
       <c r="F4" t="n">
-        <v>9495373.8113</v>
+        <v>6157.7036</v>
       </c>
       <c r="G4" t="n">
-        <v>24067849.24738765</v>
+        <v>65725360.59064081</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4279</v>
+        <v>0.4215</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4256</v>
+        <v>0.4161</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428</v>
+        <v>0.4219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4257</v>
+        <v>0.4219</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4281</v>
+        <v>0.4219</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4257</v>
+        <v>0.4219</v>
       </c>
       <c r="F5" t="n">
-        <v>40790.2934</v>
+        <v>1009265.0405</v>
       </c>
       <c r="G5" t="n">
-        <v>24027058.95398765</v>
+        <v>65725360.59064081</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4279</v>
+        <v>0.4219</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4256</v>
+        <v>0.4161</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -602,35 +602,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4281</v>
+        <v>0.4248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4281</v>
+        <v>0.4248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4281</v>
+        <v>0.4248</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4281</v>
+        <v>0.4248</v>
       </c>
       <c r="F6" t="n">
-        <v>672730.4816000001</v>
+        <v>1230.4995</v>
       </c>
       <c r="G6" t="n">
-        <v>24699789.43558765</v>
+        <v>65726591.0901408</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.4257</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,22 +638,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4281</v>
+        <v>0.4249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4281</v>
+        <v>0.4249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4281</v>
+        <v>0.4249</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4281</v>
+        <v>0.4249</v>
       </c>
       <c r="F7" t="n">
-        <v>389692.025</v>
+        <v>1230.5797</v>
       </c>
       <c r="G7" t="n">
-        <v>24699789.43558765</v>
+        <v>65727821.66984081</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -666,14 +662,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -684,22 +674,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.429</v>
+        <v>0.4249</v>
       </c>
       <c r="C8" t="n">
-        <v>0.429</v>
+        <v>0.4249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.429</v>
+        <v>0.4249</v>
       </c>
       <c r="E8" t="n">
-        <v>0.429</v>
+        <v>0.4249</v>
       </c>
       <c r="F8" t="n">
-        <v>5249767.3066</v>
+        <v>500707.2678</v>
       </c>
       <c r="G8" t="n">
-        <v>29949556.74218765</v>
+        <v>65727821.66984081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -708,14 +698,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -726,22 +710,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4295</v>
+        <v>0.425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4295</v>
+        <v>0.4232</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4295</v>
+        <v>0.4296</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4295</v>
+        <v>0.4232</v>
       </c>
       <c r="F9" t="n">
-        <v>1185</v>
+        <v>5627396.9304</v>
       </c>
       <c r="G9" t="n">
-        <v>29950741.74218765</v>
+        <v>60100424.73944081</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -774,10 +758,10 @@
         <v>0.4295</v>
       </c>
       <c r="F10" t="n">
-        <v>190548.7387</v>
+        <v>4656.5775</v>
       </c>
       <c r="G10" t="n">
-        <v>29950741.74218765</v>
+        <v>60105081.31694081</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -798,22 +782,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4281</v>
+        <v>0.4289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4281</v>
+        <v>0.429</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4281</v>
+        <v>0.429</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4281</v>
+        <v>0.4289</v>
       </c>
       <c r="F11" t="n">
-        <v>2675927.2207</v>
+        <v>3571711.1782</v>
       </c>
       <c r="G11" t="n">
-        <v>27274814.52148765</v>
+        <v>56533370.13874081</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -834,22 +818,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4295</v>
+        <v>0.429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4295</v>
+        <v>0.429</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4295</v>
+        <v>0.429</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4295</v>
+        <v>0.429</v>
       </c>
       <c r="F12" t="n">
-        <v>580618.8777</v>
+        <v>28131.4299</v>
       </c>
       <c r="G12" t="n">
-        <v>27855433.39918765</v>
+        <v>56533370.13874081</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -870,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4282</v>
+        <v>0.429</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4282</v>
+        <v>0.429</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4282</v>
+        <v>0.429</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4282</v>
+        <v>0.429</v>
       </c>
       <c r="F13" t="n">
-        <v>785807.8909</v>
+        <v>191599.127</v>
       </c>
       <c r="G13" t="n">
-        <v>27069625.50828765</v>
+        <v>56533370.13874081</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -906,22 +890,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4294</v>
+        <v>0.429</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4294</v>
+        <v>0.429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4294</v>
+        <v>0.429</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4294</v>
+        <v>0.429</v>
       </c>
       <c r="F14" t="n">
-        <v>181049.5884</v>
+        <v>0.0001</v>
       </c>
       <c r="G14" t="n">
-        <v>27250675.09668765</v>
+        <v>56533370.13874081</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -942,22 +926,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4282</v>
+        <v>0.4245</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4282</v>
+        <v>0.424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4282</v>
+        <v>0.4245</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4282</v>
+        <v>0.424</v>
       </c>
       <c r="F15" t="n">
-        <v>23353.5731</v>
+        <v>10563819.1964</v>
       </c>
       <c r="G15" t="n">
-        <v>27227321.52358765</v>
+        <v>45969550.94234081</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -978,22 +962,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4282</v>
+        <v>0.424</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4282</v>
+        <v>0.424</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4282</v>
+        <v>0.424</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4282</v>
+        <v>0.424</v>
       </c>
       <c r="F16" t="n">
-        <v>180641.6003</v>
+        <v>1107891.9818</v>
       </c>
       <c r="G16" t="n">
-        <v>27227321.52358765</v>
+        <v>45969550.94234081</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1014,22 +998,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4294</v>
+        <v>0.424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4295</v>
+        <v>0.424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4295</v>
+        <v>0.424</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4294</v>
+        <v>0.424</v>
       </c>
       <c r="F17" t="n">
-        <v>2217458.9834</v>
+        <v>139185.0762</v>
       </c>
       <c r="G17" t="n">
-        <v>29444780.50698765</v>
+        <v>45969550.94234081</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1050,22 +1034,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4296</v>
+        <v>0.4255</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4296</v>
+        <v>0.4255</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4296</v>
+        <v>0.4255</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4296</v>
+        <v>0.4255</v>
       </c>
       <c r="F18" t="n">
-        <v>1002551.9766</v>
+        <v>165613.0869</v>
       </c>
       <c r="G18" t="n">
-        <v>30447332.48358764</v>
+        <v>46135164.02924081</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1086,22 +1070,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4282</v>
+        <v>0.4255</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4281</v>
+        <v>0.4255</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4282</v>
+        <v>0.4255</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4281</v>
+        <v>0.4255</v>
       </c>
       <c r="F19" t="n">
-        <v>13099421.9743</v>
+        <v>2631.883</v>
       </c>
       <c r="G19" t="n">
-        <v>17347910.50928764</v>
+        <v>46135164.02924081</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1122,22 +1106,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4281</v>
+        <v>0.4282</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4281</v>
+        <v>0.4282</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4281</v>
+        <v>0.4282</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4281</v>
+        <v>0.4282</v>
       </c>
       <c r="F20" t="n">
-        <v>107132.1396</v>
+        <v>698860.066</v>
       </c>
       <c r="G20" t="n">
-        <v>17347910.50928764</v>
+        <v>46834024.09524081</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1158,22 +1142,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4281</v>
+        <v>0.4277</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4281</v>
+        <v>0.4278</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4281</v>
+        <v>0.4278</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4281</v>
+        <v>0.4277</v>
       </c>
       <c r="F21" t="n">
-        <v>790942.2826</v>
+        <v>1781362.792</v>
       </c>
       <c r="G21" t="n">
-        <v>17347910.50928764</v>
+        <v>45052661.30324081</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1194,22 +1178,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4281</v>
+        <v>0.4278</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4296</v>
+        <v>0.4278</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4296</v>
+        <v>0.4278</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4281</v>
+        <v>0.4278</v>
       </c>
       <c r="F22" t="n">
-        <v>1085000</v>
+        <v>1188816.0852</v>
       </c>
       <c r="G22" t="n">
-        <v>18432910.50928764</v>
+        <v>45052661.30324081</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1230,22 +1214,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4281</v>
+        <v>0.4283</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4281</v>
+        <v>0.4288</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4281</v>
+        <v>0.4288</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4281</v>
+        <v>0.4283</v>
       </c>
       <c r="F23" t="n">
-        <v>2490217.5818</v>
+        <v>1941229.9318</v>
       </c>
       <c r="G23" t="n">
-        <v>15942692.92748765</v>
+        <v>46993891.23504081</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1266,22 +1250,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4296</v>
+        <v>0.4286</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4296</v>
+        <v>0.4286</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4296</v>
+        <v>0.4286</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4296</v>
+        <v>0.4286</v>
       </c>
       <c r="F24" t="n">
-        <v>507503.5518</v>
+        <v>691108.7817000001</v>
       </c>
       <c r="G24" t="n">
-        <v>16450196.47928764</v>
+        <v>46302782.45334081</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1302,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4296</v>
+        <v>0.4286</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4287</v>
+        <v>0.4286</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4297</v>
+        <v>0.4286</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4287</v>
+        <v>0.4286</v>
       </c>
       <c r="F25" t="n">
-        <v>5202018.0137</v>
+        <v>3541.4031</v>
       </c>
       <c r="G25" t="n">
-        <v>11248178.46558765</v>
+        <v>46302782.45334081</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1338,22 +1322,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.43</v>
+        <v>0.4286</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4304</v>
+        <v>0.4286</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4304</v>
+        <v>0.4286</v>
       </c>
       <c r="E26" t="n">
-        <v>0.43</v>
+        <v>0.4286</v>
       </c>
       <c r="F26" t="n">
-        <v>3742469.1618</v>
+        <v>1177</v>
       </c>
       <c r="G26" t="n">
-        <v>14990647.62738765</v>
+        <v>46302782.45334081</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1374,28 +1358,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4305</v>
+        <v>0.4284</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4305</v>
+        <v>0.4282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4305</v>
+        <v>0.4284</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4305</v>
+        <v>0.4282</v>
       </c>
       <c r="F27" t="n">
-        <v>1052247.6743</v>
+        <v>4708</v>
       </c>
       <c r="G27" t="n">
-        <v>16042895.30168765</v>
+        <v>46298074.45334081</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1410,22 +1394,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4305</v>
+        <v>0.4287</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4381</v>
+        <v>0.4287</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4381</v>
+        <v>0.4287</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4305</v>
+        <v>0.4287</v>
       </c>
       <c r="F28" t="n">
-        <v>53421968.2122</v>
+        <v>41525.3274</v>
       </c>
       <c r="G28" t="n">
-        <v>69464863.51388764</v>
+        <v>46339599.7807408</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1446,28 +1430,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.434</v>
+        <v>0.4281</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4305</v>
+        <v>0.4281</v>
       </c>
       <c r="D29" t="n">
-        <v>0.434</v>
+        <v>0.4281</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4305</v>
+        <v>0.4281</v>
       </c>
       <c r="F29" t="n">
-        <v>2985722.1812</v>
+        <v>1191.3105</v>
       </c>
       <c r="G29" t="n">
-        <v>66479141.33268765</v>
+        <v>46338408.4702408</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1482,28 +1466,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4329</v>
+        <v>0.4254</v>
       </c>
       <c r="C30" t="n">
-        <v>0.434</v>
+        <v>0.4254</v>
       </c>
       <c r="D30" t="n">
-        <v>0.434</v>
+        <v>0.4254</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4329</v>
+        <v>0.4254</v>
       </c>
       <c r="F30" t="n">
-        <v>2369.3214</v>
+        <v>1191.3105</v>
       </c>
       <c r="G30" t="n">
-        <v>66481510.65408765</v>
+        <v>46337217.1597408</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1518,28 +1502,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4341</v>
+        <v>0.4248</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4341</v>
+        <v>0.4248</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4341</v>
+        <v>0.4248</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4341</v>
+        <v>0.4248</v>
       </c>
       <c r="F31" t="n">
-        <v>2733163.7143</v>
+        <v>2109792.8112</v>
       </c>
       <c r="G31" t="n">
-        <v>69214674.36838765</v>
+        <v>44227424.3485408</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1554,22 +1538,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4341</v>
+        <v>0.4247</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4341</v>
+        <v>0.4247</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4341</v>
+        <v>0.4247</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4341</v>
+        <v>0.4247</v>
       </c>
       <c r="F32" t="n">
-        <v>235818.928</v>
+        <v>12893217.7593</v>
       </c>
       <c r="G32" t="n">
-        <v>69214674.36838765</v>
+        <v>31334206.5892408</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1590,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.432</v>
+        <v>0.4247</v>
       </c>
       <c r="C33" t="n">
-        <v>0.432</v>
+        <v>0.4247</v>
       </c>
       <c r="D33" t="n">
-        <v>0.432</v>
+        <v>0.4247</v>
       </c>
       <c r="E33" t="n">
-        <v>0.432</v>
+        <v>0.4247</v>
       </c>
       <c r="F33" t="n">
-        <v>54301.1302</v>
+        <v>90936.37179999999</v>
       </c>
       <c r="G33" t="n">
-        <v>69160373.23818766</v>
+        <v>31334206.5892408</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1626,22 +1610,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.432</v>
+        <v>0.4247</v>
       </c>
       <c r="C34" t="n">
-        <v>0.432</v>
+        <v>0.4247</v>
       </c>
       <c r="D34" t="n">
-        <v>0.432</v>
+        <v>0.4247</v>
       </c>
       <c r="E34" t="n">
-        <v>0.432</v>
+        <v>0.4247</v>
       </c>
       <c r="F34" t="n">
-        <v>357811.1307</v>
+        <v>849193.758</v>
       </c>
       <c r="G34" t="n">
-        <v>69160373.23818766</v>
+        <v>31334206.5892408</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1662,22 +1646,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4321</v>
+        <v>0.4247</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4321</v>
+        <v>0.4247</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4321</v>
+        <v>0.4247</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4321</v>
+        <v>0.4247</v>
       </c>
       <c r="F35" t="n">
-        <v>526443.8005</v>
+        <v>269811.3739</v>
       </c>
       <c r="G35" t="n">
-        <v>69686817.03868766</v>
+        <v>31334206.5892408</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1698,22 +1682,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4322</v>
+        <v>0.4247</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4342</v>
+        <v>0.4247</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4342</v>
+        <v>0.4247</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4322</v>
+        <v>0.4247</v>
       </c>
       <c r="F36" t="n">
-        <v>4983621.329</v>
+        <v>1163580.2512</v>
       </c>
       <c r="G36" t="n">
-        <v>74670438.36768766</v>
+        <v>31334206.5892408</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1734,22 +1718,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4323</v>
+        <v>0.4247</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4323</v>
+        <v>0.4247</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4323</v>
+        <v>0.4247</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4323</v>
+        <v>0.4247</v>
       </c>
       <c r="F37" t="n">
-        <v>14597176.3091</v>
+        <v>478990.6972</v>
       </c>
       <c r="G37" t="n">
-        <v>60073262.05858766</v>
+        <v>31334206.5892408</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1770,22 +1754,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4323</v>
+        <v>0.4245</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4342</v>
+        <v>0.4233</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4342</v>
+        <v>0.4245</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4323</v>
+        <v>0.4233</v>
       </c>
       <c r="F38" t="n">
-        <v>1783477.7934</v>
+        <v>3765001.234</v>
       </c>
       <c r="G38" t="n">
-        <v>61856739.85198765</v>
+        <v>27569205.3552408</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1806,22 +1790,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4342</v>
+        <v>0.4247</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4342</v>
+        <v>0.4247</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4342</v>
+        <v>0.4247</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4342</v>
+        <v>0.4247</v>
       </c>
       <c r="F39" t="n">
-        <v>3091.0057</v>
+        <v>305599.4185</v>
       </c>
       <c r="G39" t="n">
-        <v>61856739.85198765</v>
+        <v>27874804.77374079</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1842,22 +1826,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4342</v>
+        <v>0.4233</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4306</v>
+        <v>0.4233</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4342</v>
+        <v>0.4233</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4306</v>
+        <v>0.4233</v>
       </c>
       <c r="F40" t="n">
-        <v>12624706.0077</v>
+        <v>3040.5163</v>
       </c>
       <c r="G40" t="n">
-        <v>49232033.84428765</v>
+        <v>27871764.25744079</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1878,22 +1862,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4306</v>
+        <v>0.4246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4306</v>
+        <v>0.4247</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4306</v>
+        <v>0.4247</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4306</v>
+        <v>0.4246</v>
       </c>
       <c r="F41" t="n">
-        <v>525591.7375</v>
+        <v>6071184.373</v>
       </c>
       <c r="G41" t="n">
-        <v>49232033.84428765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1914,22 +1898,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4307</v>
+        <v>0.4247</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4307</v>
+        <v>0.4247</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4307</v>
+        <v>0.4247</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4307</v>
+        <v>0.4247</v>
       </c>
       <c r="F42" t="n">
-        <v>108642.32</v>
+        <v>205016.5049</v>
       </c>
       <c r="G42" t="n">
-        <v>49340676.16428765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1950,22 +1934,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4334</v>
+        <v>0.4247</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4334</v>
+        <v>0.4247</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4334</v>
+        <v>0.4247</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4334</v>
+        <v>0.4247</v>
       </c>
       <c r="F43" t="n">
-        <v>1180.344</v>
+        <v>6272834.8504</v>
       </c>
       <c r="G43" t="n">
-        <v>49341856.50828765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1986,22 +1970,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="F44" t="n">
-        <v>2703.4288</v>
+        <v>1250</v>
       </c>
       <c r="G44" t="n">
-        <v>49339153.07948764</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2022,22 +2006,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4334</v>
+        <v>0.4247</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4334</v>
+        <v>0.4247</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4334</v>
+        <v>0.4247</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4334</v>
+        <v>0.4247</v>
       </c>
       <c r="F45" t="n">
-        <v>1190.09</v>
+        <v>3000000</v>
       </c>
       <c r="G45" t="n">
-        <v>49340343.16948765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2058,22 +2042,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="F46" t="n">
-        <v>12634.1981</v>
+        <v>99388.5592</v>
       </c>
       <c r="G46" t="n">
-        <v>49327708.97138765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2094,22 +2078,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="F47" t="n">
-        <v>62019.4411</v>
+        <v>132367.1089</v>
       </c>
       <c r="G47" t="n">
-        <v>49327708.97138765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2130,22 +2114,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4306</v>
+        <v>0.4247</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4309</v>
+        <v>0.4247</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4306</v>
+        <v>0.4247</v>
       </c>
       <c r="F48" t="n">
-        <v>1411927.4954</v>
+        <v>498647.5942</v>
       </c>
       <c r="G48" t="n">
-        <v>47915781.47598765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2166,22 +2150,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4306</v>
+        <v>0.4247</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4332</v>
+        <v>0.4247</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4332</v>
+        <v>0.4247</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4306</v>
+        <v>0.4247</v>
       </c>
       <c r="F49" t="n">
-        <v>1058469.4088</v>
+        <v>4647050.9128</v>
       </c>
       <c r="G49" t="n">
-        <v>48974250.88478765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2202,22 +2186,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4332</v>
+        <v>0.4247</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4332</v>
+        <v>0.4247</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4332</v>
+        <v>0.4247</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4332</v>
+        <v>0.4247</v>
       </c>
       <c r="F50" t="n">
-        <v>170180.3158</v>
+        <v>2641700.8418</v>
       </c>
       <c r="G50" t="n">
-        <v>48974250.88478765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2238,22 +2222,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4331</v>
+        <v>0.4232</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4331</v>
+        <v>0.4247</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4331</v>
+        <v>0.4247</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4331</v>
+        <v>0.4232</v>
       </c>
       <c r="F51" t="n">
-        <v>2231.7487</v>
+        <v>150332.6687</v>
       </c>
       <c r="G51" t="n">
-        <v>48972019.13608765</v>
+        <v>33942948.63044079</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2274,28 +2258,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4331</v>
+        <v>0.4233</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4331</v>
+        <v>0.4233</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4331</v>
+        <v>0.4233</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4331</v>
+        <v>0.4233</v>
       </c>
       <c r="F52" t="n">
-        <v>20000</v>
+        <v>511611.3167</v>
       </c>
       <c r="G52" t="n">
-        <v>48972019.13608765</v>
+        <v>33431337.31374079</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2310,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="C53" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="D53" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="E53" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="F53" t="n">
-        <v>1606.654</v>
+        <v>1234868.6109</v>
       </c>
       <c r="G53" t="n">
-        <v>48970412.48208765</v>
+        <v>33431337.31374079</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2346,22 +2330,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="C54" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="E54" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="F54" t="n">
-        <v>76027.9721</v>
+        <v>842000</v>
       </c>
       <c r="G54" t="n">
-        <v>48970412.48208765</v>
+        <v>33431337.31374079</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2382,22 +2366,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="C55" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="D55" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="E55" t="n">
-        <v>0.433</v>
+        <v>0.4233</v>
       </c>
       <c r="F55" t="n">
-        <v>465520.6994</v>
+        <v>8692551.3936</v>
       </c>
       <c r="G55" t="n">
-        <v>48970412.48208765</v>
+        <v>33431337.31374079</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2418,28 +2402,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="C56" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="E56" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="F56" t="n">
-        <v>1558010.1017</v>
+        <v>2444.2885</v>
       </c>
       <c r="G56" t="n">
-        <v>48970412.48208765</v>
+        <v>33433781.60224079</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2454,28 +2438,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.433</v>
+        <v>0.4258</v>
       </c>
       <c r="C57" t="n">
-        <v>0.433</v>
+        <v>0.4258</v>
       </c>
       <c r="D57" t="n">
-        <v>0.433</v>
+        <v>0.4258</v>
       </c>
       <c r="E57" t="n">
-        <v>0.433</v>
+        <v>0.4258</v>
       </c>
       <c r="F57" t="n">
-        <v>462943.797</v>
+        <v>1222.7158</v>
       </c>
       <c r="G57" t="n">
-        <v>48970412.48208765</v>
+        <v>33435004.31804079</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2490,28 +2474,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.433</v>
+        <v>0.4232</v>
       </c>
       <c r="C58" t="n">
-        <v>0.433</v>
+        <v>0.4232</v>
       </c>
       <c r="D58" t="n">
-        <v>0.433</v>
+        <v>0.4232</v>
       </c>
       <c r="E58" t="n">
-        <v>0.433</v>
+        <v>0.4232</v>
       </c>
       <c r="F58" t="n">
-        <v>207686.9361</v>
+        <v>694521.6021</v>
       </c>
       <c r="G58" t="n">
-        <v>48970412.48208765</v>
+        <v>32740482.71594079</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2526,22 +2510,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4329</v>
+        <v>0.4258</v>
       </c>
       <c r="C59" t="n">
-        <v>0.433</v>
+        <v>0.4258</v>
       </c>
       <c r="D59" t="n">
-        <v>0.433</v>
+        <v>0.4258</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4314</v>
+        <v>0.4258</v>
       </c>
       <c r="F59" t="n">
-        <v>101974.7729</v>
+        <v>1223.312</v>
       </c>
       <c r="G59" t="n">
-        <v>48970412.48208765</v>
+        <v>32741706.02794079</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2562,28 +2546,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4314</v>
+        <v>0.4255</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4314</v>
+        <v>0.4255</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4314</v>
+        <v>0.4255</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4314</v>
+        <v>0.4255</v>
       </c>
       <c r="F60" t="n">
-        <v>501686.5411</v>
+        <v>239257.3651</v>
       </c>
       <c r="G60" t="n">
-        <v>48468725.94098765</v>
+        <v>32502448.66284079</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2598,28 +2582,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4314</v>
+        <v>0.4254</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4314</v>
+        <v>0.4254</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4314</v>
+        <v>0.4254</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4314</v>
+        <v>0.4254</v>
       </c>
       <c r="F61" t="n">
-        <v>82432.10460000001</v>
+        <v>6342772.679</v>
       </c>
       <c r="G61" t="n">
-        <v>48468725.94098765</v>
+        <v>26159675.98384079</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2634,22 +2618,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4329</v>
+        <v>0.4254</v>
       </c>
       <c r="C62" t="n">
-        <v>0.433</v>
+        <v>0.4255</v>
       </c>
       <c r="D62" t="n">
-        <v>0.433</v>
+        <v>0.4255</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4329</v>
+        <v>0.4254</v>
       </c>
       <c r="F62" t="n">
-        <v>189188.7371</v>
+        <v>8326547.716</v>
       </c>
       <c r="G62" t="n">
-        <v>48657914.67808764</v>
+        <v>34486223.69984079</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2670,22 +2654,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.433</v>
+        <v>0.4232</v>
       </c>
       <c r="C63" t="n">
-        <v>0.433</v>
+        <v>0.4232</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433</v>
+        <v>0.4232</v>
       </c>
       <c r="E63" t="n">
-        <v>0.433</v>
+        <v>0.4232</v>
       </c>
       <c r="F63" t="n">
-        <v>2754.5224</v>
+        <v>7954</v>
       </c>
       <c r="G63" t="n">
-        <v>48657914.67808764</v>
+        <v>34478269.69984079</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2706,22 +2690,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.433</v>
+        <v>0.4253</v>
       </c>
       <c r="C64" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="D64" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="E64" t="n">
-        <v>0.433</v>
+        <v>0.4253</v>
       </c>
       <c r="F64" t="n">
-        <v>9522.34</v>
+        <v>893400.45734686</v>
       </c>
       <c r="G64" t="n">
-        <v>48657914.67808764</v>
+        <v>35371670.15718765</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2742,22 +2726,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="C65" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="D65" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4314</v>
+        <v>0.4257</v>
       </c>
       <c r="F65" t="n">
-        <v>159921.6512</v>
+        <v>1158553.124</v>
       </c>
       <c r="G65" t="n">
-        <v>48657914.67808764</v>
+        <v>35371670.15718765</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2778,22 +2762,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4329</v>
+        <v>0.4257</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4329</v>
+        <v>0.4257</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4329</v>
+        <v>0.4257</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4329</v>
+        <v>0.4257</v>
       </c>
       <c r="F66" t="n">
-        <v>1396.4442</v>
+        <v>276363.5426</v>
       </c>
       <c r="G66" t="n">
-        <v>48656518.23388764</v>
+        <v>35371670.15718765</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2814,22 +2798,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4329</v>
+        <v>0.4257</v>
       </c>
       <c r="D67" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4329</v>
+        <v>0.4257</v>
       </c>
       <c r="F67" t="n">
-        <v>2949.4563</v>
+        <v>138604.6042</v>
       </c>
       <c r="G67" t="n">
-        <v>48656518.23388764</v>
+        <v>35371670.15718765</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2850,22 +2834,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.433</v>
+        <v>0.4252</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4331</v>
+        <v>0.4257</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4331</v>
+        <v>0.4257</v>
       </c>
       <c r="E68" t="n">
-        <v>0.433</v>
+        <v>0.4252</v>
       </c>
       <c r="F68" t="n">
-        <v>2990397.13850344</v>
+        <v>9257017.96609525</v>
       </c>
       <c r="G68" t="n">
-        <v>51646915.37239108</v>
+        <v>35371670.15718765</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2886,28 +2870,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4328</v>
+        <v>0.4257</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4328</v>
+        <v>0.4257</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4328</v>
+        <v>0.4257</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4328</v>
+        <v>0.4257</v>
       </c>
       <c r="F69" t="n">
-        <v>1835.4654</v>
+        <v>7305</v>
       </c>
       <c r="G69" t="n">
-        <v>51645079.90699108</v>
+        <v>35371670.15718765</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2922,22 +2906,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4331</v>
+        <v>0.4241</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4332</v>
+        <v>0.4232</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4332</v>
+        <v>0.4241</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4331</v>
+        <v>0.4232</v>
       </c>
       <c r="F70" t="n">
-        <v>2246825.8142</v>
+        <v>12585675.8156</v>
       </c>
       <c r="G70" t="n">
-        <v>53891905.72119108</v>
+        <v>22785994.34158765</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2958,22 +2942,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4333</v>
+        <v>0.4242</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4333</v>
+        <v>0.4242</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4333</v>
+        <v>0.4242</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4333</v>
+        <v>0.4242</v>
       </c>
       <c r="F71" t="n">
-        <v>1637.0635</v>
+        <v>554151.3689999999</v>
       </c>
       <c r="G71" t="n">
-        <v>53893542.78469108</v>
+        <v>23340145.71058765</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2994,22 +2978,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4333</v>
+        <v>0.4256</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4333</v>
+        <v>0.4256</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4333</v>
+        <v>0.4256</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4333</v>
+        <v>0.4256</v>
       </c>
       <c r="F72" t="n">
-        <v>2059</v>
+        <v>717538.4611</v>
       </c>
       <c r="G72" t="n">
-        <v>53893542.78469108</v>
+        <v>24057684.17168765</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3030,22 +3014,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4333</v>
+        <v>0.4256</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4333</v>
+        <v>0.4256</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4333</v>
+        <v>0.4256</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4306</v>
+        <v>0.4256</v>
       </c>
       <c r="F73" t="n">
-        <v>7624302.1063</v>
+        <v>15726.461</v>
       </c>
       <c r="G73" t="n">
-        <v>53893542.78469108</v>
+        <v>24057684.17168765</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3066,22 +3050,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4314</v>
+        <v>0.4257</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4306</v>
+        <v>0.4279</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4314</v>
+        <v>0.4279</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4306</v>
+        <v>0.4257</v>
       </c>
       <c r="F74" t="n">
-        <v>3775100.3172</v>
+        <v>10165.0757</v>
       </c>
       <c r="G74" t="n">
-        <v>50118442.46749108</v>
+        <v>24067849.24738765</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3102,22 +3086,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4306</v>
+        <v>0.4279</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4333</v>
+        <v>0.4279</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4333</v>
+        <v>0.4279</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4306</v>
+        <v>0.4279</v>
       </c>
       <c r="F75" t="n">
-        <v>1889306.0992</v>
+        <v>9495373.8113</v>
       </c>
       <c r="G75" t="n">
-        <v>52007748.56669109</v>
+        <v>24067849.24738765</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3138,22 +3122,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.433</v>
+        <v>0.428</v>
       </c>
       <c r="C76" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="D76" t="n">
-        <v>0.433</v>
+        <v>0.4281</v>
       </c>
       <c r="E76" t="n">
-        <v>0.433</v>
+        <v>0.4257</v>
       </c>
       <c r="F76" t="n">
-        <v>1200</v>
+        <v>40790.2934</v>
       </c>
       <c r="G76" t="n">
-        <v>52006548.56669109</v>
+        <v>24027058.95398765</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3174,22 +3158,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4305</v>
+        <v>0.4281</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4305</v>
+        <v>0.4281</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4305</v>
+        <v>0.4281</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4305</v>
+        <v>0.4281</v>
       </c>
       <c r="F77" t="n">
-        <v>14447.6098</v>
+        <v>672730.4816000001</v>
       </c>
       <c r="G77" t="n">
-        <v>51992100.95689108</v>
+        <v>24699789.43558765</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3210,22 +3194,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4325</v>
+        <v>0.4281</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4325</v>
+        <v>0.4281</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4325</v>
+        <v>0.4281</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4325</v>
+        <v>0.4281</v>
       </c>
       <c r="F78" t="n">
-        <v>1167.6301</v>
+        <v>389692.025</v>
       </c>
       <c r="G78" t="n">
-        <v>51993268.58699108</v>
+        <v>24699789.43558765</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3246,22 +3230,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4325</v>
+        <v>0.429</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4325</v>
+        <v>0.429</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4325</v>
+        <v>0.429</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4325</v>
+        <v>0.429</v>
       </c>
       <c r="F79" t="n">
-        <v>2127576.0886</v>
+        <v>5249767.3066</v>
       </c>
       <c r="G79" t="n">
-        <v>51993268.58699108</v>
+        <v>29949556.74218765</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3282,22 +3266,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4325</v>
+        <v>0.4295</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4325</v>
+        <v>0.4295</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4325</v>
+        <v>0.4295</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4325</v>
+        <v>0.4295</v>
       </c>
       <c r="F80" t="n">
-        <v>12606.772</v>
+        <v>1185</v>
       </c>
       <c r="G80" t="n">
-        <v>51993268.58699108</v>
+        <v>29950741.74218765</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3318,22 +3302,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4325</v>
+        <v>0.4295</v>
       </c>
       <c r="C81" t="n">
-        <v>0.433</v>
+        <v>0.4295</v>
       </c>
       <c r="D81" t="n">
-        <v>0.433</v>
+        <v>0.4295</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4325</v>
+        <v>0.4295</v>
       </c>
       <c r="F81" t="n">
-        <v>550838.9401</v>
+        <v>190548.7387</v>
       </c>
       <c r="G81" t="n">
-        <v>52544107.52709108</v>
+        <v>29950741.74218765</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3354,22 +3338,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.433</v>
+        <v>0.4281</v>
       </c>
       <c r="C82" t="n">
-        <v>0.433</v>
+        <v>0.4281</v>
       </c>
       <c r="D82" t="n">
-        <v>0.433</v>
+        <v>0.4281</v>
       </c>
       <c r="E82" t="n">
-        <v>0.433</v>
+        <v>0.4281</v>
       </c>
       <c r="F82" t="n">
-        <v>663951.6218</v>
+        <v>2675927.2207</v>
       </c>
       <c r="G82" t="n">
-        <v>52544107.52709108</v>
+        <v>27274814.52148765</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3390,28 +3374,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.433</v>
+        <v>0.4295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.433</v>
+        <v>0.4295</v>
       </c>
       <c r="D83" t="n">
-        <v>0.433</v>
+        <v>0.4295</v>
       </c>
       <c r="E83" t="n">
-        <v>0.433</v>
+        <v>0.4295</v>
       </c>
       <c r="F83" t="n">
-        <v>3112788.4735</v>
+        <v>580618.8777</v>
       </c>
       <c r="G83" t="n">
-        <v>52544107.52709108</v>
+        <v>27855433.39918765</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3426,22 +3410,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.433</v>
+        <v>0.4282</v>
       </c>
       <c r="C84" t="n">
-        <v>0.433</v>
+        <v>0.4282</v>
       </c>
       <c r="D84" t="n">
-        <v>0.433</v>
+        <v>0.4282</v>
       </c>
       <c r="E84" t="n">
-        <v>0.433</v>
+        <v>0.4282</v>
       </c>
       <c r="F84" t="n">
-        <v>3259491.8475</v>
+        <v>785807.8909</v>
       </c>
       <c r="G84" t="n">
-        <v>52544107.52709108</v>
+        <v>27069625.50828765</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3462,22 +3446,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.433</v>
+        <v>0.4294</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4333</v>
+        <v>0.4294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4333</v>
+        <v>0.4294</v>
       </c>
       <c r="E85" t="n">
-        <v>0.433</v>
+        <v>0.4294</v>
       </c>
       <c r="F85" t="n">
-        <v>911600.0273</v>
+        <v>181049.5884</v>
       </c>
       <c r="G85" t="n">
-        <v>53455707.55439108</v>
+        <v>27250675.09668765</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3498,22 +3482,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4333</v>
+        <v>0.4282</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4337</v>
+        <v>0.4282</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4337</v>
+        <v>0.4282</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4333</v>
+        <v>0.4282</v>
       </c>
       <c r="F86" t="n">
-        <v>23057.41305826</v>
+        <v>23353.5731</v>
       </c>
       <c r="G86" t="n">
-        <v>53478764.96744934</v>
+        <v>27227321.52358765</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3534,22 +3518,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4333</v>
+        <v>0.4282</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4333</v>
+        <v>0.4282</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4333</v>
+        <v>0.4282</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4333</v>
+        <v>0.4282</v>
       </c>
       <c r="F87" t="n">
-        <v>496995.4756</v>
+        <v>180641.6003</v>
       </c>
       <c r="G87" t="n">
-        <v>52981769.49184934</v>
+        <v>27227321.52358765</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3570,22 +3554,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4337</v>
+        <v>0.4294</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4337</v>
+        <v>0.4295</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4337</v>
+        <v>0.4295</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4337</v>
+        <v>0.4294</v>
       </c>
       <c r="F88" t="n">
-        <v>4012.0334</v>
+        <v>2217458.9834</v>
       </c>
       <c r="G88" t="n">
-        <v>52985781.52524934</v>
+        <v>29444780.50698765</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3606,28 +3590,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4337</v>
+        <v>0.4296</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4337</v>
+        <v>0.4296</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4337</v>
+        <v>0.4296</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4337</v>
+        <v>0.4296</v>
       </c>
       <c r="F89" t="n">
-        <v>123753.1259</v>
+        <v>1002551.9766</v>
       </c>
       <c r="G89" t="n">
-        <v>52985781.52524934</v>
+        <v>30447332.48358764</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3642,28 +3626,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4337</v>
+        <v>0.4282</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4338</v>
+        <v>0.4281</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4338</v>
+        <v>0.4282</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4337</v>
+        <v>0.4281</v>
       </c>
       <c r="F90" t="n">
-        <v>1200000</v>
+        <v>13099421.9743</v>
       </c>
       <c r="G90" t="n">
-        <v>54185781.52524934</v>
+        <v>17347910.50928764</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3678,28 +3662,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4338</v>
+        <v>0.4281</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4352</v>
+        <v>0.4281</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4352</v>
+        <v>0.4281</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4306</v>
+        <v>0.4281</v>
       </c>
       <c r="F91" t="n">
-        <v>5512123.5981</v>
+        <v>107132.1396</v>
       </c>
       <c r="G91" t="n">
-        <v>59697905.12334934</v>
+        <v>17347910.50928764</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3714,22 +3698,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4307</v>
+        <v>0.4281</v>
       </c>
       <c r="C92" t="n">
-        <v>0.435</v>
+        <v>0.4281</v>
       </c>
       <c r="D92" t="n">
-        <v>0.435</v>
+        <v>0.4281</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4307</v>
+        <v>0.4281</v>
       </c>
       <c r="F92" t="n">
-        <v>1003730.5194</v>
+        <v>790942.2826</v>
       </c>
       <c r="G92" t="n">
-        <v>58694174.60394934</v>
+        <v>17347910.50928764</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3750,22 +3734,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.435</v>
+        <v>0.4281</v>
       </c>
       <c r="C93" t="n">
-        <v>0.435</v>
+        <v>0.4296</v>
       </c>
       <c r="D93" t="n">
-        <v>0.435</v>
+        <v>0.4296</v>
       </c>
       <c r="E93" t="n">
-        <v>0.435</v>
+        <v>0.4281</v>
       </c>
       <c r="F93" t="n">
-        <v>1597.7986</v>
+        <v>1085000</v>
       </c>
       <c r="G93" t="n">
-        <v>58694174.60394934</v>
+        <v>18432910.50928764</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3786,28 +3770,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.435</v>
+        <v>0.4281</v>
       </c>
       <c r="C94" t="n">
-        <v>0.435</v>
+        <v>0.4281</v>
       </c>
       <c r="D94" t="n">
-        <v>0.435</v>
+        <v>0.4281</v>
       </c>
       <c r="E94" t="n">
-        <v>0.435</v>
+        <v>0.4281</v>
       </c>
       <c r="F94" t="n">
-        <v>5082.4891</v>
+        <v>2490217.5818</v>
       </c>
       <c r="G94" t="n">
-        <v>58694174.60394934</v>
+        <v>15942692.92748765</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3822,28 +3806,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.435</v>
+        <v>0.4296</v>
       </c>
       <c r="C95" t="n">
-        <v>0.435</v>
+        <v>0.4296</v>
       </c>
       <c r="D95" t="n">
-        <v>0.435</v>
+        <v>0.4296</v>
       </c>
       <c r="E95" t="n">
-        <v>0.435</v>
+        <v>0.4296</v>
       </c>
       <c r="F95" t="n">
-        <v>4401001.3982</v>
+        <v>507503.5518</v>
       </c>
       <c r="G95" t="n">
-        <v>58694174.60394934</v>
+        <v>16450196.47928764</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3858,28 +3842,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.435</v>
+        <v>0.4296</v>
       </c>
       <c r="C96" t="n">
-        <v>0.435</v>
+        <v>0.4287</v>
       </c>
       <c r="D96" t="n">
-        <v>0.435</v>
+        <v>0.4297</v>
       </c>
       <c r="E96" t="n">
-        <v>0.435</v>
+        <v>0.4287</v>
       </c>
       <c r="F96" t="n">
-        <v>238898.3466</v>
+        <v>5202018.0137</v>
       </c>
       <c r="G96" t="n">
-        <v>58694174.60394934</v>
+        <v>11248178.46558765</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3894,28 +3878,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4351</v>
+        <v>0.43</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4351</v>
+        <v>0.4304</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4351</v>
+        <v>0.4304</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4351</v>
+        <v>0.43</v>
       </c>
       <c r="F97" t="n">
-        <v>114916.11123879</v>
+        <v>3742469.1618</v>
       </c>
       <c r="G97" t="n">
-        <v>58809090.71518813</v>
+        <v>14990647.62738765</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3930,28 +3914,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4351</v>
+        <v>0.4305</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4351</v>
+        <v>0.4305</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4351</v>
+        <v>0.4305</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4351</v>
+        <v>0.4305</v>
       </c>
       <c r="F98" t="n">
-        <v>9168.528899999999</v>
+        <v>1052247.6743</v>
       </c>
       <c r="G98" t="n">
-        <v>58809090.71518813</v>
+        <v>16042895.30168765</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3966,28 +3950,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.435</v>
+        <v>0.4305</v>
       </c>
       <c r="C99" t="n">
-        <v>0.435</v>
+        <v>0.4381</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4351</v>
+        <v>0.4381</v>
       </c>
       <c r="E99" t="n">
-        <v>0.435</v>
+        <v>0.4305</v>
       </c>
       <c r="F99" t="n">
-        <v>1280256.1778</v>
+        <v>53421968.2122</v>
       </c>
       <c r="G99" t="n">
-        <v>57528834.53738813</v>
+        <v>69464863.51388764</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4002,28 +3986,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4312</v>
+        <v>0.434</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4312</v>
+        <v>0.4305</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4312</v>
+        <v>0.434</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4312</v>
+        <v>0.4305</v>
       </c>
       <c r="F100" t="n">
-        <v>1000000</v>
+        <v>2985722.1812</v>
       </c>
       <c r="G100" t="n">
-        <v>56528834.53738813</v>
+        <v>66479141.33268765</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4038,28 +4022,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.435</v>
+        <v>0.4329</v>
       </c>
       <c r="C101" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="D101" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="E101" t="n">
-        <v>0.435</v>
+        <v>0.4329</v>
       </c>
       <c r="F101" t="n">
-        <v>1169.8461</v>
+        <v>2369.3214</v>
       </c>
       <c r="G101" t="n">
-        <v>56530004.38348813</v>
+        <v>66481510.65408765</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4074,28 +4058,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.435</v>
+        <v>0.4341</v>
       </c>
       <c r="C102" t="n">
-        <v>0.435</v>
+        <v>0.4341</v>
       </c>
       <c r="D102" t="n">
-        <v>0.435</v>
+        <v>0.4341</v>
       </c>
       <c r="E102" t="n">
-        <v>0.435</v>
+        <v>0.4341</v>
       </c>
       <c r="F102" t="n">
-        <v>135356.2989</v>
+        <v>2733163.7143</v>
       </c>
       <c r="G102" t="n">
-        <v>56530004.38348813</v>
+        <v>69214674.36838765</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4110,28 +4094,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.435</v>
+        <v>0.4341</v>
       </c>
       <c r="C103" t="n">
-        <v>0.435</v>
+        <v>0.4341</v>
       </c>
       <c r="D103" t="n">
-        <v>0.435</v>
+        <v>0.4341</v>
       </c>
       <c r="E103" t="n">
-        <v>0.435</v>
+        <v>0.4341</v>
       </c>
       <c r="F103" t="n">
-        <v>2408416.9117</v>
+        <v>235818.928</v>
       </c>
       <c r="G103" t="n">
-        <v>56530004.38348813</v>
+        <v>69214674.36838765</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4146,28 +4130,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="C104" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="D104" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="E104" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="F104" t="n">
-        <v>688782.5035</v>
+        <v>54301.1302</v>
       </c>
       <c r="G104" t="n">
-        <v>56530004.38348813</v>
+        <v>69160373.23818766</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4182,28 +4166,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4345</v>
+        <v>0.432</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4345</v>
+        <v>0.432</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4345</v>
+        <v>0.432</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4345</v>
+        <v>0.432</v>
       </c>
       <c r="F105" t="n">
-        <v>1000000</v>
+        <v>357811.1307</v>
       </c>
       <c r="G105" t="n">
-        <v>55530004.38348813</v>
+        <v>69160373.23818766</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4218,28 +4202,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4338</v>
+        <v>0.4321</v>
       </c>
       <c r="C106" t="n">
         <v>0.4321</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4338</v>
+        <v>0.4321</v>
       </c>
       <c r="E106" t="n">
         <v>0.4321</v>
       </c>
       <c r="F106" t="n">
-        <v>2000325.8489</v>
+        <v>526443.8005</v>
       </c>
       <c r="G106" t="n">
-        <v>53529678.53458814</v>
+        <v>69686817.03868766</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4254,22 +4238,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.432</v>
+        <v>0.4322</v>
       </c>
       <c r="C107" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="D107" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="E107" t="n">
-        <v>0.432</v>
+        <v>0.4322</v>
       </c>
       <c r="F107" t="n">
-        <v>61703.3761</v>
+        <v>4983621.329</v>
       </c>
       <c r="G107" t="n">
-        <v>53467975.15848813</v>
+        <v>74670438.36768766</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4290,22 +4274,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4321</v>
+        <v>0.4323</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4321</v>
+        <v>0.4323</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4321</v>
+        <v>0.4323</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4321</v>
+        <v>0.4323</v>
       </c>
       <c r="F108" t="n">
-        <v>422019.7438</v>
+        <v>14597176.3091</v>
       </c>
       <c r="G108" t="n">
-        <v>53889994.90228813</v>
+        <v>60073262.05858766</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4326,22 +4310,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.432</v>
+        <v>0.4323</v>
       </c>
       <c r="C109" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="D109" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="E109" t="n">
-        <v>0.432</v>
+        <v>0.4323</v>
       </c>
       <c r="F109" t="n">
-        <v>7190.6272</v>
+        <v>1783477.7934</v>
       </c>
       <c r="G109" t="n">
-        <v>53882804.27508813</v>
+        <v>61856739.85198765</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4362,22 +4346,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="C110" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="D110" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="E110" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="F110" t="n">
-        <v>219730.557</v>
+        <v>3091.0057</v>
       </c>
       <c r="G110" t="n">
-        <v>53882804.27508813</v>
+        <v>61856739.85198765</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4398,22 +4382,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="C111" t="n">
-        <v>0.432</v>
+        <v>0.4306</v>
       </c>
       <c r="D111" t="n">
-        <v>0.432</v>
+        <v>0.4342</v>
       </c>
       <c r="E111" t="n">
-        <v>0.432</v>
+        <v>0.4306</v>
       </c>
       <c r="F111" t="n">
-        <v>1460822.8053</v>
+        <v>12624706.0077</v>
       </c>
       <c r="G111" t="n">
-        <v>53882804.27508813</v>
+        <v>49232033.84428765</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4434,22 +4418,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4321</v>
+        <v>0.4306</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4321</v>
+        <v>0.4306</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4321</v>
+        <v>0.4306</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4321</v>
+        <v>0.4306</v>
       </c>
       <c r="F112" t="n">
-        <v>118242.5104</v>
+        <v>525591.7375</v>
       </c>
       <c r="G112" t="n">
-        <v>54001046.78548813</v>
+        <v>49232033.84428765</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4470,22 +4454,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4321</v>
+        <v>0.4307</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4316</v>
+        <v>0.4307</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4321</v>
+        <v>0.4307</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4316</v>
+        <v>0.4307</v>
       </c>
       <c r="F113" t="n">
-        <v>3432441.3536</v>
+        <v>108642.32</v>
       </c>
       <c r="G113" t="n">
-        <v>50568605.43188813</v>
+        <v>49340676.16428765</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4518,10 +4502,10 @@
         <v>0.4334</v>
       </c>
       <c r="F114" t="n">
-        <v>2860.6914</v>
+        <v>1180.344</v>
       </c>
       <c r="G114" t="n">
-        <v>50571466.12328812</v>
+        <v>49341856.50828765</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4542,22 +4526,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4316</v>
+        <v>0.4309</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4315</v>
+        <v>0.4309</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4316</v>
+        <v>0.4309</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4315</v>
+        <v>0.4309</v>
       </c>
       <c r="F115" t="n">
-        <v>1045453</v>
+        <v>2703.4288</v>
       </c>
       <c r="G115" t="n">
-        <v>49526013.12328812</v>
+        <v>49339153.07948764</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4578,22 +4562,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4317</v>
+        <v>0.4334</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4332</v>
+        <v>0.4334</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4332</v>
+        <v>0.4334</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4317</v>
+        <v>0.4334</v>
       </c>
       <c r="F116" t="n">
-        <v>15070.4955</v>
+        <v>1190.09</v>
       </c>
       <c r="G116" t="n">
-        <v>49541083.61878812</v>
+        <v>49340343.16948765</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4614,22 +4598,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4315</v>
+        <v>0.4309</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4315</v>
+        <v>0.4309</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4315</v>
+        <v>0.4309</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4315</v>
+        <v>0.4309</v>
       </c>
       <c r="F117" t="n">
-        <v>933434.1218</v>
+        <v>12634.1981</v>
       </c>
       <c r="G117" t="n">
-        <v>48607649.49698813</v>
+        <v>49327708.97138765</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4650,22 +4634,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4314</v>
+        <v>0.4309</v>
       </c>
       <c r="C118" t="n">
-        <v>0.431</v>
+        <v>0.4309</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4314</v>
+        <v>0.4309</v>
       </c>
       <c r="E118" t="n">
-        <v>0.431</v>
+        <v>0.4309</v>
       </c>
       <c r="F118" t="n">
-        <v>4316333.1848</v>
+        <v>62019.4411</v>
       </c>
       <c r="G118" t="n">
-        <v>44291316.31218813</v>
+        <v>49327708.97138765</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4686,22 +4670,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.431</v>
+        <v>0.4309</v>
       </c>
       <c r="C119" t="n">
-        <v>0.431</v>
+        <v>0.4306</v>
       </c>
       <c r="D119" t="n">
-        <v>0.431</v>
+        <v>0.4309</v>
       </c>
       <c r="E119" t="n">
-        <v>0.431</v>
+        <v>0.4306</v>
       </c>
       <c r="F119" t="n">
-        <v>2468997.1718</v>
+        <v>1411927.4954</v>
       </c>
       <c r="G119" t="n">
-        <v>44291316.31218813</v>
+        <v>47915781.47598765</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4722,22 +4706,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.431</v>
+        <v>0.4306</v>
       </c>
       <c r="C120" t="n">
-        <v>0.431</v>
+        <v>0.4332</v>
       </c>
       <c r="D120" t="n">
-        <v>0.431</v>
+        <v>0.4332</v>
       </c>
       <c r="E120" t="n">
-        <v>0.431</v>
+        <v>0.4306</v>
       </c>
       <c r="F120" t="n">
-        <v>3677.1277</v>
+        <v>1058469.4088</v>
       </c>
       <c r="G120" t="n">
-        <v>44291316.31218813</v>
+        <v>48974250.88478765</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4758,22 +4742,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.431</v>
+        <v>0.4332</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4326</v>
+        <v>0.4332</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4326</v>
+        <v>0.4332</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4279</v>
+        <v>0.4332</v>
       </c>
       <c r="F121" t="n">
-        <v>19357179.6184</v>
+        <v>170180.3158</v>
       </c>
       <c r="G121" t="n">
-        <v>63648495.93058813</v>
+        <v>48974250.88478765</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4794,22 +4778,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4293</v>
+        <v>0.4331</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4293</v>
+        <v>0.4331</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4293</v>
+        <v>0.4331</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4293</v>
+        <v>0.4331</v>
       </c>
       <c r="F122" t="n">
-        <v>425565.8496</v>
+        <v>2231.7487</v>
       </c>
       <c r="G122" t="n">
-        <v>63222930.08098812</v>
+        <v>48972019.13608765</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4830,22 +4814,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.429</v>
+        <v>0.4331</v>
       </c>
       <c r="C123" t="n">
-        <v>0.429</v>
+        <v>0.4331</v>
       </c>
       <c r="D123" t="n">
-        <v>0.429</v>
+        <v>0.4331</v>
       </c>
       <c r="E123" t="n">
-        <v>0.429</v>
+        <v>0.4331</v>
       </c>
       <c r="F123" t="n">
-        <v>2970178.8772</v>
+        <v>20000</v>
       </c>
       <c r="G123" t="n">
-        <v>60252751.20378812</v>
+        <v>48972019.13608765</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4866,22 +4850,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="F124" t="n">
-        <v>5086773.1005</v>
+        <v>1606.654</v>
       </c>
       <c r="G124" t="n">
-        <v>65339524.30428813</v>
+        <v>48970412.48208765</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4902,22 +4886,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="C125" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="D125" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="E125" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="F125" t="n">
-        <v>5229.1471</v>
+        <v>76027.9721</v>
       </c>
       <c r="G125" t="n">
-        <v>65344753.45138813</v>
+        <v>48970412.48208765</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4938,22 +4922,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4325</v>
+        <v>0.433</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4325</v>
+        <v>0.433</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4325</v>
+        <v>0.433</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4325</v>
+        <v>0.433</v>
       </c>
       <c r="F126" t="n">
-        <v>2823.1022</v>
+        <v>465520.6994</v>
       </c>
       <c r="G126" t="n">
-        <v>65347576.55358813</v>
+        <v>48970412.48208765</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4974,22 +4958,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4324</v>
+        <v>0.433</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4324</v>
+        <v>0.433</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4324</v>
+        <v>0.433</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4324</v>
+        <v>0.433</v>
       </c>
       <c r="F127" t="n">
-        <v>3070.4921</v>
+        <v>1558010.1017</v>
       </c>
       <c r="G127" t="n">
-        <v>65344506.06148813</v>
+        <v>48970412.48208765</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5010,22 +4994,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="C128" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="D128" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="E128" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="F128" t="n">
-        <v>70470.2151</v>
+        <v>462943.797</v>
       </c>
       <c r="G128" t="n">
-        <v>65274035.84638813</v>
+        <v>48970412.48208765</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5046,22 +5030,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="C129" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="D129" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="E129" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="F129" t="n">
-        <v>110367.4102</v>
+        <v>207686.9361</v>
       </c>
       <c r="G129" t="n">
-        <v>65274035.84638813</v>
+        <v>48970412.48208765</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5082,22 +5066,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.43</v>
+        <v>0.4329</v>
       </c>
       <c r="C130" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="D130" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="E130" t="n">
-        <v>0.43</v>
+        <v>0.4314</v>
       </c>
       <c r="F130" t="n">
-        <v>1863448.9606</v>
+        <v>101974.7729</v>
       </c>
       <c r="G130" t="n">
-        <v>65274035.84638813</v>
+        <v>48970412.48208765</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5118,28 +5102,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="F131" t="n">
-        <v>1763867.8037</v>
+        <v>501686.5411</v>
       </c>
       <c r="G131" t="n">
-        <v>63510168.04268813</v>
+        <v>48468725.94098765</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5154,22 +5138,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4322</v>
+        <v>0.4314</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4322</v>
+        <v>0.4314</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4322</v>
+        <v>0.4314</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4322</v>
+        <v>0.4314</v>
       </c>
       <c r="F132" t="n">
-        <v>1172.8072</v>
+        <v>82432.10460000001</v>
       </c>
       <c r="G132" t="n">
-        <v>63511340.84988813</v>
+        <v>48468725.94098765</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5190,22 +5174,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4322</v>
+        <v>0.4329</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4322</v>
+        <v>0.433</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4296</v>
+        <v>0.4329</v>
       </c>
       <c r="F133" t="n">
-        <v>2360.0186</v>
+        <v>189188.7371</v>
       </c>
       <c r="G133" t="n">
-        <v>63508980.83128813</v>
+        <v>48657914.67808764</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5226,22 +5210,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4296</v>
+        <v>0.433</v>
       </c>
       <c r="F134" t="n">
-        <v>1558010.1017</v>
+        <v>2754.5224</v>
       </c>
       <c r="G134" t="n">
-        <v>63508980.83128813</v>
+        <v>48657914.67808764</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5262,28 +5246,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4314</v>
+        <v>0.433</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4314</v>
+        <v>0.433</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4314</v>
+        <v>0.433</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4314</v>
+        <v>0.433</v>
       </c>
       <c r="F135" t="n">
-        <v>23601.3813</v>
+        <v>9522.34</v>
       </c>
       <c r="G135" t="n">
-        <v>63532582.21258813</v>
+        <v>48657914.67808764</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5298,28 +5282,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4295</v>
+        <v>0.433</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4295</v>
+        <v>0.433</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4295</v>
+        <v>0.433</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4295</v>
+        <v>0.4314</v>
       </c>
       <c r="F136" t="n">
-        <v>119400.5329</v>
+        <v>159921.6512</v>
       </c>
       <c r="G136" t="n">
-        <v>63413181.67968813</v>
+        <v>48657914.67808764</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5334,28 +5318,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4311</v>
+        <v>0.4329</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4311</v>
+        <v>0.4329</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4311</v>
+        <v>0.4329</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4311</v>
+        <v>0.4329</v>
       </c>
       <c r="F137" t="n">
-        <v>23196.4742</v>
+        <v>1396.4442</v>
       </c>
       <c r="G137" t="n">
-        <v>63436378.15388814</v>
+        <v>48656518.23388764</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5370,22 +5354,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4288</v>
+        <v>0.433</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4288</v>
+        <v>0.4329</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4288</v>
+        <v>0.433</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4288</v>
+        <v>0.4329</v>
       </c>
       <c r="F138" t="n">
-        <v>500000</v>
+        <v>2949.4563</v>
       </c>
       <c r="G138" t="n">
-        <v>62936378.15388814</v>
+        <v>48656518.23388764</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5406,28 +5390,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4287</v>
+        <v>0.433</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4283</v>
+        <v>0.4331</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4287</v>
+        <v>0.4331</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4283</v>
+        <v>0.433</v>
       </c>
       <c r="F139" t="n">
-        <v>2250730.327</v>
+        <v>2990397.13850344</v>
       </c>
       <c r="G139" t="n">
-        <v>60685647.82688814</v>
+        <v>51646915.37239108</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5442,28 +5426,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4283</v>
+        <v>0.4328</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4283</v>
+        <v>0.4328</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4283</v>
+        <v>0.4328</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4283</v>
+        <v>0.4328</v>
       </c>
       <c r="F140" t="n">
-        <v>4952.291</v>
+        <v>1835.4654</v>
       </c>
       <c r="G140" t="n">
-        <v>60685647.82688814</v>
+        <v>51645079.90699108</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5478,28 +5462,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4283</v>
+        <v>0.4331</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4281</v>
+        <v>0.4332</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4283</v>
+        <v>0.4332</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4281</v>
+        <v>0.4331</v>
       </c>
       <c r="F141" t="n">
-        <v>7776120.082</v>
+        <v>2246825.8142</v>
       </c>
       <c r="G141" t="n">
-        <v>52909527.74488813</v>
+        <v>53891905.72119108</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5514,28 +5498,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.428</v>
+        <v>0.4333</v>
       </c>
       <c r="C142" t="n">
-        <v>0.428</v>
+        <v>0.4333</v>
       </c>
       <c r="D142" t="n">
-        <v>0.428</v>
+        <v>0.4333</v>
       </c>
       <c r="E142" t="n">
-        <v>0.428</v>
+        <v>0.4333</v>
       </c>
       <c r="F142" t="n">
-        <v>900353.8795</v>
+        <v>1637.0635</v>
       </c>
       <c r="G142" t="n">
-        <v>52009173.86538813</v>
+        <v>53893542.78469108</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5550,28 +5534,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4281</v>
+        <v>0.4333</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4281</v>
+        <v>0.4333</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4281</v>
+        <v>0.4333</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4281</v>
+        <v>0.4333</v>
       </c>
       <c r="F143" t="n">
-        <v>920453.2505</v>
+        <v>2059</v>
       </c>
       <c r="G143" t="n">
-        <v>52929627.11588813</v>
+        <v>53893542.78469108</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5586,28 +5570,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4281</v>
+        <v>0.4333</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4281</v>
+        <v>0.4333</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4281</v>
+        <v>0.4333</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4281</v>
+        <v>0.4306</v>
       </c>
       <c r="F144" t="n">
-        <v>499999.9999</v>
+        <v>7624302.1063</v>
       </c>
       <c r="G144" t="n">
-        <v>52929627.11588813</v>
+        <v>53893542.78469108</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5622,28 +5606,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.428</v>
+        <v>0.4314</v>
       </c>
       <c r="C145" t="n">
-        <v>0.428</v>
+        <v>0.4306</v>
       </c>
       <c r="D145" t="n">
-        <v>0.428</v>
+        <v>0.4314</v>
       </c>
       <c r="E145" t="n">
-        <v>0.428</v>
+        <v>0.4306</v>
       </c>
       <c r="F145" t="n">
-        <v>531914.8936</v>
+        <v>3775100.3172</v>
       </c>
       <c r="G145" t="n">
-        <v>52397712.22228813</v>
+        <v>50118442.46749108</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5658,28 +5642,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.428</v>
+        <v>0.4306</v>
       </c>
       <c r="C146" t="n">
-        <v>0.428</v>
+        <v>0.4333</v>
       </c>
       <c r="D146" t="n">
-        <v>0.428</v>
+        <v>0.4333</v>
       </c>
       <c r="E146" t="n">
-        <v>0.428</v>
+        <v>0.4306</v>
       </c>
       <c r="F146" t="n">
-        <v>670858.5672</v>
+        <v>1889306.0992</v>
       </c>
       <c r="G146" t="n">
-        <v>52397712.22228813</v>
+        <v>52007748.56669109</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5694,22 +5678,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.428</v>
+        <v>0.433</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4281</v>
+        <v>0.433</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4281</v>
+        <v>0.433</v>
       </c>
       <c r="E147" t="n">
-        <v>0.428</v>
+        <v>0.433</v>
       </c>
       <c r="F147" t="n">
-        <v>5563421.0435</v>
+        <v>1200</v>
       </c>
       <c r="G147" t="n">
-        <v>57961133.26578813</v>
+        <v>52006548.56669109</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5730,22 +5714,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4311</v>
+        <v>0.4305</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4311</v>
+        <v>0.4305</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4311</v>
+        <v>0.4305</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4311</v>
+        <v>0.4305</v>
       </c>
       <c r="F148" t="n">
-        <v>6900</v>
+        <v>14447.6098</v>
       </c>
       <c r="G148" t="n">
-        <v>57968033.26578813</v>
+        <v>51992100.95689108</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5766,22 +5750,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.4311</v>
+        <v>0.4325</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4311</v>
+        <v>0.4325</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4311</v>
+        <v>0.4325</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4311</v>
+        <v>0.4325</v>
       </c>
       <c r="F149" t="n">
-        <v>462770.6308</v>
+        <v>1167.6301</v>
       </c>
       <c r="G149" t="n">
-        <v>57968033.26578813</v>
+        <v>51993268.58699108</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5802,28 +5786,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4308</v>
+        <v>0.4325</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4308</v>
+        <v>0.4325</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4308</v>
+        <v>0.4325</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4308</v>
+        <v>0.4325</v>
       </c>
       <c r="F150" t="n">
-        <v>2000.0803</v>
+        <v>2127576.0886</v>
       </c>
       <c r="G150" t="n">
-        <v>57966033.18548813</v>
+        <v>51993268.58699108</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5838,28 +5822,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4303</v>
+        <v>0.4325</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4303</v>
+        <v>0.4325</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4303</v>
+        <v>0.4325</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4303</v>
+        <v>0.4325</v>
       </c>
       <c r="F151" t="n">
-        <v>100730.6681</v>
+        <v>12606.772</v>
       </c>
       <c r="G151" t="n">
-        <v>57865302.51738813</v>
+        <v>51993268.58699108</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5874,28 +5858,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4279</v>
+        <v>0.4325</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4279</v>
+        <v>0.433</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4279</v>
+        <v>0.433</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4279</v>
+        <v>0.4325</v>
       </c>
       <c r="F152" t="n">
-        <v>684341.0649</v>
+        <v>550838.9401</v>
       </c>
       <c r="G152" t="n">
-        <v>57180961.45248812</v>
+        <v>52544107.52709108</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5910,28 +5894,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4278</v>
+        <v>0.433</v>
       </c>
       <c r="C153" t="n">
-        <v>0.422</v>
+        <v>0.433</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4278</v>
+        <v>0.433</v>
       </c>
       <c r="E153" t="n">
-        <v>0.422</v>
+        <v>0.433</v>
       </c>
       <c r="F153" t="n">
-        <v>15275354.3815</v>
+        <v>663951.6218</v>
       </c>
       <c r="G153" t="n">
-        <v>41905607.07098813</v>
+        <v>52544107.52709108</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5946,28 +5930,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4231</v>
+        <v>0.433</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4231</v>
+        <v>0.433</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4231</v>
+        <v>0.433</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4231</v>
+        <v>0.433</v>
       </c>
       <c r="F154" t="n">
-        <v>1605744.0792</v>
+        <v>3112788.4735</v>
       </c>
       <c r="G154" t="n">
-        <v>43511351.15018813</v>
+        <v>52544107.52709108</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5982,28 +5966,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4299</v>
+        <v>0.433</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4299</v>
+        <v>0.433</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4299</v>
+        <v>0.433</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4299</v>
+        <v>0.433</v>
       </c>
       <c r="F155" t="n">
-        <v>31039.3822</v>
+        <v>3259491.8475</v>
       </c>
       <c r="G155" t="n">
-        <v>43542390.53238813</v>
+        <v>52544107.52709108</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6018,28 +6002,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4234</v>
+        <v>0.433</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4234</v>
+        <v>0.4333</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4234</v>
+        <v>0.4333</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4234</v>
+        <v>0.433</v>
       </c>
       <c r="F156" t="n">
-        <v>1153718.1924</v>
+        <v>911600.0273</v>
       </c>
       <c r="G156" t="n">
-        <v>42388672.33998813</v>
+        <v>53455707.55439108</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6054,28 +6038,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4234</v>
+        <v>0.4333</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4234</v>
+        <v>0.4337</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4234</v>
+        <v>0.4337</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4234</v>
+        <v>0.4333</v>
       </c>
       <c r="F157" t="n">
-        <v>1000000</v>
+        <v>23057.41305826</v>
       </c>
       <c r="G157" t="n">
-        <v>42388672.33998813</v>
+        <v>53478764.96744934</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6090,28 +6074,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4234</v>
+        <v>0.4333</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4234</v>
+        <v>0.4333</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4292</v>
+        <v>0.4333</v>
       </c>
       <c r="E158" t="n">
-        <v>0.4234</v>
+        <v>0.4333</v>
       </c>
       <c r="F158" t="n">
-        <v>3512585.9359</v>
+        <v>496995.4756</v>
       </c>
       <c r="G158" t="n">
-        <v>42388672.33998813</v>
+        <v>52981769.49184934</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6126,28 +6110,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.4233</v>
+        <v>0.4337</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4233</v>
+        <v>0.4337</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4233</v>
+        <v>0.4337</v>
       </c>
       <c r="E159" t="n">
-        <v>0.4233</v>
+        <v>0.4337</v>
       </c>
       <c r="F159" t="n">
-        <v>239323.3012</v>
+        <v>4012.0334</v>
       </c>
       <c r="G159" t="n">
-        <v>42149349.03878812</v>
+        <v>52985781.52524934</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6162,28 +6146,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4233</v>
+        <v>0.4337</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4279</v>
+        <v>0.4337</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4279</v>
+        <v>0.4337</v>
       </c>
       <c r="E160" t="n">
-        <v>0.4231</v>
+        <v>0.4337</v>
       </c>
       <c r="F160" t="n">
-        <v>4276368.71668672</v>
+        <v>123753.1259</v>
       </c>
       <c r="G160" t="n">
-        <v>46425717.75547484</v>
+        <v>52985781.52524934</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6198,28 +6182,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4232</v>
+        <v>0.4337</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4232</v>
+        <v>0.4338</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4232</v>
+        <v>0.4338</v>
       </c>
       <c r="E161" t="n">
-        <v>0.4232</v>
+        <v>0.4337</v>
       </c>
       <c r="F161" t="n">
-        <v>732184.6841</v>
+        <v>1200000</v>
       </c>
       <c r="G161" t="n">
-        <v>45693533.07137484</v>
+        <v>54185781.52524934</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6234,28 +6218,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4231</v>
+        <v>0.4338</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4231</v>
+        <v>0.4352</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4231</v>
+        <v>0.4352</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4231</v>
+        <v>0.4306</v>
       </c>
       <c r="F162" t="n">
-        <v>114916.1112</v>
+        <v>5512123.5981</v>
       </c>
       <c r="G162" t="n">
-        <v>45578616.96017484</v>
+        <v>59697905.12334934</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6270,28 +6254,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4275</v>
+        <v>0.4307</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4275</v>
+        <v>0.435</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4275</v>
+        <v>0.435</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4275</v>
+        <v>0.4307</v>
       </c>
       <c r="F163" t="n">
-        <v>6996.49122807</v>
+        <v>1003730.5194</v>
       </c>
       <c r="G163" t="n">
-        <v>45585613.45140291</v>
+        <v>58694174.60394934</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6306,28 +6290,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.4275</v>
+        <v>0.435</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4275</v>
+        <v>0.435</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4275</v>
+        <v>0.435</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4275</v>
+        <v>0.435</v>
       </c>
       <c r="F164" t="n">
-        <v>5000</v>
+        <v>1597.7986</v>
       </c>
       <c r="G164" t="n">
-        <v>45585613.45140291</v>
+        <v>58694174.60394934</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6342,28 +6326,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4273</v>
+        <v>0.435</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4273</v>
+        <v>0.435</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4273</v>
+        <v>0.435</v>
       </c>
       <c r="E165" t="n">
-        <v>0.4273</v>
+        <v>0.435</v>
       </c>
       <c r="F165" t="n">
-        <v>84131.2393</v>
+        <v>5082.4891</v>
       </c>
       <c r="G165" t="n">
-        <v>45501482.21210291</v>
+        <v>58694174.60394934</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6378,28 +6362,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4232</v>
+        <v>0.435</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4232</v>
+        <v>0.435</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4232</v>
+        <v>0.435</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4232</v>
+        <v>0.435</v>
       </c>
       <c r="F166" t="n">
-        <v>103997.2525</v>
+        <v>4401001.3982</v>
       </c>
       <c r="G166" t="n">
-        <v>45397484.95960291</v>
+        <v>58694174.60394934</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6414,28 +6398,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4232</v>
+        <v>0.435</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4232</v>
+        <v>0.435</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4232</v>
+        <v>0.435</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4232</v>
+        <v>0.435</v>
       </c>
       <c r="F167" t="n">
-        <v>1134600.9356</v>
+        <v>238898.3466</v>
       </c>
       <c r="G167" t="n">
-        <v>45397484.95960291</v>
+        <v>58694174.60394934</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6450,28 +6434,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4233</v>
+        <v>0.4351</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4233</v>
+        <v>0.4351</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4233</v>
+        <v>0.4351</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4233</v>
+        <v>0.4351</v>
       </c>
       <c r="F168" t="n">
-        <v>4639899.7448</v>
+        <v>114916.11123879</v>
       </c>
       <c r="G168" t="n">
-        <v>50037384.70440292</v>
+        <v>58809090.71518813</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6486,28 +6470,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4223</v>
+        <v>0.4351</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4269</v>
+        <v>0.4351</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4269</v>
+        <v>0.4351</v>
       </c>
       <c r="E169" t="n">
-        <v>0.4223</v>
+        <v>0.4351</v>
       </c>
       <c r="F169" t="n">
-        <v>3912658.8845</v>
+        <v>9168.528899999999</v>
       </c>
       <c r="G169" t="n">
-        <v>53950043.58890291</v>
+        <v>58809090.71518813</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6522,28 +6506,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4267</v>
+        <v>0.4351</v>
       </c>
       <c r="E170" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="F170" t="n">
-        <v>56926.601</v>
+        <v>1280256.1778</v>
       </c>
       <c r="G170" t="n">
-        <v>53893116.98790291</v>
+        <v>57528834.53738813</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6558,28 +6542,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4269</v>
+        <v>0.4312</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4269</v>
+        <v>0.4312</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4269</v>
+        <v>0.4312</v>
       </c>
       <c r="E171" t="n">
-        <v>0.4269</v>
+        <v>0.4312</v>
       </c>
       <c r="F171" t="n">
-        <v>502994.0729</v>
+        <v>1000000</v>
       </c>
       <c r="G171" t="n">
-        <v>54396111.06080291</v>
+        <v>56528834.53738813</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6594,28 +6578,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4268</v>
+        <v>0.435</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4268</v>
+        <v>0.435</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4268</v>
+        <v>0.435</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4268</v>
+        <v>0.435</v>
       </c>
       <c r="F172" t="n">
-        <v>153068.1342</v>
+        <v>1169.8461</v>
       </c>
       <c r="G172" t="n">
-        <v>54243042.92660291</v>
+        <v>56530004.38348813</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -6630,28 +6614,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4268</v>
+        <v>0.435</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4268</v>
+        <v>0.435</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4268</v>
+        <v>0.435</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4268</v>
+        <v>0.435</v>
       </c>
       <c r="F173" t="n">
-        <v>3108548.5644</v>
+        <v>135356.2989</v>
       </c>
       <c r="G173" t="n">
-        <v>54243042.92660291</v>
+        <v>56530004.38348813</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -6666,28 +6650,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="E174" t="n">
-        <v>0.4266</v>
+        <v>0.435</v>
       </c>
       <c r="F174" t="n">
-        <v>2355208.4641</v>
+        <v>2408416.9117</v>
       </c>
       <c r="G174" t="n">
-        <v>51887834.4625029</v>
+        <v>56530004.38348813</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6702,28 +6686,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="C175" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="E175" t="n">
-        <v>0.4267</v>
+        <v>0.435</v>
       </c>
       <c r="F175" t="n">
-        <v>1063232.1882</v>
+        <v>688782.5035</v>
       </c>
       <c r="G175" t="n">
-        <v>51887834.4625029</v>
+        <v>56530004.38348813</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -6738,28 +6722,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4267</v>
+        <v>0.4345</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4267</v>
+        <v>0.4345</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4267</v>
+        <v>0.4345</v>
       </c>
       <c r="E176" t="n">
-        <v>0.4267</v>
+        <v>0.4345</v>
       </c>
       <c r="F176" t="n">
-        <v>1024270.9145</v>
+        <v>1000000</v>
       </c>
       <c r="G176" t="n">
-        <v>51887834.4625029</v>
+        <v>55530004.38348813</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -6774,22 +6758,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4267</v>
+        <v>0.4338</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4267</v>
+        <v>0.4321</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4267</v>
+        <v>0.4338</v>
       </c>
       <c r="E177" t="n">
-        <v>0.4267</v>
+        <v>0.4321</v>
       </c>
       <c r="F177" t="n">
-        <v>1451578.869</v>
+        <v>2000325.8489</v>
       </c>
       <c r="G177" t="n">
-        <v>51887834.4625029</v>
+        <v>53529678.53458814</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6810,22 +6794,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="F178" t="n">
-        <v>809788</v>
+        <v>61703.3761</v>
       </c>
       <c r="G178" t="n">
-        <v>51887834.4625029</v>
+        <v>53467975.15848813</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6846,22 +6830,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4267</v>
+        <v>0.4321</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4267</v>
+        <v>0.4321</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4267</v>
+        <v>0.4321</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4267</v>
+        <v>0.4321</v>
       </c>
       <c r="F179" t="n">
-        <v>121242.891</v>
+        <v>422019.7438</v>
       </c>
       <c r="G179" t="n">
-        <v>51887834.4625029</v>
+        <v>53889994.90228813</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6882,22 +6866,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="F180" t="n">
-        <v>484260.3828</v>
+        <v>7190.6272</v>
       </c>
       <c r="G180" t="n">
-        <v>51887834.4625029</v>
+        <v>53882804.27508813</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6918,22 +6902,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4267</v>
+        <v>0.432</v>
       </c>
       <c r="F181" t="n">
-        <v>145945.355</v>
+        <v>219730.557</v>
       </c>
       <c r="G181" t="n">
-        <v>51887834.4625029</v>
+        <v>53882804.27508813</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6954,22 +6938,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4238</v>
+        <v>0.432</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4238</v>
+        <v>0.432</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4238</v>
+        <v>0.432</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4238</v>
+        <v>0.432</v>
       </c>
       <c r="F182" t="n">
-        <v>35000</v>
+        <v>1460822.8053</v>
       </c>
       <c r="G182" t="n">
-        <v>51852834.4625029</v>
+        <v>53882804.27508813</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6990,22 +6974,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4238</v>
+        <v>0.4321</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4238</v>
+        <v>0.4321</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4238</v>
+        <v>0.4321</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4238</v>
+        <v>0.4321</v>
       </c>
       <c r="F183" t="n">
-        <v>14000</v>
+        <v>118242.5104</v>
       </c>
       <c r="G183" t="n">
-        <v>51852834.4625029</v>
+        <v>54001046.78548813</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7026,22 +7010,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4238</v>
+        <v>0.4321</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4238</v>
+        <v>0.4316</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4238</v>
+        <v>0.4321</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4238</v>
+        <v>0.4316</v>
       </c>
       <c r="F184" t="n">
-        <v>21372.903</v>
+        <v>3432441.3536</v>
       </c>
       <c r="G184" t="n">
-        <v>51852834.4625029</v>
+        <v>50568605.43188813</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7062,22 +7046,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4267</v>
+        <v>0.4334</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4267</v>
+        <v>0.4334</v>
       </c>
       <c r="D185" t="n">
-        <v>0.4267</v>
+        <v>0.4334</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4267</v>
+        <v>0.4334</v>
       </c>
       <c r="F185" t="n">
-        <v>5113.9706</v>
+        <v>2860.6914</v>
       </c>
       <c r="G185" t="n">
-        <v>51857948.43310291</v>
+        <v>50571466.12328812</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7098,22 +7082,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4238</v>
+        <v>0.4316</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4238</v>
+        <v>0.4315</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4238</v>
+        <v>0.4316</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4238</v>
+        <v>0.4315</v>
       </c>
       <c r="F186" t="n">
-        <v>178961.9221</v>
+        <v>1045453</v>
       </c>
       <c r="G186" t="n">
-        <v>51678986.51100291</v>
+        <v>49526013.12328812</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7134,22 +7118,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4267</v>
+        <v>0.4317</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4267</v>
+        <v>0.4332</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4267</v>
+        <v>0.4332</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4267</v>
+        <v>0.4317</v>
       </c>
       <c r="F187" t="n">
-        <v>5000000</v>
+        <v>15070.4955</v>
       </c>
       <c r="G187" t="n">
-        <v>56678986.51100291</v>
+        <v>49541083.61878812</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7170,22 +7154,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4267</v>
+        <v>0.4315</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4267</v>
+        <v>0.4315</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4267</v>
+        <v>0.4315</v>
       </c>
       <c r="E188" t="n">
-        <v>0.4267</v>
+        <v>0.4315</v>
       </c>
       <c r="F188" t="n">
-        <v>3504.2461</v>
+        <v>933434.1218</v>
       </c>
       <c r="G188" t="n">
-        <v>56678986.51100291</v>
+        <v>48607649.49698813</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7206,22 +7190,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.4267</v>
+        <v>0.4314</v>
       </c>
       <c r="C189" t="n">
-        <v>0.4238</v>
+        <v>0.431</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4267</v>
+        <v>0.4314</v>
       </c>
       <c r="E189" t="n">
-        <v>0.4238</v>
+        <v>0.431</v>
       </c>
       <c r="F189" t="n">
-        <v>167605.9079</v>
+        <v>4316333.1848</v>
       </c>
       <c r="G189" t="n">
-        <v>56511380.60310291</v>
+        <v>44291316.31218813</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7242,22 +7226,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4238</v>
+        <v>0.431</v>
       </c>
       <c r="C190" t="n">
-        <v>0.4267</v>
+        <v>0.431</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4267</v>
+        <v>0.431</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4238</v>
+        <v>0.431</v>
       </c>
       <c r="F190" t="n">
-        <v>98111.2896</v>
+        <v>2468997.1718</v>
       </c>
       <c r="G190" t="n">
-        <v>56609491.89270291</v>
+        <v>44291316.31218813</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7278,22 +7262,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4267</v>
+        <v>0.431</v>
       </c>
       <c r="C191" t="n">
-        <v>0.4267</v>
+        <v>0.431</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4267</v>
+        <v>0.431</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4267</v>
+        <v>0.431</v>
       </c>
       <c r="F191" t="n">
-        <v>1439224.8813</v>
+        <v>3677.1277</v>
       </c>
       <c r="G191" t="n">
-        <v>56609491.89270291</v>
+        <v>44291316.31218813</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7314,22 +7298,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4239</v>
+        <v>0.431</v>
       </c>
       <c r="C192" t="n">
-        <v>0.4239</v>
+        <v>0.4326</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4239</v>
+        <v>0.4326</v>
       </c>
       <c r="E192" t="n">
-        <v>0.4239</v>
+        <v>0.4279</v>
       </c>
       <c r="F192" t="n">
-        <v>1462607.606</v>
+        <v>19357179.6184</v>
       </c>
       <c r="G192" t="n">
-        <v>55146884.28670291</v>
+        <v>63648495.93058813</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7350,22 +7334,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4238</v>
+        <v>0.4293</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4238</v>
+        <v>0.4293</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4238</v>
+        <v>0.4293</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4238</v>
+        <v>0.4293</v>
       </c>
       <c r="F193" t="n">
-        <v>56474.6734</v>
+        <v>425565.8496</v>
       </c>
       <c r="G193" t="n">
-        <v>55090409.61330291</v>
+        <v>63222930.08098812</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7386,28 +7370,28 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4239</v>
+        <v>0.429</v>
       </c>
       <c r="C194" t="n">
-        <v>0.4239</v>
+        <v>0.429</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4239</v>
+        <v>0.429</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4239</v>
+        <v>0.429</v>
       </c>
       <c r="F194" t="n">
-        <v>162697.2745</v>
+        <v>2970178.8772</v>
       </c>
       <c r="G194" t="n">
-        <v>55253106.88780291</v>
+        <v>60252751.20378812</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -7422,28 +7406,28 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4239</v>
+        <v>0.4296</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4239</v>
+        <v>0.4296</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4239</v>
+        <v>0.4296</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4239</v>
+        <v>0.4296</v>
       </c>
       <c r="F195" t="n">
-        <v>2408416.9117</v>
+        <v>5086773.1005</v>
       </c>
       <c r="G195" t="n">
-        <v>55253106.88780291</v>
+        <v>65339524.30428813</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7458,28 +7442,28 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4239</v>
+        <v>0.43</v>
       </c>
       <c r="C196" t="n">
-        <v>0.4239</v>
+        <v>0.43</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4239</v>
+        <v>0.43</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4239</v>
+        <v>0.43</v>
       </c>
       <c r="F196" t="n">
-        <v>365082.321</v>
+        <v>5229.1471</v>
       </c>
       <c r="G196" t="n">
-        <v>55253106.88780291</v>
+        <v>65344753.45138813</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -7494,28 +7478,28 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.4239</v>
+        <v>0.4325</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4239</v>
+        <v>0.4325</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4239</v>
+        <v>0.4325</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4239</v>
+        <v>0.4325</v>
       </c>
       <c r="F197" t="n">
-        <v>899428.9614</v>
+        <v>2823.1022</v>
       </c>
       <c r="G197" t="n">
-        <v>55253106.88780291</v>
+        <v>65347576.55358813</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -7530,28 +7514,28 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4267</v>
+        <v>0.4324</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4271</v>
+        <v>0.4324</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4271</v>
+        <v>0.4324</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4267</v>
+        <v>0.4324</v>
       </c>
       <c r="F198" t="n">
-        <v>224276.0093</v>
+        <v>3070.4921</v>
       </c>
       <c r="G198" t="n">
-        <v>55477382.89710291</v>
+        <v>65344506.06148813</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -7566,28 +7550,28 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4271</v>
+        <v>0.43</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4272</v>
+        <v>0.43</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4272</v>
+        <v>0.43</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4271</v>
+        <v>0.43</v>
       </c>
       <c r="F199" t="n">
-        <v>283624.7328</v>
+        <v>70470.2151</v>
       </c>
       <c r="G199" t="n">
-        <v>55761007.62990291</v>
+        <v>65274035.84638813</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -7602,28 +7586,28 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4272</v>
+        <v>0.43</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4272</v>
+        <v>0.43</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4272</v>
+        <v>0.43</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4272</v>
+        <v>0.43</v>
       </c>
       <c r="F200" t="n">
-        <v>2878085.9648</v>
+        <v>110367.4102</v>
       </c>
       <c r="G200" t="n">
-        <v>55761007.62990291</v>
+        <v>65274035.84638813</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -7638,28 +7622,28 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.424</v>
+        <v>0.43</v>
       </c>
       <c r="C201" t="n">
-        <v>0.424</v>
+        <v>0.43</v>
       </c>
       <c r="D201" t="n">
-        <v>0.424</v>
+        <v>0.43</v>
       </c>
       <c r="E201" t="n">
-        <v>0.424</v>
+        <v>0.43</v>
       </c>
       <c r="F201" t="n">
-        <v>2030562.3956</v>
+        <v>1863448.9606</v>
       </c>
       <c r="G201" t="n">
-        <v>53730445.23430291</v>
+        <v>65274035.84638813</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -7674,28 +7658,28 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.428</v>
+        <v>0.4295</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4281</v>
+        <v>0.4295</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4281</v>
+        <v>0.4295</v>
       </c>
       <c r="E202" t="n">
-        <v>0.428</v>
+        <v>0.4295</v>
       </c>
       <c r="F202" t="n">
-        <v>6047546.5084</v>
+        <v>1763867.8037</v>
       </c>
       <c r="G202" t="n">
-        <v>59777991.74270291</v>
+        <v>63510168.04268813</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -7710,28 +7694,28 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.4306</v>
+        <v>0.4322</v>
       </c>
       <c r="C203" t="n">
-        <v>0.4279</v>
+        <v>0.4322</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4306</v>
+        <v>0.4322</v>
       </c>
       <c r="E203" t="n">
-        <v>0.4279</v>
+        <v>0.4322</v>
       </c>
       <c r="F203" t="n">
-        <v>2061695.83059647</v>
+        <v>1172.8072</v>
       </c>
       <c r="G203" t="n">
-        <v>57716295.91210644</v>
+        <v>63511340.84988813</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -7746,28 +7730,28 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4279</v>
+        <v>0.4322</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4278</v>
+        <v>0.4296</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4279</v>
+        <v>0.4322</v>
       </c>
       <c r="E204" t="n">
-        <v>0.4278</v>
+        <v>0.4296</v>
       </c>
       <c r="F204" t="n">
-        <v>128260.5388</v>
+        <v>2360.0186</v>
       </c>
       <c r="G204" t="n">
-        <v>57588035.37330644</v>
+        <v>63508980.83128813</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -7782,28 +7766,28 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4278</v>
+        <v>0.4296</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4278</v>
+        <v>0.4296</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4278</v>
+        <v>0.4296</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4278</v>
+        <v>0.4296</v>
       </c>
       <c r="F205" t="n">
-        <v>9380596.5217</v>
+        <v>1558010.1017</v>
       </c>
       <c r="G205" t="n">
-        <v>57588035.37330644</v>
+        <v>63508980.83128813</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -7818,28 +7802,28 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.4249</v>
+        <v>0.4314</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4249</v>
+        <v>0.4314</v>
       </c>
       <c r="D206" t="n">
-        <v>0.4249</v>
+        <v>0.4314</v>
       </c>
       <c r="E206" t="n">
-        <v>0.4249</v>
+        <v>0.4314</v>
       </c>
       <c r="F206" t="n">
-        <v>9497228.855799999</v>
+        <v>23601.3813</v>
       </c>
       <c r="G206" t="n">
-        <v>48090806.51750644</v>
+        <v>63532582.21258813</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -7854,28 +7838,28 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.4305</v>
+        <v>0.4295</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4305</v>
+        <v>0.4295</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4305</v>
+        <v>0.4295</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4305</v>
+        <v>0.4295</v>
       </c>
       <c r="F207" t="n">
-        <v>2889.1997</v>
+        <v>119400.5329</v>
       </c>
       <c r="G207" t="n">
-        <v>48093695.71720643</v>
+        <v>63413181.67968813</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -7890,28 +7874,28 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.425</v>
+        <v>0.4311</v>
       </c>
       <c r="C208" t="n">
-        <v>0.425</v>
+        <v>0.4311</v>
       </c>
       <c r="D208" t="n">
-        <v>0.425</v>
+        <v>0.4311</v>
       </c>
       <c r="E208" t="n">
-        <v>0.425</v>
+        <v>0.4311</v>
       </c>
       <c r="F208" t="n">
-        <v>14866.3341</v>
+        <v>23196.4742</v>
       </c>
       <c r="G208" t="n">
-        <v>48078829.38310643</v>
+        <v>63436378.15388814</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -7926,28 +7910,28 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4285</v>
+        <v>0.4288</v>
       </c>
       <c r="C209" t="n">
-        <v>0.4252</v>
+        <v>0.4288</v>
       </c>
       <c r="D209" t="n">
-        <v>0.4285</v>
+        <v>0.4288</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4252</v>
+        <v>0.4288</v>
       </c>
       <c r="F209" t="n">
-        <v>7500</v>
+        <v>500000</v>
       </c>
       <c r="G209" t="n">
-        <v>48086329.38310643</v>
+        <v>62936378.15388814</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -7957,6 +7941,2562 @@
       </c>
       <c r="N209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2250730.327</v>
+      </c>
+      <c r="G210" t="n">
+        <v>60685647.82688814</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4952.291</v>
+      </c>
+      <c r="G211" t="n">
+        <v>60685647.82688814</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7776120.082</v>
+      </c>
+      <c r="G212" t="n">
+        <v>52909527.74488813</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F213" t="n">
+        <v>900353.8795</v>
+      </c>
+      <c r="G213" t="n">
+        <v>52009173.86538813</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="F214" t="n">
+        <v>920453.2505</v>
+      </c>
+      <c r="G214" t="n">
+        <v>52929627.11588813</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="F215" t="n">
+        <v>499999.9999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>52929627.11588813</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F216" t="n">
+        <v>531914.8936</v>
+      </c>
+      <c r="G216" t="n">
+        <v>52397712.22228813</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F217" t="n">
+        <v>670858.5672</v>
+      </c>
+      <c r="G217" t="n">
+        <v>52397712.22228813</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5563421.0435</v>
+      </c>
+      <c r="G218" t="n">
+        <v>57961133.26578813</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.4311</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.4311</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.4311</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.4311</v>
+      </c>
+      <c r="F219" t="n">
+        <v>6900</v>
+      </c>
+      <c r="G219" t="n">
+        <v>57968033.26578813</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.4311</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.4311</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.4311</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.4311</v>
+      </c>
+      <c r="F220" t="n">
+        <v>462770.6308</v>
+      </c>
+      <c r="G220" t="n">
+        <v>57968033.26578813</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.4308</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.4308</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.4308</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.4308</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2000.0803</v>
+      </c>
+      <c r="G221" t="n">
+        <v>57966033.18548813</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.4303</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.4303</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.4303</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.4303</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100730.6681</v>
+      </c>
+      <c r="G222" t="n">
+        <v>57865302.51738813</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="F223" t="n">
+        <v>684341.0649</v>
+      </c>
+      <c r="G223" t="n">
+        <v>57180961.45248812</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="F224" t="n">
+        <v>15275354.3815</v>
+      </c>
+      <c r="G224" t="n">
+        <v>41905607.07098813</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1605744.0792</v>
+      </c>
+      <c r="G225" t="n">
+        <v>43511351.15018813</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.4299</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.4299</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.4299</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.4299</v>
+      </c>
+      <c r="F226" t="n">
+        <v>31039.3822</v>
+      </c>
+      <c r="G226" t="n">
+        <v>43542390.53238813</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1153718.1924</v>
+      </c>
+      <c r="G227" t="n">
+        <v>42388672.33998813</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G228" t="n">
+        <v>42388672.33998813</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4292</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="F229" t="n">
+        <v>3512585.9359</v>
+      </c>
+      <c r="G229" t="n">
+        <v>42388672.33998813</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F230" t="n">
+        <v>239323.3012</v>
+      </c>
+      <c r="G230" t="n">
+        <v>42149349.03878812</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="F231" t="n">
+        <v>4276368.71668672</v>
+      </c>
+      <c r="G231" t="n">
+        <v>46425717.75547484</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F232" t="n">
+        <v>732184.6841</v>
+      </c>
+      <c r="G232" t="n">
+        <v>45693533.07137484</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="F233" t="n">
+        <v>114916.1112</v>
+      </c>
+      <c r="G233" t="n">
+        <v>45578616.96017484</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="F234" t="n">
+        <v>6996.49122807</v>
+      </c>
+      <c r="G234" t="n">
+        <v>45585613.45140291</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="F235" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>45585613.45140291</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.4273</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.4273</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.4273</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.4273</v>
+      </c>
+      <c r="F236" t="n">
+        <v>84131.2393</v>
+      </c>
+      <c r="G236" t="n">
+        <v>45501482.21210291</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F237" t="n">
+        <v>103997.2525</v>
+      </c>
+      <c r="G237" t="n">
+        <v>45397484.95960291</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1134600.9356</v>
+      </c>
+      <c r="G238" t="n">
+        <v>45397484.95960291</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F239" t="n">
+        <v>4639899.7448</v>
+      </c>
+      <c r="G239" t="n">
+        <v>50037384.70440292</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.4223</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.4223</v>
+      </c>
+      <c r="F240" t="n">
+        <v>3912658.8845</v>
+      </c>
+      <c r="G240" t="n">
+        <v>53950043.58890291</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F241" t="n">
+        <v>56926.601</v>
+      </c>
+      <c r="G241" t="n">
+        <v>53893116.98790291</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="F242" t="n">
+        <v>502994.0729</v>
+      </c>
+      <c r="G242" t="n">
+        <v>54396111.06080291</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="F243" t="n">
+        <v>153068.1342</v>
+      </c>
+      <c r="G243" t="n">
+        <v>54243042.92660291</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="F244" t="n">
+        <v>3108548.5644</v>
+      </c>
+      <c r="G244" t="n">
+        <v>54243042.92660291</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.4266</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2355208.4641</v>
+      </c>
+      <c r="G245" t="n">
+        <v>51887834.4625029</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1063232.1882</v>
+      </c>
+      <c r="G246" t="n">
+        <v>51887834.4625029</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1024270.9145</v>
+      </c>
+      <c r="G247" t="n">
+        <v>51887834.4625029</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1451578.869</v>
+      </c>
+      <c r="G248" t="n">
+        <v>51887834.4625029</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F249" t="n">
+        <v>809788</v>
+      </c>
+      <c r="G249" t="n">
+        <v>51887834.4625029</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F250" t="n">
+        <v>121242.891</v>
+      </c>
+      <c r="G250" t="n">
+        <v>51887834.4625029</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F251" t="n">
+        <v>484260.3828</v>
+      </c>
+      <c r="G251" t="n">
+        <v>51887834.4625029</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F252" t="n">
+        <v>145945.355</v>
+      </c>
+      <c r="G252" t="n">
+        <v>51887834.4625029</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F253" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>51852834.4625029</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F254" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>51852834.4625029</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F255" t="n">
+        <v>21372.903</v>
+      </c>
+      <c r="G255" t="n">
+        <v>51852834.4625029</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F256" t="n">
+        <v>5113.9706</v>
+      </c>
+      <c r="G256" t="n">
+        <v>51857948.43310291</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F257" t="n">
+        <v>178961.9221</v>
+      </c>
+      <c r="G257" t="n">
+        <v>51678986.51100291</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F258" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G258" t="n">
+        <v>56678986.51100291</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3504.2461</v>
+      </c>
+      <c r="G259" t="n">
+        <v>56678986.51100291</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F260" t="n">
+        <v>167605.9079</v>
+      </c>
+      <c r="G260" t="n">
+        <v>56511380.60310291</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F261" t="n">
+        <v>98111.2896</v>
+      </c>
+      <c r="G261" t="n">
+        <v>56609491.89270291</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1439224.8813</v>
+      </c>
+      <c r="G262" t="n">
+        <v>56609491.89270291</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1462607.606</v>
+      </c>
+      <c r="G263" t="n">
+        <v>55146884.28670291</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F264" t="n">
+        <v>56474.6734</v>
+      </c>
+      <c r="G264" t="n">
+        <v>55090409.61330291</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="F265" t="n">
+        <v>162697.2745</v>
+      </c>
+      <c r="G265" t="n">
+        <v>55253106.88780291</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2408416.9117</v>
+      </c>
+      <c r="G266" t="n">
+        <v>55253106.88780291</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="F267" t="n">
+        <v>365082.321</v>
+      </c>
+      <c r="G267" t="n">
+        <v>55253106.88780291</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="F268" t="n">
+        <v>899428.9614</v>
+      </c>
+      <c r="G268" t="n">
+        <v>55253106.88780291</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="F269" t="n">
+        <v>224276.0093</v>
+      </c>
+      <c r="G269" t="n">
+        <v>55477382.89710291</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="F270" t="n">
+        <v>283624.7328</v>
+      </c>
+      <c r="G270" t="n">
+        <v>55761007.62990291</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2878085.9648</v>
+      </c>
+      <c r="G271" t="n">
+        <v>55761007.62990291</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2030562.3956</v>
+      </c>
+      <c r="G272" t="n">
+        <v>53730445.23430291</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F273" t="n">
+        <v>6047546.5084</v>
+      </c>
+      <c r="G273" t="n">
+        <v>59777991.74270291</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2061695.83059647</v>
+      </c>
+      <c r="G274" t="n">
+        <v>57716295.91210644</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="F275" t="n">
+        <v>128260.5388</v>
+      </c>
+      <c r="G275" t="n">
+        <v>57588035.37330644</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="F276" t="n">
+        <v>9380596.5217</v>
+      </c>
+      <c r="G276" t="n">
+        <v>57588035.37330644</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="F277" t="n">
+        <v>9497228.855799999</v>
+      </c>
+      <c r="G277" t="n">
+        <v>48090806.51750644</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2889.1997</v>
+      </c>
+      <c r="G278" t="n">
+        <v>48093695.71720643</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F279" t="n">
+        <v>14866.3341</v>
+      </c>
+      <c r="G279" t="n">
+        <v>48078829.38310643</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.4252</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.4252</v>
+      </c>
+      <c r="F280" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G280" t="n">
+        <v>48086329.38310643</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest BTT.xlsx
+++ b/BackTest/2020-01-23 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N280"/>
+  <dimension ref="A1:M280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>53550806.89214081</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>65719202.88704081</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.4161</v>
       </c>
       <c r="J3" t="n">
         <v>0.4161</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>65725360.59064081</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.4215</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.4161</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +560,23 @@
         <v>65725360.59064081</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4219</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K5" t="n">
         <v>0.4161</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,18 +601,19 @@
         <v>65726591.0901408</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0.4219</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4219</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,18 +638,23 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0.4248</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,16 +681,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,16 +720,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,16 +753,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -802,16 +786,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,16 +819,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -874,16 +852,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,16 +885,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -946,16 +918,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -982,16 +951,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,16 +984,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,16 +1017,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,16 +1050,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,16 +1083,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1162,16 +1116,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,16 +1149,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,16 +1182,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,16 +1215,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,16 +1248,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,16 +1281,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1378,16 +1314,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,16 +1347,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1450,16 +1380,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1413,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1522,16 +1446,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,16 +1479,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1594,16 +1512,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1630,16 +1545,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1666,16 +1578,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,16 +1611,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1738,16 +1644,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1774,16 +1677,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1810,16 +1710,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1846,16 +1743,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1882,16 +1776,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1918,16 +1809,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1954,16 +1842,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,16 +1875,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2026,16 +1908,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2062,16 +1941,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2098,16 +1974,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,16 +2007,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2170,16 +2040,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,16 +2073,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2242,16 +2106,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,16 +2139,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2312,18 +2170,15 @@
         <v>33431337.31374079</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2350,16 +2205,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2386,16 +2238,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2420,18 +2269,15 @@
         <v>33433781.60224079</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2456,18 +2302,15 @@
         <v>33435004.31804079</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,16 +2337,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2530,16 +2370,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2564,18 +2401,15 @@
         <v>32502448.66284079</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2600,18 +2434,15 @@
         <v>26159675.98384079</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2636,18 +2467,15 @@
         <v>34486223.69984079</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2674,16 +2502,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,18 +2533,15 @@
         <v>35371670.15718765</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2744,18 +2566,15 @@
         <v>35371670.15718765</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,16 +2601,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2818,16 +2634,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2854,16 +2667,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2890,16 +2700,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,16 +2733,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2962,16 +2766,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,18 +2797,15 @@
         <v>24057684.17168765</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3034,16 +2832,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3070,16 +2865,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3106,16 +2898,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3142,16 +2931,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3178,16 +2964,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,16 +2997,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3250,16 +3030,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3286,16 +3063,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3322,16 +3096,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3129,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3394,16 +3162,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3428,18 +3193,15 @@
         <v>27069625.50828765</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3466,16 +3228,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,16 +3261,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3538,16 +3294,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3574,16 +3327,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3610,16 +3360,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3646,16 +3393,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3682,16 +3426,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3718,16 +3459,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3754,16 +3492,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3790,16 +3525,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3826,16 +3558,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,16 +3591,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3898,16 +3624,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3934,16 +3657,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3970,16 +3690,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4006,16 +3723,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4042,16 +3756,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4076,18 +3787,15 @@
         <v>69214674.36838765</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4112,18 +3820,15 @@
         <v>69214674.36838765</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4148,18 +3853,15 @@
         <v>69160373.23818766</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4184,18 +3886,15 @@
         <v>69160373.23818766</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,18 +3919,15 @@
         <v>69686817.03868766</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4258,16 +3954,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4294,16 +3987,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4330,16 +4020,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4366,16 +4053,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4402,16 +4086,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4438,16 +4119,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4474,16 +4152,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4510,16 +4185,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4546,16 +4218,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4582,16 +4251,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4618,16 +4284,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,16 +4317,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4690,16 +4350,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,16 +4383,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4762,16 +4416,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4798,16 +4449,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4834,16 +4482,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4870,16 +4515,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4906,16 +4548,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4942,16 +4581,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4978,16 +4614,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5014,16 +4647,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5050,16 +4680,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5086,16 +4713,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5122,16 +4746,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5158,16 +4779,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5194,16 +4812,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5230,16 +4845,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5266,16 +4878,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5302,16 +4911,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5338,16 +4944,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5374,16 +4977,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5410,16 +5010,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5446,16 +5043,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5482,16 +5076,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5518,16 +5109,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5554,16 +5142,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5590,16 +5175,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5626,16 +5208,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5662,16 +5241,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5696,18 +5272,15 @@
         <v>52006548.56669109</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5732,18 +5305,15 @@
         <v>51992100.95689108</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5770,16 +5340,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5806,16 +5373,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5842,16 +5406,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5878,16 +5439,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5914,16 +5472,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5950,16 +5505,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5986,16 +5538,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6022,16 +5571,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6058,16 +5604,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6094,16 +5637,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6128,18 +5668,15 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6164,18 +5701,15 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6200,18 +5734,15 @@
         <v>54185781.52524934</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6236,18 +5767,15 @@
         <v>59697905.12334934</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6272,18 +5800,15 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6308,18 +5833,15 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6344,18 +5866,15 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6380,18 +5899,15 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6416,18 +5932,15 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6452,18 +5965,15 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6488,18 +5998,15 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6524,18 +6031,15 @@
         <v>57528834.53738813</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6560,18 +6064,15 @@
         <v>56528834.53738813</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6596,18 +6097,15 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6632,18 +6130,15 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6668,18 +6163,15 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6704,18 +6196,15 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6740,18 +6229,15 @@
         <v>55530004.38348813</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6776,18 +6262,15 @@
         <v>53529678.53458814</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6812,18 +6295,15 @@
         <v>53467975.15848813</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6848,18 +6328,15 @@
         <v>53889994.90228813</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6884,18 +6361,15 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6922,16 +6396,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6958,16 +6429,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6994,16 +6462,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7030,16 +6495,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7066,16 +6528,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7100,18 +6559,15 @@
         <v>49526013.12328812</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7136,18 +6592,15 @@
         <v>49541083.61878812</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7172,18 +6625,15 @@
         <v>48607649.49698813</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7208,18 +6658,15 @@
         <v>44291316.31218813</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7246,16 +6693,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7282,16 +6726,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7318,16 +6759,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7354,16 +6792,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7390,16 +6825,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7426,16 +6858,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7462,16 +6891,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7498,16 +6924,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7534,16 +6957,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7570,16 +6990,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7606,16 +7023,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7642,16 +7056,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7678,16 +7089,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7714,16 +7122,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7750,16 +7155,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7786,16 +7188,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7822,16 +7221,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7858,16 +7254,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7894,16 +7287,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7930,16 +7320,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7966,16 +7353,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8002,16 +7386,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8038,16 +7419,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8074,16 +7452,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8108,18 +7483,15 @@
         <v>52929627.11588813</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8146,16 +7518,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8180,18 +7549,15 @@
         <v>52397712.22228813</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8216,18 +7582,15 @@
         <v>52397712.22228813</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8252,18 +7615,15 @@
         <v>57961133.26578813</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8288,18 +7648,15 @@
         <v>57968033.26578813</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8324,18 +7681,15 @@
         <v>57968033.26578813</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8362,16 +7716,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8398,16 +7749,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8434,16 +7782,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8468,18 +7813,15 @@
         <v>41905607.07098813</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8504,18 +7846,15 @@
         <v>43511351.15018813</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8540,18 +7879,15 @@
         <v>43542390.53238813</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8576,18 +7912,15 @@
         <v>42388672.33998813</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8614,16 +7947,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8648,18 +7978,15 @@
         <v>42388672.33998813</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8686,16 +8013,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8722,16 +8046,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8758,16 +8079,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8794,16 +8112,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8830,16 +8145,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8866,16 +8178,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8902,16 +8211,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8938,16 +8244,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8974,16 +8277,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9010,16 +8310,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9046,16 +8343,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9082,16 +8376,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9118,16 +8409,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9154,16 +8442,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9190,16 +8475,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9226,16 +8508,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9262,16 +8541,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9298,16 +8574,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9334,16 +8607,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>1</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9370,16 +8640,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9406,16 +8673,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9442,16 +8706,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9478,16 +8739,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9514,16 +8772,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9550,16 +8805,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9586,16 +8838,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9622,16 +8871,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9658,16 +8904,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9694,16 +8937,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9730,16 +8970,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9766,16 +9003,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9802,16 +9036,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9838,16 +9069,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9874,16 +9102,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9910,16 +9135,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9946,16 +9168,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9982,16 +9201,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10018,16 +9234,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10054,16 +9267,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10090,16 +9300,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10126,16 +9333,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10160,18 +9364,15 @@
         <v>55761007.62990291</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10198,16 +9399,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10234,16 +9432,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10270,16 +9465,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10306,16 +9498,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10340,18 +9529,15 @@
         <v>57588035.37330644</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10378,16 +9564,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10414,16 +9597,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10450,16 +9630,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10484,20 +9661,17 @@
         <v>48086329.38310643</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BTT.xlsx
+++ b/BackTest/2020-01-23 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>53550806.89214081</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>65719202.88704081</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0.4161</v>
@@ -521,9 +521,11 @@
         <v>65725360.59064081</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4215</v>
+      </c>
       <c r="J4" t="n">
         <v>0.4161</v>
       </c>
@@ -560,7 +562,7 @@
         <v>65725360.59064081</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0.4219</v>
@@ -601,7 +603,7 @@
         <v>65726591.0901408</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0.4219</v>
@@ -638,7 +640,7 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0.4248</v>
@@ -718,11 +720,19 @@
         <v>60100424.73944081</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,11 +761,19 @@
         <v>60105081.31694081</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -787,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -820,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -853,8 +883,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -886,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -919,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -952,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -985,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1018,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1051,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1084,8 +1156,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1117,8 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1150,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1183,8 +1273,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1216,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1249,8 +1351,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1282,8 +1390,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1315,8 +1429,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1348,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1381,8 +1507,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1414,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1447,8 +1585,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1480,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1513,8 +1663,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1546,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1579,8 +1741,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1780,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1645,8 +1819,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1678,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1711,8 +1897,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1744,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1777,8 +1975,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1810,8 +2014,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1843,8 +2053,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1876,8 +2092,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1909,8 +2131,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1942,8 +2170,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1975,8 +2209,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2008,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2041,8 +2287,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2074,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2107,8 +2365,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2140,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2170,11 +2440,17 @@
         <v>33431337.31374079</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2206,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2239,8 +2521,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2269,11 +2557,17 @@
         <v>33433781.60224079</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2302,11 +2596,17 @@
         <v>33435004.31804079</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2338,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2371,8 +2677,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2401,11 +2713,17 @@
         <v>32502448.66284079</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2752,17 @@
         <v>26159675.98384079</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2467,11 +2791,17 @@
         <v>34486223.69984079</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2503,8 +2833,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2869,17 @@
         <v>35371670.15718765</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2908,17 @@
         <v>35371670.15718765</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2602,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2635,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2668,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2701,8 +3067,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2734,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +3181,17 @@
         <v>24057684.17168765</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2833,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2866,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2899,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2932,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2965,8 +3379,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2998,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3031,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3064,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3097,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3130,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3163,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3193,11 +3649,17 @@
         <v>27069625.50828765</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3229,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3262,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3295,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3328,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3361,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3394,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3427,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3460,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3493,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3526,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3559,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3592,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3625,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3658,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3691,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3724,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3757,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +4351,17 @@
         <v>69214674.36838765</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +4390,17 @@
         <v>69214674.36838765</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +4429,17 @@
         <v>69160373.23818766</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +4468,17 @@
         <v>69160373.23818766</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +4507,17 @@
         <v>69686817.03868766</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3955,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3988,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4021,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4054,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4087,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4120,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4153,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4186,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4219,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4252,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4285,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4318,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4351,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4381,13 +5053,19 @@
         <v>48974250.88478765</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>1.021783598009007</v>
       </c>
       <c r="M120" t="inlineStr"/>
     </row>
@@ -4513,7 +5191,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4546,7 +5224,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4579,7 +5257,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4612,7 +5290,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4645,7 +5323,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4678,7 +5356,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4711,7 +5389,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4777,7 +5455,7 @@
         <v>48468725.94098765</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4810,7 +5488,7 @@
         <v>48657914.67808764</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4843,7 +5521,7 @@
         <v>48657914.67808764</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5206,7 +5884,7 @@
         <v>50118442.46749108</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5239,7 +5917,7 @@
         <v>52007748.56669109</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5272,7 +5950,7 @@
         <v>52006548.56669109</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5305,7 +5983,7 @@
         <v>51992100.95689108</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5338,7 +6016,7 @@
         <v>51993268.58699108</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5371,7 +6049,7 @@
         <v>51993268.58699108</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5404,7 +6082,7 @@
         <v>51993268.58699108</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5437,7 +6115,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5470,7 +6148,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5503,7 +6181,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5536,7 +6214,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5569,7 +6247,7 @@
         <v>53455707.55439108</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5602,7 +6280,7 @@
         <v>53478764.96744934</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5635,7 +6313,7 @@
         <v>52981769.49184934</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5668,7 +6346,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5701,7 +6379,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5734,7 +6412,7 @@
         <v>54185781.52524934</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5767,7 +6445,7 @@
         <v>59697905.12334934</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5800,7 +6478,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5833,7 +6511,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5866,7 +6544,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5899,7 +6577,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5932,7 +6610,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5965,7 +6643,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5998,7 +6676,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6031,7 +6709,7 @@
         <v>57528834.53738813</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6064,7 +6742,7 @@
         <v>56528834.53738813</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6097,7 +6775,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6130,7 +6808,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6163,7 +6841,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6196,7 +6874,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6229,7 +6907,7 @@
         <v>55530004.38348813</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6262,7 +6940,7 @@
         <v>53529678.53458814</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6295,7 +6973,7 @@
         <v>53467975.15848813</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6328,7 +7006,7 @@
         <v>53889994.90228813</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6361,7 +7039,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6394,7 +7072,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6427,7 +7105,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6460,7 +7138,7 @@
         <v>54001046.78548813</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6493,7 +7171,7 @@
         <v>50568605.43188813</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6526,7 +7204,7 @@
         <v>50571466.12328812</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6559,7 +7237,7 @@
         <v>49526013.12328812</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6592,7 +7270,7 @@
         <v>49541083.61878812</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6625,7 +7303,7 @@
         <v>48607649.49698813</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6658,7 +7336,7 @@
         <v>44291316.31218813</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6691,7 +7369,7 @@
         <v>44291316.31218813</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6724,7 +7402,7 @@
         <v>44291316.31218813</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6757,7 +7435,7 @@
         <v>63648495.93058813</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6790,7 +7468,7 @@
         <v>63222930.08098812</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6823,7 +7501,7 @@
         <v>60252751.20378812</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6856,7 +7534,7 @@
         <v>65339524.30428813</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6889,7 +7567,7 @@
         <v>65344753.45138813</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6922,7 +7600,7 @@
         <v>65347576.55358813</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6955,7 +7633,7 @@
         <v>65344506.06148813</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7252,7 +7930,7 @@
         <v>63413181.67968813</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7285,7 +7963,7 @@
         <v>63436378.15388814</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7318,7 +7996,7 @@
         <v>62936378.15388814</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7351,7 +8029,7 @@
         <v>60685647.82688814</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7384,7 +8062,7 @@
         <v>60685647.82688814</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7417,7 +8095,7 @@
         <v>52909527.74488813</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7450,7 +8128,7 @@
         <v>52009173.86538813</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7483,7 +8161,7 @@
         <v>52929627.11588813</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7516,7 +8194,7 @@
         <v>52929627.11588813</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7549,7 +8227,7 @@
         <v>52397712.22228813</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7582,7 +8260,7 @@
         <v>52397712.22228813</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7615,7 +8293,7 @@
         <v>57961133.26578813</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7648,7 +8326,7 @@
         <v>57968033.26578813</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7681,7 +8359,7 @@
         <v>57968033.26578813</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7714,7 +8392,7 @@
         <v>57966033.18548813</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7747,7 +8425,7 @@
         <v>57865302.51738813</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7780,7 +8458,7 @@
         <v>57180961.45248812</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7813,7 +8491,7 @@
         <v>41905607.07098813</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7846,7 +8524,7 @@
         <v>43511351.15018813</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7879,7 +8557,7 @@
         <v>43542390.53238813</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7912,7 +8590,7 @@
         <v>42388672.33998813</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7978,7 +8656,7 @@
         <v>42388672.33998813</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8077,7 +8755,7 @@
         <v>45693533.07137484</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8143,7 +8821,7 @@
         <v>45585613.45140291</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9364,7 +10042,7 @@
         <v>55761007.62990291</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9529,7 +10207,7 @@
         <v>57588035.37330644</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9661,7 +10339,7 @@
         <v>48086329.38310643</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9672,6 +10350,6 @@
       <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BTT.xlsx
+++ b/BackTest/2020-01-23 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>65725360.59064081</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0.4161</v>
       </c>
@@ -603,14 +601,10 @@
         <v>65726591.0901408</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4219</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,2597 +634,2209 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="F8" t="n">
+        <v>500707.2678</v>
+      </c>
+      <c r="G8" t="n">
+        <v>65727821.66984081</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4296</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5627396.9304</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60100424.73944081</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4656.5775</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60105081.31694081</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3571711.1782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56533370.13874081</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28131.4299</v>
+      </c>
+      <c r="G12" t="n">
+        <v>56533370.13874081</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F13" t="n">
+        <v>191599.127</v>
+      </c>
+      <c r="G13" t="n">
+        <v>56533370.13874081</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56533370.13874081</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4245</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4245</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10563819.1964</v>
+      </c>
+      <c r="G15" t="n">
+        <v>45969550.94234081</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1107891.9818</v>
+      </c>
+      <c r="G16" t="n">
+        <v>45969550.94234081</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F17" t="n">
+        <v>139185.0762</v>
+      </c>
+      <c r="G17" t="n">
+        <v>45969550.94234081</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="F18" t="n">
+        <v>165613.0869</v>
+      </c>
+      <c r="G18" t="n">
+        <v>46135164.02924081</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2631.883</v>
+      </c>
+      <c r="G19" t="n">
+        <v>46135164.02924081</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4282</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4282</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4282</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4282</v>
+      </c>
+      <c r="F20" t="n">
+        <v>698860.066</v>
+      </c>
+      <c r="G20" t="n">
+        <v>46834024.09524081</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4277</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4277</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1781362.792</v>
+      </c>
+      <c r="G21" t="n">
+        <v>45052661.30324081</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4278</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1188816.0852</v>
+      </c>
+      <c r="G22" t="n">
+        <v>45052661.30324081</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1941229.9318</v>
+      </c>
+      <c r="G23" t="n">
+        <v>46993891.23504081</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="F24" t="n">
+        <v>691108.7817000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>46302782.45334081</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3541.4031</v>
+      </c>
+      <c r="G25" t="n">
+        <v>46302782.45334081</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1177</v>
+      </c>
+      <c r="G26" t="n">
+        <v>46302782.45334081</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4284</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4282</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4284</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4282</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4708</v>
+      </c>
+      <c r="G27" t="n">
+        <v>46298074.45334081</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="F28" t="n">
+        <v>41525.3274</v>
+      </c>
+      <c r="G28" t="n">
+        <v>46339599.7807408</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1191.3105</v>
+      </c>
+      <c r="G29" t="n">
+        <v>46338408.4702408</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1191.3105</v>
+      </c>
+      <c r="G30" t="n">
+        <v>46337217.1597408</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>0.4248</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="C31" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2109792.8112</v>
+      </c>
+      <c r="G31" t="n">
+        <v>44227424.3485408</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12893217.7593</v>
+      </c>
+      <c r="G32" t="n">
+        <v>31334206.5892408</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F33" t="n">
+        <v>90936.37179999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31334206.5892408</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F34" t="n">
+        <v>849193.758</v>
+      </c>
+      <c r="G34" t="n">
+        <v>31334206.5892408</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F35" t="n">
+        <v>269811.3739</v>
+      </c>
+      <c r="G35" t="n">
+        <v>31334206.5892408</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1163580.2512</v>
+      </c>
+      <c r="G36" t="n">
+        <v>31334206.5892408</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F37" t="n">
+        <v>478990.6972</v>
+      </c>
+      <c r="G37" t="n">
+        <v>31334206.5892408</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4245</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4245</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3765001.234</v>
+      </c>
+      <c r="G38" t="n">
+        <v>27569205.3552408</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F39" t="n">
+        <v>305599.4185</v>
+      </c>
+      <c r="G39" t="n">
+        <v>27874804.77374079</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3040.5163</v>
+      </c>
+      <c r="G40" t="n">
+        <v>27871764.25744079</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4246</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4246</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6071184.373</v>
+      </c>
+      <c r="G41" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F42" t="n">
+        <v>205016.5049</v>
+      </c>
+      <c r="G42" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6272834.8504</v>
+      </c>
+      <c r="G43" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F46" t="n">
+        <v>99388.5592</v>
+      </c>
+      <c r="G46" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F47" t="n">
+        <v>132367.1089</v>
+      </c>
+      <c r="G47" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F48" t="n">
+        <v>498647.5942</v>
+      </c>
+      <c r="G48" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4647050.9128</v>
+      </c>
+      <c r="G49" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2641700.8418</v>
+      </c>
+      <c r="G50" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F51" t="n">
+        <v>150332.6687</v>
+      </c>
+      <c r="G51" t="n">
+        <v>33942948.63044079</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F52" t="n">
+        <v>511611.3167</v>
+      </c>
+      <c r="G52" t="n">
+        <v>33431337.31374079</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1234868.6109</v>
+      </c>
+      <c r="G53" t="n">
+        <v>33431337.31374079</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F54" t="n">
+        <v>842000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>33431337.31374079</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8692551.3936</v>
+      </c>
+      <c r="G55" t="n">
+        <v>33431337.31374079</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2444.2885</v>
+      </c>
+      <c r="G56" t="n">
+        <v>33433781.60224079</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1222.7158</v>
+      </c>
+      <c r="G57" t="n">
+        <v>33435004.31804079</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F58" t="n">
+        <v>694521.6021</v>
+      </c>
+      <c r="G58" t="n">
+        <v>32740482.71594079</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1223.312</v>
+      </c>
+      <c r="G59" t="n">
+        <v>32741706.02794079</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="F60" t="n">
+        <v>239257.3651</v>
+      </c>
+      <c r="G60" t="n">
+        <v>32502448.66284079</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6342772.679</v>
+      </c>
+      <c r="G61" t="n">
+        <v>26159675.98384079</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4254</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8326547.716</v>
+      </c>
+      <c r="G62" t="n">
+        <v>34486223.69984079</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7954</v>
+      </c>
+      <c r="G63" t="n">
+        <v>34478269.69984079</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4253</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4253</v>
+      </c>
+      <c r="F64" t="n">
+        <v>893400.45734686</v>
+      </c>
+      <c r="G64" t="n">
+        <v>35371670.15718765</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1158553.124</v>
+      </c>
+      <c r="G65" t="n">
+        <v>35371670.15718765</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="F66" t="n">
+        <v>276363.5426</v>
+      </c>
+      <c r="G66" t="n">
+        <v>35371670.15718765</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="F67" t="n">
+        <v>138604.6042</v>
+      </c>
+      <c r="G67" t="n">
+        <v>35371670.15718765</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4252</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4252</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9257017.96609525</v>
+      </c>
+      <c r="G68" t="n">
+        <v>35371670.15718765</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7305</v>
+      </c>
+      <c r="G69" t="n">
+        <v>35371670.15718765</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12585675.8156</v>
+      </c>
+      <c r="G70" t="n">
+        <v>22785994.34158765</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="F71" t="n">
+        <v>554151.3689999999</v>
+      </c>
+      <c r="G71" t="n">
+        <v>23340145.71058765</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="F72" t="n">
+        <v>717538.4611</v>
+      </c>
+      <c r="G72" t="n">
+        <v>24057684.17168765</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.4249</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4249</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4249</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4249</v>
-      </c>
-      <c r="F8" t="n">
-        <v>500707.2678</v>
-      </c>
-      <c r="G8" t="n">
-        <v>65727821.66984081</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15726.461</v>
+      </c>
+      <c r="G73" t="n">
+        <v>24057684.17168765</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.4256</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4296</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5627396.9304</v>
-      </c>
-      <c r="G9" t="n">
-        <v>60100424.73944081</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.4249</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.4295</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4295</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4295</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4295</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4656.5775</v>
-      </c>
-      <c r="G10" t="n">
-        <v>60105081.31694081</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3571711.1782</v>
-      </c>
-      <c r="G11" t="n">
-        <v>56533370.13874081</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="F12" t="n">
-        <v>28131.4299</v>
-      </c>
-      <c r="G12" t="n">
-        <v>56533370.13874081</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="F13" t="n">
-        <v>191599.127</v>
-      </c>
-      <c r="G13" t="n">
-        <v>56533370.13874081</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>56533370.13874081</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.4245</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4245</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10563819.1964</v>
-      </c>
-      <c r="G15" t="n">
-        <v>45969550.94234081</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1107891.9818</v>
-      </c>
-      <c r="G16" t="n">
-        <v>45969550.94234081</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="F17" t="n">
-        <v>139185.0762</v>
-      </c>
-      <c r="G17" t="n">
-        <v>45969550.94234081</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="F18" t="n">
-        <v>165613.0869</v>
-      </c>
-      <c r="G18" t="n">
-        <v>46135164.02924081</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2631.883</v>
-      </c>
-      <c r="G19" t="n">
-        <v>46135164.02924081</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.4282</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4282</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.4282</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.4282</v>
-      </c>
-      <c r="F20" t="n">
-        <v>698860.066</v>
-      </c>
-      <c r="G20" t="n">
-        <v>46834024.09524081</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4277</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4278</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4278</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.4277</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1781362.792</v>
-      </c>
-      <c r="G21" t="n">
-        <v>45052661.30324081</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4278</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4278</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.4278</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4278</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1188816.0852</v>
-      </c>
-      <c r="G22" t="n">
-        <v>45052661.30324081</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4288</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.4288</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1941229.9318</v>
-      </c>
-      <c r="G23" t="n">
-        <v>46993891.23504081</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="F24" t="n">
-        <v>691108.7817000001</v>
-      </c>
-      <c r="G24" t="n">
-        <v>46302782.45334081</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3541.4031</v>
-      </c>
-      <c r="G25" t="n">
-        <v>46302782.45334081</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1177</v>
-      </c>
-      <c r="G26" t="n">
-        <v>46302782.45334081</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.4284</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.4282</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.4284</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.4282</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4708</v>
-      </c>
-      <c r="G27" t="n">
-        <v>46298074.45334081</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.4287</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.4287</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.4287</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.4287</v>
-      </c>
-      <c r="F28" t="n">
-        <v>41525.3274</v>
-      </c>
-      <c r="G28" t="n">
-        <v>46339599.7807408</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.4281</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.4281</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.4281</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.4281</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1191.3105</v>
-      </c>
-      <c r="G29" t="n">
-        <v>46338408.4702408</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1191.3105</v>
-      </c>
-      <c r="G30" t="n">
-        <v>46337217.1597408</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2109792.8112</v>
-      </c>
-      <c r="G31" t="n">
-        <v>44227424.3485408</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F32" t="n">
-        <v>12893217.7593</v>
-      </c>
-      <c r="G32" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F33" t="n">
-        <v>90936.37179999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F34" t="n">
-        <v>849193.758</v>
-      </c>
-      <c r="G34" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F35" t="n">
-        <v>269811.3739</v>
-      </c>
-      <c r="G35" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1163580.2512</v>
-      </c>
-      <c r="G36" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F37" t="n">
-        <v>478990.6972</v>
-      </c>
-      <c r="G37" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.4245</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.4245</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3765001.234</v>
-      </c>
-      <c r="G38" t="n">
-        <v>27569205.3552408</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F39" t="n">
-        <v>305599.4185</v>
-      </c>
-      <c r="G39" t="n">
-        <v>27874804.77374079</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3040.5163</v>
-      </c>
-      <c r="G40" t="n">
-        <v>27871764.25744079</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.4246</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.4246</v>
-      </c>
-      <c r="F41" t="n">
-        <v>6071184.373</v>
-      </c>
-      <c r="G41" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F42" t="n">
-        <v>205016.5049</v>
-      </c>
-      <c r="G42" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F43" t="n">
-        <v>6272834.8504</v>
-      </c>
-      <c r="G43" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G44" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="G45" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F46" t="n">
-        <v>99388.5592</v>
-      </c>
-      <c r="G46" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F47" t="n">
-        <v>132367.1089</v>
-      </c>
-      <c r="G47" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F48" t="n">
-        <v>498647.5942</v>
-      </c>
-      <c r="G48" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4647050.9128</v>
-      </c>
-      <c r="G49" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2641700.8418</v>
-      </c>
-      <c r="G50" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="F51" t="n">
-        <v>150332.6687</v>
-      </c>
-      <c r="G51" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="F52" t="n">
-        <v>511611.3167</v>
-      </c>
-      <c r="G52" t="n">
-        <v>33431337.31374079</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1234868.6109</v>
-      </c>
-      <c r="G53" t="n">
-        <v>33431337.31374079</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="F54" t="n">
-        <v>842000</v>
-      </c>
-      <c r="G54" t="n">
-        <v>33431337.31374079</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="F55" t="n">
-        <v>8692551.3936</v>
-      </c>
-      <c r="G55" t="n">
-        <v>33431337.31374079</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2444.2885</v>
-      </c>
-      <c r="G56" t="n">
-        <v>33433781.60224079</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.4258</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.4258</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.4258</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.4258</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1222.7158</v>
-      </c>
-      <c r="G57" t="n">
-        <v>33435004.31804079</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="F58" t="n">
-        <v>694521.6021</v>
-      </c>
-      <c r="G58" t="n">
-        <v>32740482.71594079</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.4258</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.4258</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.4258</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.4258</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1223.312</v>
-      </c>
-      <c r="G59" t="n">
-        <v>32741706.02794079</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="F60" t="n">
-        <v>239257.3651</v>
-      </c>
-      <c r="G60" t="n">
-        <v>32502448.66284079</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="F61" t="n">
-        <v>6342772.679</v>
-      </c>
-      <c r="G61" t="n">
-        <v>26159675.98384079</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.4254</v>
-      </c>
-      <c r="F62" t="n">
-        <v>8326547.716</v>
-      </c>
-      <c r="G62" t="n">
-        <v>34486223.69984079</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="F63" t="n">
-        <v>7954</v>
-      </c>
-      <c r="G63" t="n">
-        <v>34478269.69984079</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.4253</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.4253</v>
-      </c>
-      <c r="F64" t="n">
-        <v>893400.45734686</v>
-      </c>
-      <c r="G64" t="n">
-        <v>35371670.15718765</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1158553.124</v>
-      </c>
-      <c r="G65" t="n">
-        <v>35371670.15718765</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="F66" t="n">
-        <v>276363.5426</v>
-      </c>
-      <c r="G66" t="n">
-        <v>35371670.15718765</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="F67" t="n">
-        <v>138604.6042</v>
-      </c>
-      <c r="G67" t="n">
-        <v>35371670.15718765</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.4252</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.4252</v>
-      </c>
-      <c r="F68" t="n">
-        <v>9257017.96609525</v>
-      </c>
-      <c r="G68" t="n">
-        <v>35371670.15718765</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.4257</v>
-      </c>
-      <c r="F69" t="n">
-        <v>7305</v>
-      </c>
-      <c r="G69" t="n">
-        <v>35371670.15718765</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="F70" t="n">
-        <v>12585675.8156</v>
-      </c>
-      <c r="G70" t="n">
-        <v>22785994.34158765</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="F71" t="n">
-        <v>554151.3689999999</v>
-      </c>
-      <c r="G71" t="n">
-        <v>23340145.71058765</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="F72" t="n">
-        <v>717538.4611</v>
-      </c>
-      <c r="G72" t="n">
-        <v>24057684.17168765</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="F73" t="n">
-        <v>15726.461</v>
-      </c>
-      <c r="G73" t="n">
-        <v>24057684.17168765</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3259,17 +2865,15 @@
         <v>24067849.24738765</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.4256</v>
+      </c>
       <c r="J74" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.4256</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3298,15 +2902,17 @@
         <v>24067849.24738765</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.4279</v>
+      </c>
       <c r="J75" t="n">
-        <v>0.4219</v>
+        <v>0.4256</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3341,11 +2947,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>0.4219</v>
+        <v>0.4256</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3379,14 +2985,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3418,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3457,14 +3051,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3496,14 +3084,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3535,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3574,14 +3150,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3613,14 +3183,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3652,14 +3216,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3691,14 +3249,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3730,14 +3282,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3769,14 +3315,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3808,14 +3348,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3847,14 +3381,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3886,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3925,14 +3447,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3964,14 +3480,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4003,14 +3513,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4042,14 +3546,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4081,14 +3579,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4120,14 +3612,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4159,14 +3645,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4198,14 +3678,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4237,14 +3711,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4276,14 +3744,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4315,14 +3777,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4354,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4393,14 +3843,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4432,14 +3876,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4471,14 +3909,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4510,14 +3942,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4549,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4588,14 +4008,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4627,14 +4041,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4666,14 +4074,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4705,14 +4107,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4744,14 +4140,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4783,14 +4173,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4822,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4861,14 +4239,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4900,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4939,14 +4305,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4978,14 +4338,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5017,14 +4371,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5053,19 +4401,13 @@
         <v>48974250.88478765</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>1.021783598009007</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
     </row>
@@ -5191,7 +4533,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5224,7 +4566,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5257,7 +4599,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5290,7 +4632,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5323,7 +4665,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5356,7 +4698,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5389,7 +4731,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5455,7 +4797,7 @@
         <v>48468725.94098765</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5488,7 +4830,7 @@
         <v>48657914.67808764</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5521,7 +4863,7 @@
         <v>48657914.67808764</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5884,7 +5226,7 @@
         <v>50118442.46749108</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5917,7 +5259,7 @@
         <v>52007748.56669109</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5950,7 +5292,7 @@
         <v>52006548.56669109</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5983,7 +5325,7 @@
         <v>51992100.95689108</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6016,7 +5358,7 @@
         <v>51993268.58699108</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6049,7 +5391,7 @@
         <v>51993268.58699108</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6082,7 +5424,7 @@
         <v>51993268.58699108</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6115,7 +5457,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6148,7 +5490,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6181,7 +5523,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6214,7 +5556,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6247,7 +5589,7 @@
         <v>53455707.55439108</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6280,7 +5622,7 @@
         <v>53478764.96744934</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6313,7 +5655,7 @@
         <v>52981769.49184934</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6346,7 +5688,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6379,7 +5721,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6412,7 +5754,7 @@
         <v>54185781.52524934</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6445,7 +5787,7 @@
         <v>59697905.12334934</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6478,7 +5820,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6511,7 +5853,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6544,7 +5886,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6577,7 +5919,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6610,7 +5952,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6643,7 +5985,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6676,7 +6018,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6709,7 +6051,7 @@
         <v>57528834.53738813</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6742,7 +6084,7 @@
         <v>56528834.53738813</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6775,7 +6117,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6808,7 +6150,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6841,7 +6183,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6874,7 +6216,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6907,7 +6249,7 @@
         <v>55530004.38348813</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6940,7 +6282,7 @@
         <v>53529678.53458814</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6973,7 +6315,7 @@
         <v>53467975.15848813</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7006,7 +6348,7 @@
         <v>53889994.90228813</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7039,7 +6381,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7072,7 +6414,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7105,7 +6447,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7138,7 +6480,7 @@
         <v>54001046.78548813</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7171,7 +6513,7 @@
         <v>50568605.43188813</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7204,7 +6546,7 @@
         <v>50571466.12328812</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7237,7 +6579,7 @@
         <v>49526013.12328812</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7270,7 +6612,7 @@
         <v>49541083.61878812</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7303,7 +6645,7 @@
         <v>48607649.49698813</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7336,7 +6678,7 @@
         <v>44291316.31218813</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7369,7 +6711,7 @@
         <v>44291316.31218813</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7402,7 +6744,7 @@
         <v>44291316.31218813</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7435,7 +6777,7 @@
         <v>63648495.93058813</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7468,7 +6810,7 @@
         <v>63222930.08098812</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7501,7 +6843,7 @@
         <v>60252751.20378812</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7534,7 +6876,7 @@
         <v>65339524.30428813</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7567,7 +6909,7 @@
         <v>65344753.45138813</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7600,7 +6942,7 @@
         <v>65347576.55358813</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7633,7 +6975,7 @@
         <v>65344506.06148813</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7930,7 +7272,7 @@
         <v>63413181.67968813</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7963,7 +7305,7 @@
         <v>63436378.15388814</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7996,7 +7338,7 @@
         <v>62936378.15388814</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8029,7 +7371,7 @@
         <v>60685647.82688814</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8062,7 +7404,7 @@
         <v>60685647.82688814</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8095,7 +7437,7 @@
         <v>52909527.74488813</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8128,7 +7470,7 @@
         <v>52009173.86538813</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8161,7 +7503,7 @@
         <v>52929627.11588813</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8194,7 +7536,7 @@
         <v>52929627.11588813</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8227,7 +7569,7 @@
         <v>52397712.22228813</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8260,7 +7602,7 @@
         <v>52397712.22228813</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8293,7 +7635,7 @@
         <v>57961133.26578813</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8326,7 +7668,7 @@
         <v>57968033.26578813</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8359,7 +7701,7 @@
         <v>57968033.26578813</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8392,7 +7734,7 @@
         <v>57966033.18548813</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8425,7 +7767,7 @@
         <v>57865302.51738813</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8458,7 +7800,7 @@
         <v>57180961.45248812</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8491,7 +7833,7 @@
         <v>41905607.07098813</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8524,7 +7866,7 @@
         <v>43511351.15018813</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8557,7 +7899,7 @@
         <v>43542390.53238813</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8590,7 +7932,7 @@
         <v>42388672.33998813</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8755,7 +8097,7 @@
         <v>45693533.07137484</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8821,7 +8163,7 @@
         <v>45585613.45140291</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -10350,6 +9692,6 @@
       <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BTT.xlsx
+++ b/BackTest/2020-01-23 BackTest BTT.xlsx
@@ -562,9 +562,11 @@
         <v>65725360.59064081</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4219</v>
+      </c>
       <c r="J5" t="n">
         <v>0.4161</v>
       </c>
@@ -601,7 +603,7 @@
         <v>65726591.0901408</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +636,7 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -667,7 +669,7 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -700,7 +702,7 @@
         <v>60100424.73944081</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -733,7 +735,7 @@
         <v>60105081.31694081</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -766,7 +768,7 @@
         <v>56533370.13874081</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -799,7 +801,7 @@
         <v>56533370.13874081</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1030,7 +1032,7 @@
         <v>46135164.02924081</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1063,7 +1065,7 @@
         <v>46834024.09524081</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1162,7 +1164,7 @@
         <v>46993891.23504081</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1393,7 +1395,7 @@
         <v>46337217.1597408</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1426,7 +1428,7 @@
         <v>44227424.3485408</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1459,7 +1461,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1492,7 +1494,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1525,7 +1527,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1558,7 +1560,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1591,7 +1593,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1624,7 +1626,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1657,7 +1659,7 @@
         <v>27569205.3552408</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1690,7 +1692,7 @@
         <v>27874804.77374079</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1723,7 +1725,7 @@
         <v>27871764.25744079</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1756,7 +1758,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1789,7 +1791,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1822,7 +1824,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2746,14 +2748,10 @@
         <v>23340145.71058765</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.4232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2783,19 +2781,11 @@
         <v>24057684.17168765</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2824,19 +2814,11 @@
         <v>24057684.17168765</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2865,14 +2847,10 @@
         <v>24067849.24738765</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.4256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2902,19 +2880,11 @@
         <v>24067849.24738765</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.4279</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2946,14 +2916,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.4256</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -5523,7 +5487,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5556,7 +5520,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5622,7 +5586,7 @@
         <v>53478764.96744934</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5655,7 +5619,7 @@
         <v>52981769.49184934</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5688,7 +5652,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5721,7 +5685,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5754,7 +5718,7 @@
         <v>54185781.52524934</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5787,7 +5751,7 @@
         <v>59697905.12334934</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5820,7 +5784,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5853,7 +5817,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5886,7 +5850,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5919,7 +5883,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5952,7 +5916,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5985,7 +5949,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6018,7 +5982,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6051,7 +6015,7 @@
         <v>57528834.53738813</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6084,7 +6048,7 @@
         <v>56528834.53738813</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6117,7 +6081,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6150,7 +6114,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6183,7 +6147,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6216,7 +6180,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6249,7 +6213,7 @@
         <v>55530004.38348813</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6282,7 +6246,7 @@
         <v>53529678.53458814</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6315,7 +6279,7 @@
         <v>53467975.15848813</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6348,7 +6312,7 @@
         <v>53889994.90228813</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6414,7 +6378,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6480,7 +6444,7 @@
         <v>54001046.78548813</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6513,7 +6477,7 @@
         <v>50568605.43188813</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6546,7 +6510,7 @@
         <v>50571466.12328812</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6579,7 +6543,7 @@
         <v>49526013.12328812</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6612,7 +6576,7 @@
         <v>49541083.61878812</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6645,7 +6609,7 @@
         <v>48607649.49698813</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6810,7 +6774,7 @@
         <v>63222930.08098812</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6975,7 +6939,7 @@
         <v>65344506.06148813</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7008,7 +6972,7 @@
         <v>65274035.84638813</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7206,7 +7170,7 @@
         <v>63508980.83128813</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7272,7 +7236,7 @@
         <v>63413181.67968813</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>

--- a/BackTest/2020-01-23 BackTest BTT.xlsx
+++ b/BackTest/2020-01-23 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M280"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2966.9018</v>
       </c>
       <c r="G2" t="n">
-        <v>53550806.89214081</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>12168395.9949</v>
       </c>
       <c r="G3" t="n">
-        <v>65719202.88704081</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.4161</v>
       </c>
       <c r="I3" t="n">
         <v>0.4161</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.4161</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>6157.7036</v>
       </c>
       <c r="G4" t="n">
-        <v>65725360.59064081</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.4215</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4215</v>
-      </c>
-      <c r="J4" t="n">
         <v>0.4161</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>1009265.0405</v>
       </c>
       <c r="G5" t="n">
-        <v>65725360.59064081</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.4219</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="J5" t="n">
         <v>0.4161</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,19 @@
         <v>1230.4995</v>
       </c>
       <c r="G6" t="n">
-        <v>65726591.0901408</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>0.4219</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4219</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,18 +617,23 @@
         <v>1230.5797</v>
       </c>
       <c r="G7" t="n">
-        <v>65727821.66984081</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0.4248</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,18 +655,21 @@
         <v>500707.2678</v>
       </c>
       <c r="G8" t="n">
-        <v>65727821.66984081</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,18 +691,15 @@
         <v>5627396.9304</v>
       </c>
       <c r="G9" t="n">
-        <v>60100424.73944081</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -732,18 +721,15 @@
         <v>4656.5775</v>
       </c>
       <c r="G10" t="n">
-        <v>60105081.31694081</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -765,18 +751,15 @@
         <v>3571711.1782</v>
       </c>
       <c r="G11" t="n">
-        <v>56533370.13874081</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,18 +781,15 @@
         <v>28131.4299</v>
       </c>
       <c r="G12" t="n">
-        <v>56533370.13874081</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -831,18 +811,15 @@
         <v>191599.127</v>
       </c>
       <c r="G13" t="n">
-        <v>56533370.13874081</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -864,18 +841,15 @@
         <v>0.0001</v>
       </c>
       <c r="G14" t="n">
-        <v>56533370.13874081</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -897,18 +871,15 @@
         <v>10563819.1964</v>
       </c>
       <c r="G15" t="n">
-        <v>45969550.94234081</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -930,18 +901,15 @@
         <v>1107891.9818</v>
       </c>
       <c r="G16" t="n">
-        <v>45969550.94234081</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -963,18 +931,15 @@
         <v>139185.0762</v>
       </c>
       <c r="G17" t="n">
-        <v>45969550.94234081</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -996,18 +961,15 @@
         <v>165613.0869</v>
       </c>
       <c r="G18" t="n">
-        <v>46135164.02924081</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1029,18 +991,15 @@
         <v>2631.883</v>
       </c>
       <c r="G19" t="n">
-        <v>46135164.02924081</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1062,18 +1021,15 @@
         <v>698860.066</v>
       </c>
       <c r="G20" t="n">
-        <v>46834024.09524081</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1095,18 +1051,15 @@
         <v>1781362.792</v>
       </c>
       <c r="G21" t="n">
-        <v>45052661.30324081</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1128,18 +1081,15 @@
         <v>1188816.0852</v>
       </c>
       <c r="G22" t="n">
-        <v>45052661.30324081</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1161,18 +1111,15 @@
         <v>1941229.9318</v>
       </c>
       <c r="G23" t="n">
-        <v>46993891.23504081</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1194,18 +1141,15 @@
         <v>691108.7817000001</v>
       </c>
       <c r="G24" t="n">
-        <v>46302782.45334081</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1227,18 +1171,15 @@
         <v>3541.4031</v>
       </c>
       <c r="G25" t="n">
-        <v>46302782.45334081</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1260,18 +1201,15 @@
         <v>1177</v>
       </c>
       <c r="G26" t="n">
-        <v>46302782.45334081</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1293,18 +1231,15 @@
         <v>4708</v>
       </c>
       <c r="G27" t="n">
-        <v>46298074.45334081</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1326,18 +1261,15 @@
         <v>41525.3274</v>
       </c>
       <c r="G28" t="n">
-        <v>46339599.7807408</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1359,18 +1291,15 @@
         <v>1191.3105</v>
       </c>
       <c r="G29" t="n">
-        <v>46338408.4702408</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1392,18 +1321,15 @@
         <v>1191.3105</v>
       </c>
       <c r="G30" t="n">
-        <v>46337217.1597408</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1425,18 +1351,15 @@
         <v>2109792.8112</v>
       </c>
       <c r="G31" t="n">
-        <v>44227424.3485408</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1458,18 +1381,15 @@
         <v>12893217.7593</v>
       </c>
       <c r="G32" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1491,18 +1411,15 @@
         <v>90936.37179999999</v>
       </c>
       <c r="G33" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1524,18 +1441,15 @@
         <v>849193.758</v>
       </c>
       <c r="G34" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1557,18 +1471,15 @@
         <v>269811.3739</v>
       </c>
       <c r="G35" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1590,18 +1501,15 @@
         <v>1163580.2512</v>
       </c>
       <c r="G36" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1623,18 +1531,15 @@
         <v>478990.6972</v>
       </c>
       <c r="G37" t="n">
-        <v>31334206.5892408</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1656,18 +1561,15 @@
         <v>3765001.234</v>
       </c>
       <c r="G38" t="n">
-        <v>27569205.3552408</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1689,18 +1591,15 @@
         <v>305599.4185</v>
       </c>
       <c r="G39" t="n">
-        <v>27874804.77374079</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1722,18 +1621,15 @@
         <v>3040.5163</v>
       </c>
       <c r="G40" t="n">
-        <v>27871764.25744079</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1755,18 +1651,15 @@
         <v>6071184.373</v>
       </c>
       <c r="G41" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1788,18 +1681,15 @@
         <v>205016.5049</v>
       </c>
       <c r="G42" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1821,18 +1711,19 @@
         <v>6272834.8504</v>
       </c>
       <c r="G43" t="n">
-        <v>33942948.63044079</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>0.4247</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.4247</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1854,18 +1745,23 @@
         <v>1250</v>
       </c>
       <c r="G44" t="n">
-        <v>33942948.63044079</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0.4247</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1887,18 +1783,23 @@
         <v>3000000</v>
       </c>
       <c r="G45" t="n">
-        <v>33942948.63044079</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0.4247</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1920,18 +1821,15 @@
         <v>99388.5592</v>
       </c>
       <c r="G46" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1953,18 +1851,15 @@
         <v>132367.1089</v>
       </c>
       <c r="G47" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1986,18 +1881,15 @@
         <v>498647.5942</v>
       </c>
       <c r="G48" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2019,18 +1911,15 @@
         <v>4647050.9128</v>
       </c>
       <c r="G49" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2052,18 +1941,15 @@
         <v>2641700.8418</v>
       </c>
       <c r="G50" t="n">
-        <v>33942948.63044079</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2085,18 +1971,21 @@
         <v>150332.6687</v>
       </c>
       <c r="G51" t="n">
-        <v>33942948.63044079</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.4247</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2118,18 +2007,21 @@
         <v>511611.3167</v>
       </c>
       <c r="G52" t="n">
-        <v>33431337.31374079</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>0.4247</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2151,18 +2043,21 @@
         <v>1234868.6109</v>
       </c>
       <c r="G53" t="n">
-        <v>33431337.31374079</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.4233</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2184,18 +2079,21 @@
         <v>842000</v>
       </c>
       <c r="G54" t="n">
-        <v>33431337.31374079</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.4233</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2217,18 +2115,21 @@
         <v>8692551.3936</v>
       </c>
       <c r="G55" t="n">
-        <v>33431337.31374079</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.4233</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2250,18 +2151,21 @@
         <v>2444.2885</v>
       </c>
       <c r="G56" t="n">
-        <v>33433781.60224079</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.4233</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2283,18 +2187,19 @@
         <v>1222.7158</v>
       </c>
       <c r="G57" t="n">
-        <v>33435004.31804079</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2316,18 +2221,19 @@
         <v>694521.6021</v>
       </c>
       <c r="G58" t="n">
-        <v>32740482.71594079</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2349,18 +2255,19 @@
         <v>1223.312</v>
       </c>
       <c r="G59" t="n">
-        <v>32741706.02794079</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2382,18 +2289,19 @@
         <v>239257.3651</v>
       </c>
       <c r="G60" t="n">
-        <v>32502448.66284079</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2415,18 +2323,21 @@
         <v>6342772.679</v>
       </c>
       <c r="G61" t="n">
-        <v>26159675.98384079</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.4255</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2448,18 +2359,21 @@
         <v>8326547.716</v>
       </c>
       <c r="G62" t="n">
-        <v>34486223.69984079</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.4254</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2481,18 +2395,21 @@
         <v>7954</v>
       </c>
       <c r="G63" t="n">
-        <v>34478269.69984079</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.4255</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2514,18 +2431,21 @@
         <v>893400.45734686</v>
       </c>
       <c r="G64" t="n">
-        <v>35371670.15718765</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.4232</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2547,18 +2467,21 @@
         <v>1158553.124</v>
       </c>
       <c r="G65" t="n">
-        <v>35371670.15718765</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.4257</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2580,18 +2503,21 @@
         <v>276363.5426</v>
       </c>
       <c r="G66" t="n">
-        <v>35371670.15718765</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.4257</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2613,18 +2539,21 @@
         <v>138604.6042</v>
       </c>
       <c r="G67" t="n">
-        <v>35371670.15718765</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.4257</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2646,18 +2575,19 @@
         <v>9257017.96609525</v>
       </c>
       <c r="G68" t="n">
-        <v>35371670.15718765</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2679,18 +2609,21 @@
         <v>7305</v>
       </c>
       <c r="G69" t="n">
-        <v>35371670.15718765</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.4257</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2712,18 +2645,21 @@
         <v>12585675.8156</v>
       </c>
       <c r="G70" t="n">
-        <v>22785994.34158765</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.4257</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2745,18 +2681,21 @@
         <v>554151.3689999999</v>
       </c>
       <c r="G71" t="n">
-        <v>23340145.71058765</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.4232</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2778,18 +2717,21 @@
         <v>717538.4611</v>
       </c>
       <c r="G72" t="n">
-        <v>24057684.17168765</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.4242</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2811,18 +2753,21 @@
         <v>15726.461</v>
       </c>
       <c r="G73" t="n">
-        <v>24057684.17168765</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.4256</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2844,18 +2789,19 @@
         <v>10165.0757</v>
       </c>
       <c r="G74" t="n">
-        <v>24067849.24738765</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2877,18 +2823,19 @@
         <v>9495373.8113</v>
       </c>
       <c r="G75" t="n">
-        <v>24067849.24738765</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2910,18 +2857,19 @@
         <v>40790.2934</v>
       </c>
       <c r="G76" t="n">
-        <v>24027058.95398765</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2943,18 +2891,19 @@
         <v>672730.4816000001</v>
       </c>
       <c r="G77" t="n">
-        <v>24699789.43558765</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2976,18 +2925,19 @@
         <v>389692.025</v>
       </c>
       <c r="G78" t="n">
-        <v>24699789.43558765</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3009,18 +2959,19 @@
         <v>5249767.3066</v>
       </c>
       <c r="G79" t="n">
-        <v>29949556.74218765</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3042,18 +2993,19 @@
         <v>1185</v>
       </c>
       <c r="G80" t="n">
-        <v>29950741.74218765</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3075,18 +3027,19 @@
         <v>190548.7387</v>
       </c>
       <c r="G81" t="n">
-        <v>29950741.74218765</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3108,18 +3061,19 @@
         <v>2675927.2207</v>
       </c>
       <c r="G82" t="n">
-        <v>27274814.52148765</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3141,18 +3095,19 @@
         <v>580618.8777</v>
       </c>
       <c r="G83" t="n">
-        <v>27855433.39918765</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3174,18 +3129,19 @@
         <v>785807.8909</v>
       </c>
       <c r="G84" t="n">
-        <v>27069625.50828765</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3207,18 +3163,19 @@
         <v>181049.5884</v>
       </c>
       <c r="G85" t="n">
-        <v>27250675.09668765</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3240,18 +3197,19 @@
         <v>23353.5731</v>
       </c>
       <c r="G86" t="n">
-        <v>27227321.52358765</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3273,18 +3231,19 @@
         <v>180641.6003</v>
       </c>
       <c r="G87" t="n">
-        <v>27227321.52358765</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3306,18 +3265,19 @@
         <v>2217458.9834</v>
       </c>
       <c r="G88" t="n">
-        <v>29444780.50698765</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3339,18 +3299,19 @@
         <v>1002551.9766</v>
       </c>
       <c r="G89" t="n">
-        <v>30447332.48358764</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3372,18 +3333,19 @@
         <v>13099421.9743</v>
       </c>
       <c r="G90" t="n">
-        <v>17347910.50928764</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3405,18 +3367,19 @@
         <v>107132.1396</v>
       </c>
       <c r="G91" t="n">
-        <v>17347910.50928764</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3438,18 +3401,19 @@
         <v>790942.2826</v>
       </c>
       <c r="G92" t="n">
-        <v>17347910.50928764</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3471,18 +3435,19 @@
         <v>1085000</v>
       </c>
       <c r="G93" t="n">
-        <v>18432910.50928764</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3504,18 +3469,19 @@
         <v>2490217.5818</v>
       </c>
       <c r="G94" t="n">
-        <v>15942692.92748765</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3537,18 +3503,19 @@
         <v>507503.5518</v>
       </c>
       <c r="G95" t="n">
-        <v>16450196.47928764</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3570,18 +3537,19 @@
         <v>5202018.0137</v>
       </c>
       <c r="G96" t="n">
-        <v>11248178.46558765</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3603,18 +3571,19 @@
         <v>3742469.1618</v>
       </c>
       <c r="G97" t="n">
-        <v>14990647.62738765</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3636,18 +3605,19 @@
         <v>1052247.6743</v>
       </c>
       <c r="G98" t="n">
-        <v>16042895.30168765</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3669,18 +3639,19 @@
         <v>53421968.2122</v>
       </c>
       <c r="G99" t="n">
-        <v>69464863.51388764</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3702,18 +3673,19 @@
         <v>2985722.1812</v>
       </c>
       <c r="G100" t="n">
-        <v>66479141.33268765</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3735,18 +3707,19 @@
         <v>2369.3214</v>
       </c>
       <c r="G101" t="n">
-        <v>66481510.65408765</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3768,18 +3741,19 @@
         <v>2733163.7143</v>
       </c>
       <c r="G102" t="n">
-        <v>69214674.36838765</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3801,18 +3775,19 @@
         <v>235818.928</v>
       </c>
       <c r="G103" t="n">
-        <v>69214674.36838765</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3834,18 +3809,19 @@
         <v>54301.1302</v>
       </c>
       <c r="G104" t="n">
-        <v>69160373.23818766</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3867,18 +3843,19 @@
         <v>357811.1307</v>
       </c>
       <c r="G105" t="n">
-        <v>69160373.23818766</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3900,18 +3877,19 @@
         <v>526443.8005</v>
       </c>
       <c r="G106" t="n">
-        <v>69686817.03868766</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3933,18 +3911,19 @@
         <v>4983621.329</v>
       </c>
       <c r="G107" t="n">
-        <v>74670438.36768766</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3966,18 +3945,19 @@
         <v>14597176.3091</v>
       </c>
       <c r="G108" t="n">
-        <v>60073262.05858766</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3999,18 +3979,19 @@
         <v>1783477.7934</v>
       </c>
       <c r="G109" t="n">
-        <v>61856739.85198765</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4032,18 +4013,19 @@
         <v>3091.0057</v>
       </c>
       <c r="G110" t="n">
-        <v>61856739.85198765</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4065,18 +4047,19 @@
         <v>12624706.0077</v>
       </c>
       <c r="G111" t="n">
-        <v>49232033.84428765</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4098,18 +4081,19 @@
         <v>525591.7375</v>
       </c>
       <c r="G112" t="n">
-        <v>49232033.84428765</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4131,18 +4115,19 @@
         <v>108642.32</v>
       </c>
       <c r="G113" t="n">
-        <v>49340676.16428765</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4164,18 +4149,19 @@
         <v>1180.344</v>
       </c>
       <c r="G114" t="n">
-        <v>49341856.50828765</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4197,18 +4183,19 @@
         <v>2703.4288</v>
       </c>
       <c r="G115" t="n">
-        <v>49339153.07948764</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4230,18 +4217,19 @@
         <v>1190.09</v>
       </c>
       <c r="G116" t="n">
-        <v>49340343.16948765</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4263,18 +4251,19 @@
         <v>12634.1981</v>
       </c>
       <c r="G117" t="n">
-        <v>49327708.97138765</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4296,18 +4285,19 @@
         <v>62019.4411</v>
       </c>
       <c r="G118" t="n">
-        <v>49327708.97138765</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4329,18 +4319,19 @@
         <v>1411927.4954</v>
       </c>
       <c r="G119" t="n">
-        <v>47915781.47598765</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4362,18 +4353,19 @@
         <v>1058469.4088</v>
       </c>
       <c r="G120" t="n">
-        <v>48974250.88478765</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4395,18 +4387,19 @@
         <v>170180.3158</v>
       </c>
       <c r="G121" t="n">
-        <v>48974250.88478765</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4428,18 +4421,19 @@
         <v>2231.7487</v>
       </c>
       <c r="G122" t="n">
-        <v>48972019.13608765</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4461,18 +4455,19 @@
         <v>20000</v>
       </c>
       <c r="G123" t="n">
-        <v>48972019.13608765</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4494,18 +4489,19 @@
         <v>1606.654</v>
       </c>
       <c r="G124" t="n">
-        <v>48970412.48208765</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4527,18 +4523,19 @@
         <v>76027.9721</v>
       </c>
       <c r="G125" t="n">
-        <v>48970412.48208765</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4560,18 +4557,19 @@
         <v>465520.6994</v>
       </c>
       <c r="G126" t="n">
-        <v>48970412.48208765</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4593,18 +4591,19 @@
         <v>1558010.1017</v>
       </c>
       <c r="G127" t="n">
-        <v>48970412.48208765</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4626,18 +4625,19 @@
         <v>462943.797</v>
       </c>
       <c r="G128" t="n">
-        <v>48970412.48208765</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4659,18 +4659,19 @@
         <v>207686.9361</v>
       </c>
       <c r="G129" t="n">
-        <v>48970412.48208765</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4692,18 +4693,19 @@
         <v>101974.7729</v>
       </c>
       <c r="G130" t="n">
-        <v>48970412.48208765</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4725,18 +4727,19 @@
         <v>501686.5411</v>
       </c>
       <c r="G131" t="n">
-        <v>48468725.94098765</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4758,18 +4761,19 @@
         <v>82432.10460000001</v>
       </c>
       <c r="G132" t="n">
-        <v>48468725.94098765</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4791,18 +4795,19 @@
         <v>189188.7371</v>
       </c>
       <c r="G133" t="n">
-        <v>48657914.67808764</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4824,18 +4829,19 @@
         <v>2754.5224</v>
       </c>
       <c r="G134" t="n">
-        <v>48657914.67808764</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4857,18 +4863,19 @@
         <v>9522.34</v>
       </c>
       <c r="G135" t="n">
-        <v>48657914.67808764</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4890,18 +4897,17 @@
         <v>159921.6512</v>
       </c>
       <c r="G136" t="n">
-        <v>48657914.67808764</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4923,18 +4929,15 @@
         <v>1396.4442</v>
       </c>
       <c r="G137" t="n">
-        <v>48656518.23388764</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4956,18 +4959,15 @@
         <v>2949.4563</v>
       </c>
       <c r="G138" t="n">
-        <v>48656518.23388764</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4989,18 +4989,15 @@
         <v>2990397.13850344</v>
       </c>
       <c r="G139" t="n">
-        <v>51646915.37239108</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5022,18 +5019,15 @@
         <v>1835.4654</v>
       </c>
       <c r="G140" t="n">
-        <v>51645079.90699108</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5055,18 +5049,15 @@
         <v>2246825.8142</v>
       </c>
       <c r="G141" t="n">
-        <v>53891905.72119108</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5088,18 +5079,15 @@
         <v>1637.0635</v>
       </c>
       <c r="G142" t="n">
-        <v>53893542.78469108</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5121,18 +5109,15 @@
         <v>2059</v>
       </c>
       <c r="G143" t="n">
-        <v>53893542.78469108</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5154,18 +5139,15 @@
         <v>7624302.1063</v>
       </c>
       <c r="G144" t="n">
-        <v>53893542.78469108</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5187,18 +5169,15 @@
         <v>3775100.3172</v>
       </c>
       <c r="G145" t="n">
-        <v>50118442.46749108</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5220,18 +5199,15 @@
         <v>1889306.0992</v>
       </c>
       <c r="G146" t="n">
-        <v>52007748.56669109</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5253,18 +5229,15 @@
         <v>1200</v>
       </c>
       <c r="G147" t="n">
-        <v>52006548.56669109</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5286,18 +5259,15 @@
         <v>14447.6098</v>
       </c>
       <c r="G148" t="n">
-        <v>51992100.95689108</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5319,18 +5289,15 @@
         <v>1167.6301</v>
       </c>
       <c r="G149" t="n">
-        <v>51993268.58699108</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5352,18 +5319,15 @@
         <v>2127576.0886</v>
       </c>
       <c r="G150" t="n">
-        <v>51993268.58699108</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5385,18 +5349,15 @@
         <v>12606.772</v>
       </c>
       <c r="G151" t="n">
-        <v>51993268.58699108</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5418,18 +5379,15 @@
         <v>550838.9401</v>
       </c>
       <c r="G152" t="n">
-        <v>52544107.52709108</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5451,18 +5409,15 @@
         <v>663951.6218</v>
       </c>
       <c r="G153" t="n">
-        <v>52544107.52709108</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5484,18 +5439,15 @@
         <v>3112788.4735</v>
       </c>
       <c r="G154" t="n">
-        <v>52544107.52709108</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5517,18 +5469,15 @@
         <v>3259491.8475</v>
       </c>
       <c r="G155" t="n">
-        <v>52544107.52709108</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5550,18 +5499,15 @@
         <v>911600.0273</v>
       </c>
       <c r="G156" t="n">
-        <v>53455707.55439108</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5583,18 +5529,15 @@
         <v>23057.41305826</v>
       </c>
       <c r="G157" t="n">
-        <v>53478764.96744934</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5616,18 +5559,15 @@
         <v>496995.4756</v>
       </c>
       <c r="G158" t="n">
-        <v>52981769.49184934</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5649,18 +5589,15 @@
         <v>4012.0334</v>
       </c>
       <c r="G159" t="n">
-        <v>52985781.52524934</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5682,18 +5619,15 @@
         <v>123753.1259</v>
       </c>
       <c r="G160" t="n">
-        <v>52985781.52524934</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5715,18 +5649,15 @@
         <v>1200000</v>
       </c>
       <c r="G161" t="n">
-        <v>54185781.52524934</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5748,18 +5679,15 @@
         <v>5512123.5981</v>
       </c>
       <c r="G162" t="n">
-        <v>59697905.12334934</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5781,18 +5709,15 @@
         <v>1003730.5194</v>
       </c>
       <c r="G163" t="n">
-        <v>58694174.60394934</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5814,18 +5739,15 @@
         <v>1597.7986</v>
       </c>
       <c r="G164" t="n">
-        <v>58694174.60394934</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5847,18 +5769,15 @@
         <v>5082.4891</v>
       </c>
       <c r="G165" t="n">
-        <v>58694174.60394934</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5880,18 +5799,15 @@
         <v>4401001.3982</v>
       </c>
       <c r="G166" t="n">
-        <v>58694174.60394934</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5913,18 +5829,15 @@
         <v>238898.3466</v>
       </c>
       <c r="G167" t="n">
-        <v>58694174.60394934</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5946,18 +5859,15 @@
         <v>114916.11123879</v>
       </c>
       <c r="G168" t="n">
-        <v>58809090.71518813</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5979,18 +5889,15 @@
         <v>9168.528899999999</v>
       </c>
       <c r="G169" t="n">
-        <v>58809090.71518813</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6012,18 +5919,15 @@
         <v>1280256.1778</v>
       </c>
       <c r="G170" t="n">
-        <v>57528834.53738813</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6045,18 +5949,15 @@
         <v>1000000</v>
       </c>
       <c r="G171" t="n">
-        <v>56528834.53738813</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6078,18 +5979,15 @@
         <v>1169.8461</v>
       </c>
       <c r="G172" t="n">
-        <v>56530004.38348813</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6111,18 +6009,15 @@
         <v>135356.2989</v>
       </c>
       <c r="G173" t="n">
-        <v>56530004.38348813</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6144,18 +6039,15 @@
         <v>2408416.9117</v>
       </c>
       <c r="G174" t="n">
-        <v>56530004.38348813</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6177,18 +6069,15 @@
         <v>688782.5035</v>
       </c>
       <c r="G175" t="n">
-        <v>56530004.38348813</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6210,18 +6099,15 @@
         <v>1000000</v>
       </c>
       <c r="G176" t="n">
-        <v>55530004.38348813</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6243,18 +6129,15 @@
         <v>2000325.8489</v>
       </c>
       <c r="G177" t="n">
-        <v>53529678.53458814</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6276,18 +6159,15 @@
         <v>61703.3761</v>
       </c>
       <c r="G178" t="n">
-        <v>53467975.15848813</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6309,18 +6189,15 @@
         <v>422019.7438</v>
       </c>
       <c r="G179" t="n">
-        <v>53889994.90228813</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6342,18 +6219,15 @@
         <v>7190.6272</v>
       </c>
       <c r="G180" t="n">
-        <v>53882804.27508813</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6375,18 +6249,15 @@
         <v>219730.557</v>
       </c>
       <c r="G181" t="n">
-        <v>53882804.27508813</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6408,18 +6279,15 @@
         <v>1460822.8053</v>
       </c>
       <c r="G182" t="n">
-        <v>53882804.27508813</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6441,18 +6309,15 @@
         <v>118242.5104</v>
       </c>
       <c r="G183" t="n">
-        <v>54001046.78548813</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6474,18 +6339,15 @@
         <v>3432441.3536</v>
       </c>
       <c r="G184" t="n">
-        <v>50568605.43188813</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6507,18 +6369,15 @@
         <v>2860.6914</v>
       </c>
       <c r="G185" t="n">
-        <v>50571466.12328812</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6540,18 +6399,15 @@
         <v>1045453</v>
       </c>
       <c r="G186" t="n">
-        <v>49526013.12328812</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6573,18 +6429,15 @@
         <v>15070.4955</v>
       </c>
       <c r="G187" t="n">
-        <v>49541083.61878812</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6606,18 +6459,15 @@
         <v>933434.1218</v>
       </c>
       <c r="G188" t="n">
-        <v>48607649.49698813</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6639,18 +6489,15 @@
         <v>4316333.1848</v>
       </c>
       <c r="G189" t="n">
-        <v>44291316.31218813</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6672,18 +6519,15 @@
         <v>2468997.1718</v>
       </c>
       <c r="G190" t="n">
-        <v>44291316.31218813</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6705,18 +6549,15 @@
         <v>3677.1277</v>
       </c>
       <c r="G191" t="n">
-        <v>44291316.31218813</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6738,18 +6579,15 @@
         <v>19357179.6184</v>
       </c>
       <c r="G192" t="n">
-        <v>63648495.93058813</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6771,18 +6609,15 @@
         <v>425565.8496</v>
       </c>
       <c r="G193" t="n">
-        <v>63222930.08098812</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6804,18 +6639,15 @@
         <v>2970178.8772</v>
       </c>
       <c r="G194" t="n">
-        <v>60252751.20378812</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6837,18 +6669,15 @@
         <v>5086773.1005</v>
       </c>
       <c r="G195" t="n">
-        <v>65339524.30428813</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6870,18 +6699,15 @@
         <v>5229.1471</v>
       </c>
       <c r="G196" t="n">
-        <v>65344753.45138813</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6903,18 +6729,15 @@
         <v>2823.1022</v>
       </c>
       <c r="G197" t="n">
-        <v>65347576.55358813</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6936,18 +6759,15 @@
         <v>3070.4921</v>
       </c>
       <c r="G198" t="n">
-        <v>65344506.06148813</v>
-      </c>
-      <c r="H198" t="n">
         <v>2</v>
       </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6969,18 +6789,15 @@
         <v>70470.2151</v>
       </c>
       <c r="G199" t="n">
-        <v>65274035.84638813</v>
-      </c>
-      <c r="H199" t="n">
         <v>2</v>
       </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7002,18 +6819,15 @@
         <v>110367.4102</v>
       </c>
       <c r="G200" t="n">
-        <v>65274035.84638813</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7035,18 +6849,15 @@
         <v>1863448.9606</v>
       </c>
       <c r="G201" t="n">
-        <v>65274035.84638813</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7068,18 +6879,15 @@
         <v>1763867.8037</v>
       </c>
       <c r="G202" t="n">
-        <v>63510168.04268813</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7101,18 +6909,15 @@
         <v>1172.8072</v>
       </c>
       <c r="G203" t="n">
-        <v>63511340.84988813</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7134,18 +6939,15 @@
         <v>2360.0186</v>
       </c>
       <c r="G204" t="n">
-        <v>63508980.83128813</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7167,18 +6969,15 @@
         <v>1558010.1017</v>
       </c>
       <c r="G205" t="n">
-        <v>63508980.83128813</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7200,18 +6999,15 @@
         <v>23601.3813</v>
       </c>
       <c r="G206" t="n">
-        <v>63532582.21258813</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7233,18 +7029,15 @@
         <v>119400.5329</v>
       </c>
       <c r="G207" t="n">
-        <v>63413181.67968813</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7266,18 +7059,15 @@
         <v>23196.4742</v>
       </c>
       <c r="G208" t="n">
-        <v>63436378.15388814</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7299,18 +7089,15 @@
         <v>500000</v>
       </c>
       <c r="G209" t="n">
-        <v>62936378.15388814</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7332,18 +7119,15 @@
         <v>2250730.327</v>
       </c>
       <c r="G210" t="n">
-        <v>60685647.82688814</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7365,18 +7149,15 @@
         <v>4952.291</v>
       </c>
       <c r="G211" t="n">
-        <v>60685647.82688814</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7398,18 +7179,15 @@
         <v>7776120.082</v>
       </c>
       <c r="G212" t="n">
-        <v>52909527.74488813</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7431,18 +7209,15 @@
         <v>900353.8795</v>
       </c>
       <c r="G213" t="n">
-        <v>52009173.86538813</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7464,18 +7239,15 @@
         <v>920453.2505</v>
       </c>
       <c r="G214" t="n">
-        <v>52929627.11588813</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7497,18 +7269,15 @@
         <v>499999.9999</v>
       </c>
       <c r="G215" t="n">
-        <v>52929627.11588813</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7530,18 +7299,15 @@
         <v>531914.8936</v>
       </c>
       <c r="G216" t="n">
-        <v>52397712.22228813</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7563,18 +7329,15 @@
         <v>670858.5672</v>
       </c>
       <c r="G217" t="n">
-        <v>52397712.22228813</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7596,18 +7359,15 @@
         <v>5563421.0435</v>
       </c>
       <c r="G218" t="n">
-        <v>57961133.26578813</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7629,18 +7389,15 @@
         <v>6900</v>
       </c>
       <c r="G219" t="n">
-        <v>57968033.26578813</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7662,18 +7419,15 @@
         <v>462770.6308</v>
       </c>
       <c r="G220" t="n">
-        <v>57968033.26578813</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7695,18 +7449,15 @@
         <v>2000.0803</v>
       </c>
       <c r="G221" t="n">
-        <v>57966033.18548813</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7728,18 +7479,15 @@
         <v>100730.6681</v>
       </c>
       <c r="G222" t="n">
-        <v>57865302.51738813</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7761,18 +7509,15 @@
         <v>684341.0649</v>
       </c>
       <c r="G223" t="n">
-        <v>57180961.45248812</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7794,18 +7539,15 @@
         <v>15275354.3815</v>
       </c>
       <c r="G224" t="n">
-        <v>41905607.07098813</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7827,18 +7569,15 @@
         <v>1605744.0792</v>
       </c>
       <c r="G225" t="n">
-        <v>43511351.15018813</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7860,18 +7599,15 @@
         <v>31039.3822</v>
       </c>
       <c r="G226" t="n">
-        <v>43542390.53238813</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7893,18 +7629,15 @@
         <v>1153718.1924</v>
       </c>
       <c r="G227" t="n">
-        <v>42388672.33998813</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7926,18 +7659,15 @@
         <v>1000000</v>
       </c>
       <c r="G228" t="n">
-        <v>42388672.33998813</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7959,18 +7689,15 @@
         <v>3512585.9359</v>
       </c>
       <c r="G229" t="n">
-        <v>42388672.33998813</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7992,18 +7719,15 @@
         <v>239323.3012</v>
       </c>
       <c r="G230" t="n">
-        <v>42149349.03878812</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8025,18 +7749,15 @@
         <v>4276368.71668672</v>
       </c>
       <c r="G231" t="n">
-        <v>46425717.75547484</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8058,18 +7779,15 @@
         <v>732184.6841</v>
       </c>
       <c r="G232" t="n">
-        <v>45693533.07137484</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8091,18 +7809,15 @@
         <v>114916.1112</v>
       </c>
       <c r="G233" t="n">
-        <v>45578616.96017484</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8124,18 +7839,15 @@
         <v>6996.49122807</v>
       </c>
       <c r="G234" t="n">
-        <v>45585613.45140291</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8157,18 +7869,15 @@
         <v>5000</v>
       </c>
       <c r="G235" t="n">
-        <v>45585613.45140291</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8190,18 +7899,15 @@
         <v>84131.2393</v>
       </c>
       <c r="G236" t="n">
-        <v>45501482.21210291</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8223,18 +7929,15 @@
         <v>103997.2525</v>
       </c>
       <c r="G237" t="n">
-        <v>45397484.95960291</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8256,18 +7959,15 @@
         <v>1134600.9356</v>
       </c>
       <c r="G238" t="n">
-        <v>45397484.95960291</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8289,18 +7989,15 @@
         <v>4639899.7448</v>
       </c>
       <c r="G239" t="n">
-        <v>50037384.70440292</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8322,18 +8019,15 @@
         <v>3912658.8845</v>
       </c>
       <c r="G240" t="n">
-        <v>53950043.58890291</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8355,18 +8049,15 @@
         <v>56926.601</v>
       </c>
       <c r="G241" t="n">
-        <v>53893116.98790291</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8388,18 +8079,15 @@
         <v>502994.0729</v>
       </c>
       <c r="G242" t="n">
-        <v>54396111.06080291</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8421,18 +8109,15 @@
         <v>153068.1342</v>
       </c>
       <c r="G243" t="n">
-        <v>54243042.92660291</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8454,18 +8139,15 @@
         <v>3108548.5644</v>
       </c>
       <c r="G244" t="n">
-        <v>54243042.92660291</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8487,18 +8169,15 @@
         <v>2355208.4641</v>
       </c>
       <c r="G245" t="n">
-        <v>51887834.4625029</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8520,18 +8199,15 @@
         <v>1063232.1882</v>
       </c>
       <c r="G246" t="n">
-        <v>51887834.4625029</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8553,18 +8229,15 @@
         <v>1024270.9145</v>
       </c>
       <c r="G247" t="n">
-        <v>51887834.4625029</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8586,18 +8259,15 @@
         <v>1451578.869</v>
       </c>
       <c r="G248" t="n">
-        <v>51887834.4625029</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8619,18 +8289,15 @@
         <v>809788</v>
       </c>
       <c r="G249" t="n">
-        <v>51887834.4625029</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8652,18 +8319,15 @@
         <v>121242.891</v>
       </c>
       <c r="G250" t="n">
-        <v>51887834.4625029</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8685,18 +8349,15 @@
         <v>484260.3828</v>
       </c>
       <c r="G251" t="n">
-        <v>51887834.4625029</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8718,18 +8379,15 @@
         <v>145945.355</v>
       </c>
       <c r="G252" t="n">
-        <v>51887834.4625029</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8751,18 +8409,15 @@
         <v>35000</v>
       </c>
       <c r="G253" t="n">
-        <v>51852834.4625029</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8784,18 +8439,15 @@
         <v>14000</v>
       </c>
       <c r="G254" t="n">
-        <v>51852834.4625029</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8817,18 +8469,15 @@
         <v>21372.903</v>
       </c>
       <c r="G255" t="n">
-        <v>51852834.4625029</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8850,18 +8499,15 @@
         <v>5113.9706</v>
       </c>
       <c r="G256" t="n">
-        <v>51857948.43310291</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8883,18 +8529,15 @@
         <v>178961.9221</v>
       </c>
       <c r="G257" t="n">
-        <v>51678986.51100291</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8916,18 +8559,15 @@
         <v>5000000</v>
       </c>
       <c r="G258" t="n">
-        <v>56678986.51100291</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8949,18 +8589,15 @@
         <v>3504.2461</v>
       </c>
       <c r="G259" t="n">
-        <v>56678986.51100291</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8982,18 +8619,15 @@
         <v>167605.9079</v>
       </c>
       <c r="G260" t="n">
-        <v>56511380.60310291</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9015,18 +8649,15 @@
         <v>98111.2896</v>
       </c>
       <c r="G261" t="n">
-        <v>56609491.89270291</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9048,18 +8679,15 @@
         <v>1439224.8813</v>
       </c>
       <c r="G262" t="n">
-        <v>56609491.89270291</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9081,18 +8709,15 @@
         <v>1462607.606</v>
       </c>
       <c r="G263" t="n">
-        <v>55146884.28670291</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9114,18 +8739,15 @@
         <v>56474.6734</v>
       </c>
       <c r="G264" t="n">
-        <v>55090409.61330291</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9147,18 +8769,15 @@
         <v>162697.2745</v>
       </c>
       <c r="G265" t="n">
-        <v>55253106.88780291</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9180,18 +8799,15 @@
         <v>2408416.9117</v>
       </c>
       <c r="G266" t="n">
-        <v>55253106.88780291</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9213,18 +8829,15 @@
         <v>365082.321</v>
       </c>
       <c r="G267" t="n">
-        <v>55253106.88780291</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9246,18 +8859,15 @@
         <v>899428.9614</v>
       </c>
       <c r="G268" t="n">
-        <v>55253106.88780291</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9279,18 +8889,15 @@
         <v>224276.0093</v>
       </c>
       <c r="G269" t="n">
-        <v>55477382.89710291</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9312,18 +8919,15 @@
         <v>283624.7328</v>
       </c>
       <c r="G270" t="n">
-        <v>55761007.62990291</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9345,18 +8949,15 @@
         <v>2878085.9648</v>
       </c>
       <c r="G271" t="n">
-        <v>55761007.62990291</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9378,18 +8979,15 @@
         <v>2030562.3956</v>
       </c>
       <c r="G272" t="n">
-        <v>53730445.23430291</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9411,18 +9009,15 @@
         <v>6047546.5084</v>
       </c>
       <c r="G273" t="n">
-        <v>59777991.74270291</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9444,18 +9039,15 @@
         <v>2061695.83059647</v>
       </c>
       <c r="G274" t="n">
-        <v>57716295.91210644</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9477,18 +9069,15 @@
         <v>128260.5388</v>
       </c>
       <c r="G275" t="n">
-        <v>57588035.37330644</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9510,18 +9099,15 @@
         <v>9380596.5217</v>
       </c>
       <c r="G276" t="n">
-        <v>57588035.37330644</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9543,18 +9129,15 @@
         <v>9497228.855799999</v>
       </c>
       <c r="G277" t="n">
-        <v>48090806.51750644</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9576,18 +9159,15 @@
         <v>2889.1997</v>
       </c>
       <c r="G278" t="n">
-        <v>48093695.71720643</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9609,18 +9189,15 @@
         <v>14866.3341</v>
       </c>
       <c r="G279" t="n">
-        <v>48078829.38310643</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9642,18 +9219,15 @@
         <v>7500</v>
       </c>
       <c r="G280" t="n">
-        <v>48086329.38310643</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
